--- a/Unity/Assets/Config/Excel/CellDungeonConfig.xlsx
+++ b/Unity/Assets/Config/Excel/CellDungeonConfig.xlsx
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="891" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="37">
   <si>
     <t>Id</t>
   </si>
@@ -116,6 +116,9 @@
   </si>
   <si>
     <t>怪物生成坐标点</t>
+  </si>
+  <si>
+    <t>特殊怪</t>
   </si>
   <si>
     <t>Name</t>
@@ -146,6 +149,9 @@
   </si>
   <si>
     <t>CreateMonster</t>
+  </si>
+  <si>
+    <t>CreateScenceMonsterPro</t>
   </si>
   <si>
     <t>int</t>
@@ -209,7 +215,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="30">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -242,20 +248,6 @@
       <b/>
       <sz val="10"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -402,13 +394,6 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -833,19 +818,28 @@
   </borders>
   <cellStyleXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -854,127 +848,118 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -984,15 +969,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1025,38 +1010,35 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="57" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="57" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="5" fillId="4" borderId="7" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="4" borderId="7" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="7" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="7" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="57" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="57" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="57" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="57" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="57" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="57" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="57" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="57" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="57" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="57" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="57" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="57" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1144,7 +1126,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{6AA401D5-AAE7-4205-AE52-C50F9F178D77}">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{D010387C-9684-4BB9-AFDD-8D85337D42DA}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -1476,8 +1458,8 @@
   <sheetPr/>
   <dimension ref="C1:W148"/>
   <sheetViews>
-    <sheetView showFormulas="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+    <sheetView showFormulas="1" tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1533,7 +1515,9 @@
       <c r="M3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="N3" s="2"/>
+      <c r="N3" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="O3" s="4"/>
       <c r="P3" s="4"/>
       <c r="Q3" s="4"/>
@@ -1544,36 +1528,38 @@
         <v>0</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K4" s="10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="N4" s="19"/>
+        <v>18</v>
+      </c>
+      <c r="N4" s="7" t="s">
+        <v>19</v>
+      </c>
       <c r="O4" s="4"/>
       <c r="P4" s="4"/>
       <c r="Q4" s="4"/>
@@ -1581,54 +1567,56 @@
     </row>
     <row r="5" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:23">
       <c r="C5" s="11" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G5" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="M5" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="K5" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="L5" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="M5" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="N5" s="4"/>
+      <c r="N5" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="O5" s="4"/>
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
-      <c r="T5" s="20"/>
-      <c r="U5" s="20"/>
-      <c r="V5" s="20"/>
-      <c r="W5" s="20"/>
+      <c r="T5" s="19"/>
+      <c r="U5" s="19"/>
+      <c r="V5" s="19"/>
+      <c r="W5" s="19"/>
     </row>
     <row r="6" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:13">
       <c r="C6" s="12">
         <v>101</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E6" s="12">
         <v>4</v>
@@ -1640,19 +1628,19 @@
         <v>0</v>
       </c>
       <c r="H6" s="14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I6" s="14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J6" s="14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K6" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="L6" s="23" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="L6" s="22" t="s">
+        <v>28</v>
       </c>
       <c r="M6" s="17"/>
     </row>
@@ -1661,7 +1649,7 @@
         <v>201</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E7" s="12">
         <v>4</v>
@@ -1673,19 +1661,19 @@
         <v>0</v>
       </c>
       <c r="H7" s="14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I7" s="14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J7" s="14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K7" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="L7" s="23" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="L7" s="22" t="s">
+        <v>28</v>
       </c>
       <c r="M7" s="17"/>
     </row>
@@ -1694,7 +1682,7 @@
         <v>202</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E8" s="12">
         <v>4</v>
@@ -1706,19 +1694,19 @@
         <v>0</v>
       </c>
       <c r="H8" s="14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I8" s="14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J8" s="14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K8" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="L8" s="23" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="L8" s="22" t="s">
+        <v>28</v>
       </c>
       <c r="M8" s="17"/>
     </row>
@@ -1727,7 +1715,7 @@
         <v>203</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E9" s="12">
         <v>4</v>
@@ -1739,19 +1727,19 @@
         <v>0</v>
       </c>
       <c r="H9" s="14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I9" s="14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J9" s="14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K9" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="L9" s="23" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="L9" s="22" t="s">
+        <v>28</v>
       </c>
       <c r="M9" s="17"/>
     </row>
@@ -1760,7 +1748,7 @@
         <v>204</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E10" s="12">
         <v>4</v>
@@ -1772,19 +1760,19 @@
         <v>0</v>
       </c>
       <c r="H10" s="14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I10" s="14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J10" s="14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K10" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="L10" s="23" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="L10" s="22" t="s">
+        <v>28</v>
       </c>
       <c r="M10" s="17"/>
     </row>
@@ -1793,7 +1781,7 @@
         <v>1001</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E11" s="16">
         <v>1</v>
@@ -1805,19 +1793,19 @@
         <v>0</v>
       </c>
       <c r="H11" s="14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I11" s="14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J11" s="14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K11" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="L11" s="23" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="L11" s="22" t="s">
+        <v>28</v>
       </c>
       <c r="M11" s="17"/>
     </row>
@@ -1826,7 +1814,7 @@
         <v>1002</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E12" s="12">
         <v>4</v>
@@ -1838,19 +1826,19 @@
         <v>0</v>
       </c>
       <c r="H12" s="14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I12" s="14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J12" s="14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K12" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="L12" s="23" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="L12" s="22" t="s">
+        <v>28</v>
       </c>
       <c r="M12" s="17"/>
     </row>
@@ -1859,7 +1847,7 @@
         <v>1003</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E13" s="12">
         <v>4</v>
@@ -1871,19 +1859,19 @@
         <v>0</v>
       </c>
       <c r="H13" s="14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I13" s="14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J13" s="14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K13" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="L13" s="23" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="L13" s="22" t="s">
+        <v>28</v>
       </c>
       <c r="M13" s="17"/>
       <c r="N13" s="4"/>
@@ -1891,14 +1879,14 @@
       <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
       <c r="R13" s="2"/>
-      <c r="S13" s="21"/>
+      <c r="S13" s="20"/>
     </row>
     <row r="14" ht="20.1" customHeight="1" spans="3:19">
       <c r="C14" s="15">
         <v>1004</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E14" s="12">
         <v>4</v>
@@ -1910,19 +1898,19 @@
         <v>0</v>
       </c>
       <c r="H14" s="14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I14" s="14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J14" s="14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K14" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="L14" s="23" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="L14" s="22" t="s">
+        <v>28</v>
       </c>
       <c r="M14" s="17"/>
       <c r="N14" s="4"/>
@@ -1930,14 +1918,14 @@
       <c r="P14" s="2"/>
       <c r="Q14" s="2"/>
       <c r="R14" s="2"/>
-      <c r="S14" s="21"/>
+      <c r="S14" s="20"/>
     </row>
     <row r="15" ht="20.1" customHeight="1" spans="3:19">
       <c r="C15" s="15">
         <v>1005</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E15" s="12">
         <v>2</v>
@@ -1949,19 +1937,19 @@
         <v>0</v>
       </c>
       <c r="H15" s="14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I15" s="14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K15" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="L15" s="23" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="L15" s="22" t="s">
+        <v>28</v>
       </c>
       <c r="M15" s="17"/>
       <c r="N15" s="4"/>
@@ -1969,14 +1957,14 @@
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
       <c r="R15" s="2"/>
-      <c r="S15" s="21"/>
+      <c r="S15" s="20"/>
     </row>
     <row r="16" ht="20.1" customHeight="1" spans="3:19">
       <c r="C16" s="15">
         <v>1006</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E16" s="12">
         <v>3</v>
@@ -1988,19 +1976,19 @@
         <v>0</v>
       </c>
       <c r="H16" s="14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I16" s="14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J16" s="14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K16" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="L16" s="23" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="L16" s="22" t="s">
+        <v>28</v>
       </c>
       <c r="M16" s="17"/>
       <c r="N16" s="4"/>
@@ -2008,14 +1996,14 @@
       <c r="P16" s="2"/>
       <c r="Q16" s="2"/>
       <c r="R16" s="2"/>
-      <c r="S16" s="21"/>
+      <c r="S16" s="20"/>
     </row>
     <row r="17" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:13">
       <c r="C17" s="15">
         <v>100101</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E17" s="16">
         <v>1</v>
@@ -2027,19 +2015,19 @@
         <v>0</v>
       </c>
       <c r="H17" s="14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I17" s="14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J17" s="14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K17" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="L17" s="23" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="L17" s="22" t="s">
+        <v>28</v>
       </c>
       <c r="M17" s="17"/>
     </row>
@@ -2048,7 +2036,7 @@
         <v>100102</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E18" s="16">
         <v>4</v>
@@ -2060,19 +2048,19 @@
         <v>0</v>
       </c>
       <c r="H18" s="14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I18" s="14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J18" s="14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K18" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="L18" s="23" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="L18" s="22" t="s">
+        <v>28</v>
       </c>
       <c r="M18" s="17"/>
     </row>
@@ -2081,7 +2069,7 @@
         <v>100103</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E19" s="16">
         <v>4</v>
@@ -2093,19 +2081,19 @@
         <v>0</v>
       </c>
       <c r="H19" s="14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I19" s="14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J19" s="14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K19" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="L19" s="23" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="L19" s="22" t="s">
+        <v>28</v>
       </c>
       <c r="M19" s="17"/>
     </row>
@@ -2114,7 +2102,7 @@
         <v>100105</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E20" s="16">
         <v>2</v>
@@ -2126,19 +2114,19 @@
         <v>0</v>
       </c>
       <c r="H20" s="14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I20" s="14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J20" s="14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K20" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="L20" s="23" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="L20" s="22" t="s">
+        <v>28</v>
       </c>
       <c r="M20" s="17"/>
     </row>
@@ -2147,7 +2135,7 @@
         <v>100201</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E21" s="16">
         <v>1</v>
@@ -2159,19 +2147,19 @@
         <v>0</v>
       </c>
       <c r="H21" s="14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I21" s="14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J21" s="14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K21" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="L21" s="23" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="L21" s="22" t="s">
+        <v>28</v>
       </c>
       <c r="M21" s="17"/>
     </row>
@@ -2180,7 +2168,7 @@
         <v>100202</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E22" s="16">
         <v>4</v>
@@ -2192,19 +2180,19 @@
         <v>0</v>
       </c>
       <c r="H22" s="14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I22" s="14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J22" s="14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K22" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="L22" s="23" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="L22" s="22" t="s">
+        <v>28</v>
       </c>
       <c r="M22" s="17"/>
     </row>
@@ -2213,7 +2201,7 @@
         <v>100203</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E23" s="16">
         <v>4</v>
@@ -2225,19 +2213,19 @@
         <v>0</v>
       </c>
       <c r="H23" s="14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I23" s="14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J23" s="14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K23" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="L23" s="23" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="L23" s="22" t="s">
+        <v>28</v>
       </c>
       <c r="M23" s="17"/>
     </row>
@@ -2246,7 +2234,7 @@
         <v>100204</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E24" s="16">
         <v>4</v>
@@ -2258,19 +2246,19 @@
         <v>0</v>
       </c>
       <c r="H24" s="14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I24" s="14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J24" s="14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K24" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="L24" s="23" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="L24" s="22" t="s">
+        <v>28</v>
       </c>
       <c r="M24" s="17"/>
     </row>
@@ -2279,7 +2267,7 @@
         <v>100205</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E25" s="16">
         <v>4</v>
@@ -2291,19 +2279,19 @@
         <v>0</v>
       </c>
       <c r="H25" s="14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I25" s="14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J25" s="14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K25" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="L25" s="23" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="L25" s="22" t="s">
+        <v>28</v>
       </c>
       <c r="M25" s="17"/>
     </row>
@@ -2312,7 +2300,7 @@
         <v>100206</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E26" s="16">
         <v>2</v>
@@ -2324,19 +2312,19 @@
         <v>0</v>
       </c>
       <c r="H26" s="14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I26" s="14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J26" s="14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K26" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="L26" s="23" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="L26" s="22" t="s">
+        <v>28</v>
       </c>
       <c r="M26" s="17"/>
     </row>
@@ -2345,7 +2333,7 @@
         <v>100301</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E27" s="17">
         <v>1</v>
@@ -2357,19 +2345,19 @@
         <v>0</v>
       </c>
       <c r="H27" s="14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I27" s="14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J27" s="14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K27" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="L27" s="23" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="L27" s="22" t="s">
+        <v>28</v>
       </c>
       <c r="M27" s="17"/>
     </row>
@@ -2378,7 +2366,7 @@
         <v>100302</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E28" s="17">
         <v>4</v>
@@ -2390,19 +2378,19 @@
         <v>0</v>
       </c>
       <c r="H28" s="14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I28" s="14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J28" s="14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K28" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="L28" s="23" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="L28" s="22" t="s">
+        <v>28</v>
       </c>
       <c r="M28" s="17"/>
     </row>
@@ -2411,7 +2399,7 @@
         <v>100303</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E29" s="17">
         <v>4</v>
@@ -2423,19 +2411,19 @@
         <v>0</v>
       </c>
       <c r="H29" s="14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I29" s="14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J29" s="14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K29" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="L29" s="23" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="L29" s="22" t="s">
+        <v>28</v>
       </c>
       <c r="M29" s="17"/>
     </row>
@@ -2444,7 +2432,7 @@
         <v>100304</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E30" s="17">
         <v>4</v>
@@ -2456,19 +2444,19 @@
         <v>0</v>
       </c>
       <c r="H30" s="14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I30" s="14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J30" s="14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K30" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="L30" s="23" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="L30" s="22" t="s">
+        <v>28</v>
       </c>
       <c r="M30" s="17"/>
     </row>
@@ -2477,7 +2465,7 @@
         <v>100305</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E31" s="17">
         <v>2</v>
@@ -2489,19 +2477,19 @@
         <v>0</v>
       </c>
       <c r="H31" s="14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I31" s="14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J31" s="14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K31" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="L31" s="23" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="L31" s="22" t="s">
+        <v>28</v>
       </c>
       <c r="M31" s="17"/>
     </row>
@@ -2510,7 +2498,7 @@
         <v>100306</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E32" s="17">
         <v>4</v>
@@ -2522,19 +2510,19 @@
         <v>0</v>
       </c>
       <c r="H32" s="14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I32" s="14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J32" s="14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K32" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="L32" s="23" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="L32" s="22" t="s">
+        <v>28</v>
       </c>
       <c r="M32" s="17"/>
     </row>
@@ -2543,7 +2531,7 @@
         <v>100401</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E33" s="17">
         <v>1</v>
@@ -2555,19 +2543,19 @@
         <v>0</v>
       </c>
       <c r="H33" s="14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I33" s="14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J33" s="14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K33" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="L33" s="23" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="L33" s="22" t="s">
+        <v>28</v>
       </c>
       <c r="M33" s="17"/>
     </row>
@@ -2576,7 +2564,7 @@
         <v>100402</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E34" s="17">
         <v>4</v>
@@ -2588,19 +2576,19 @@
         <v>0</v>
       </c>
       <c r="H34" s="14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I34" s="14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J34" s="14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K34" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="L34" s="23" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="L34" s="22" t="s">
+        <v>28</v>
       </c>
       <c r="M34" s="17"/>
     </row>
@@ -2609,7 +2597,7 @@
         <v>100403</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E35" s="17">
         <v>4</v>
@@ -2621,19 +2609,19 @@
         <v>0</v>
       </c>
       <c r="H35" s="14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I35" s="14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J35" s="14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K35" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="L35" s="23" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="L35" s="22" t="s">
+        <v>28</v>
       </c>
       <c r="M35" s="17"/>
     </row>
@@ -2642,7 +2630,7 @@
         <v>100404</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E36" s="17">
         <v>4</v>
@@ -2654,19 +2642,19 @@
         <v>0</v>
       </c>
       <c r="H36" s="14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I36" s="14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J36" s="14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K36" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="L36" s="23" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="L36" s="22" t="s">
+        <v>28</v>
       </c>
       <c r="M36" s="17"/>
     </row>
@@ -2675,7 +2663,7 @@
         <v>100405</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E37" s="17">
         <v>2</v>
@@ -2687,19 +2675,19 @@
         <v>0</v>
       </c>
       <c r="H37" s="14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I37" s="14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J37" s="14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K37" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="L37" s="23" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="L37" s="22" t="s">
+        <v>28</v>
       </c>
       <c r="M37" s="17"/>
     </row>
@@ -2708,7 +2696,7 @@
         <v>100406</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E38" s="17">
         <v>1</v>
@@ -2720,19 +2708,19 @@
         <v>0</v>
       </c>
       <c r="H38" s="14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I38" s="14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J38" s="14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K38" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="L38" s="23" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="L38" s="22" t="s">
+        <v>28</v>
       </c>
       <c r="M38" s="17"/>
     </row>
@@ -2741,7 +2729,7 @@
         <v>100407</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E39" s="17">
         <v>1</v>
@@ -2753,19 +2741,19 @@
         <v>0</v>
       </c>
       <c r="H39" s="14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I39" s="14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J39" s="14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K39" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="L39" s="23" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="L39" s="22" t="s">
+        <v>28</v>
       </c>
       <c r="M39" s="17"/>
     </row>
@@ -2774,7 +2762,7 @@
         <v>100501</v>
       </c>
       <c r="D40" s="12" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E40" s="17">
         <v>1</v>
@@ -2786,19 +2774,19 @@
         <v>0</v>
       </c>
       <c r="H40" s="14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I40" s="14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J40" s="14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K40" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="L40" s="23" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="L40" s="22" t="s">
+        <v>28</v>
       </c>
       <c r="M40" s="17"/>
     </row>
@@ -2807,7 +2795,7 @@
         <v>100502</v>
       </c>
       <c r="D41" s="12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E41" s="17">
         <v>4</v>
@@ -2819,19 +2807,19 @@
         <v>0</v>
       </c>
       <c r="H41" s="14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I41" s="14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J41" s="14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K41" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="L41" s="23" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="L41" s="22" t="s">
+        <v>28</v>
       </c>
       <c r="M41" s="17"/>
     </row>
@@ -2840,7 +2828,7 @@
         <v>100503</v>
       </c>
       <c r="D42" s="12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E42" s="17">
         <v>4</v>
@@ -2852,19 +2840,19 @@
         <v>0</v>
       </c>
       <c r="H42" s="14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I42" s="14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J42" s="14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K42" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="L42" s="23" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="L42" s="22" t="s">
+        <v>28</v>
       </c>
       <c r="M42" s="17"/>
     </row>
@@ -2873,7 +2861,7 @@
         <v>100504</v>
       </c>
       <c r="D43" s="12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E43" s="17">
         <v>4</v>
@@ -2885,19 +2873,19 @@
         <v>0</v>
       </c>
       <c r="H43" s="14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I43" s="14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J43" s="14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K43" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="L43" s="23" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="L43" s="22" t="s">
+        <v>28</v>
       </c>
       <c r="M43" s="17"/>
     </row>
@@ -2906,7 +2894,7 @@
         <v>100505</v>
       </c>
       <c r="D44" s="12" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E44" s="17">
         <v>2</v>
@@ -2918,19 +2906,19 @@
         <v>0</v>
       </c>
       <c r="H44" s="14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I44" s="14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J44" s="14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K44" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="L44" s="23" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="L44" s="22" t="s">
+        <v>28</v>
       </c>
       <c r="M44" s="17"/>
     </row>
@@ -2939,7 +2927,7 @@
         <v>100506</v>
       </c>
       <c r="D45" s="12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E45" s="17">
         <v>4</v>
@@ -2951,19 +2939,19 @@
         <v>0</v>
       </c>
       <c r="H45" s="14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I45" s="14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J45" s="14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K45" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="L45" s="23" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="L45" s="22" t="s">
+        <v>28</v>
       </c>
       <c r="M45" s="17"/>
     </row>
@@ -2972,7 +2960,7 @@
         <v>100601</v>
       </c>
       <c r="D46" s="12" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E46" s="17">
         <v>1</v>
@@ -2984,19 +2972,19 @@
         <v>0</v>
       </c>
       <c r="H46" s="14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I46" s="14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J46" s="14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K46" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="L46" s="23" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="L46" s="22" t="s">
+        <v>28</v>
       </c>
       <c r="M46" s="17"/>
     </row>
@@ -3005,7 +2993,7 @@
         <v>100602</v>
       </c>
       <c r="D47" s="12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E47" s="17">
         <v>4</v>
@@ -3017,19 +3005,19 @@
         <v>0</v>
       </c>
       <c r="H47" s="14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I47" s="14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J47" s="14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K47" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="L47" s="23" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="L47" s="22" t="s">
+        <v>28</v>
       </c>
       <c r="M47" s="17"/>
     </row>
@@ -3038,7 +3026,7 @@
         <v>100603</v>
       </c>
       <c r="D48" s="12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E48" s="17">
         <v>4</v>
@@ -3050,19 +3038,19 @@
         <v>0</v>
       </c>
       <c r="H48" s="14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I48" s="14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J48" s="14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K48" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="L48" s="23" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="L48" s="22" t="s">
+        <v>28</v>
       </c>
       <c r="M48" s="17"/>
     </row>
@@ -3071,7 +3059,7 @@
         <v>100604</v>
       </c>
       <c r="D49" s="12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E49" s="17">
         <v>4</v>
@@ -3083,19 +3071,19 @@
         <v>0</v>
       </c>
       <c r="H49" s="14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I49" s="14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J49" s="14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K49" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="L49" s="23" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="L49" s="22" t="s">
+        <v>28</v>
       </c>
       <c r="M49" s="17"/>
     </row>
@@ -3104,7 +3092,7 @@
         <v>100605</v>
       </c>
       <c r="D50" s="12" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E50" s="17">
         <v>2</v>
@@ -3116,19 +3104,19 @@
         <v>0</v>
       </c>
       <c r="H50" s="14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I50" s="14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J50" s="14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K50" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="L50" s="23" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="L50" s="22" t="s">
+        <v>28</v>
       </c>
       <c r="M50" s="17"/>
     </row>
@@ -3137,7 +3125,7 @@
         <v>100606</v>
       </c>
       <c r="D51" s="12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E51" s="17">
         <v>4</v>
@@ -3149,19 +3137,19 @@
         <v>0</v>
       </c>
       <c r="H51" s="14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I51" s="14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J51" s="14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K51" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="L51" s="23" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="L51" s="22" t="s">
+        <v>28</v>
       </c>
       <c r="M51" s="17"/>
     </row>
@@ -3170,7 +3158,7 @@
         <v>100607</v>
       </c>
       <c r="D52" s="12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E52" s="17">
         <v>4</v>
@@ -3182,19 +3170,19 @@
         <v>0</v>
       </c>
       <c r="H52" s="14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I52" s="14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J52" s="14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K52" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="L52" s="23" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="L52" s="22" t="s">
+        <v>28</v>
       </c>
       <c r="M52" s="17"/>
     </row>
@@ -3203,7 +3191,7 @@
         <v>100701</v>
       </c>
       <c r="D53" s="12" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E53" s="17">
         <v>1</v>
@@ -3215,19 +3203,19 @@
         <v>0</v>
       </c>
       <c r="H53" s="14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I53" s="14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J53" s="14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K53" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="L53" s="23" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="L53" s="22" t="s">
+        <v>28</v>
       </c>
       <c r="M53" s="17"/>
     </row>
@@ -3236,7 +3224,7 @@
         <v>100702</v>
       </c>
       <c r="D54" s="12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E54" s="17">
         <v>4</v>
@@ -3248,19 +3236,19 @@
         <v>0</v>
       </c>
       <c r="H54" s="14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I54" s="14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J54" s="14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K54" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="L54" s="23" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="L54" s="22" t="s">
+        <v>28</v>
       </c>
       <c r="M54" s="17"/>
     </row>
@@ -3269,7 +3257,7 @@
         <v>100703</v>
       </c>
       <c r="D55" s="12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E55" s="17">
         <v>4</v>
@@ -3281,19 +3269,19 @@
         <v>0</v>
       </c>
       <c r="H55" s="14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I55" s="14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J55" s="14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K55" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="L55" s="23" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="L55" s="22" t="s">
+        <v>28</v>
       </c>
       <c r="M55" s="17"/>
     </row>
@@ -3302,7 +3290,7 @@
         <v>100704</v>
       </c>
       <c r="D56" s="12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E56" s="17">
         <v>4</v>
@@ -3314,19 +3302,19 @@
         <v>0</v>
       </c>
       <c r="H56" s="14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I56" s="14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J56" s="14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K56" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="L56" s="23" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="L56" s="22" t="s">
+        <v>28</v>
       </c>
       <c r="M56" s="17"/>
     </row>
@@ -3335,7 +3323,7 @@
         <v>100705</v>
       </c>
       <c r="D57" s="12" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E57" s="17">
         <v>2</v>
@@ -3347,19 +3335,19 @@
         <v>0</v>
       </c>
       <c r="H57" s="14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I57" s="14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J57" s="14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K57" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="L57" s="23" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="L57" s="22" t="s">
+        <v>28</v>
       </c>
       <c r="M57" s="17"/>
     </row>
@@ -3368,7 +3356,7 @@
         <v>100706</v>
       </c>
       <c r="D58" s="12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E58" s="17">
         <v>4</v>
@@ -3380,19 +3368,19 @@
         <v>0</v>
       </c>
       <c r="H58" s="14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I58" s="14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J58" s="14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K58" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="L58" s="23" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="L58" s="22" t="s">
+        <v>28</v>
       </c>
       <c r="M58" s="17"/>
     </row>
@@ -3401,7 +3389,7 @@
         <v>200001</v>
       </c>
       <c r="D59" s="12" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E59" s="17">
         <v>1</v>
@@ -3413,19 +3401,19 @@
         <v>0</v>
       </c>
       <c r="H59" s="14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I59" s="14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J59" s="14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K59" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="L59" s="23" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="L59" s="22" t="s">
+        <v>28</v>
       </c>
       <c r="M59" s="17"/>
     </row>
@@ -3434,7 +3422,7 @@
         <v>200002</v>
       </c>
       <c r="D60" s="12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E60" s="17">
         <v>4</v>
@@ -3446,19 +3434,19 @@
         <v>0</v>
       </c>
       <c r="H60" s="14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I60" s="14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J60" s="14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K60" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="L60" s="23" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="L60" s="22" t="s">
+        <v>28</v>
       </c>
       <c r="M60" s="17"/>
     </row>
@@ -3467,7 +3455,7 @@
         <v>200003</v>
       </c>
       <c r="D61" s="12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E61" s="17">
         <v>4</v>
@@ -3479,19 +3467,19 @@
         <v>0</v>
       </c>
       <c r="H61" s="14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I61" s="14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J61" s="14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K61" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="L61" s="23" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="L61" s="22" t="s">
+        <v>28</v>
       </c>
       <c r="M61" s="17"/>
     </row>
@@ -3500,7 +3488,7 @@
         <v>200004</v>
       </c>
       <c r="D62" s="12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E62" s="17">
         <v>4</v>
@@ -3512,19 +3500,19 @@
         <v>0</v>
       </c>
       <c r="H62" s="14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I62" s="14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J62" s="14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K62" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="L62" s="23" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="L62" s="22" t="s">
+        <v>28</v>
       </c>
       <c r="M62" s="17"/>
     </row>
@@ -3533,7 +3521,7 @@
         <v>200005</v>
       </c>
       <c r="D63" s="12" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E63" s="17">
         <v>2</v>
@@ -3545,19 +3533,19 @@
         <v>0</v>
       </c>
       <c r="H63" s="14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I63" s="14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J63" s="14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K63" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="L63" s="23" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="L63" s="22" t="s">
+        <v>28</v>
       </c>
       <c r="M63" s="17"/>
     </row>
@@ -3566,7 +3554,7 @@
         <v>200006</v>
       </c>
       <c r="D64" s="12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E64" s="17">
         <v>4</v>
@@ -3578,19 +3566,19 @@
         <v>0</v>
       </c>
       <c r="H64" s="14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I64" s="14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J64" s="14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K64" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="L64" s="23" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="L64" s="22" t="s">
+        <v>28</v>
       </c>
       <c r="M64" s="17"/>
     </row>
@@ -3599,7 +3587,7 @@
         <v>200101</v>
       </c>
       <c r="D65" s="12" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E65" s="17">
         <v>1</v>
@@ -3611,19 +3599,19 @@
         <v>0</v>
       </c>
       <c r="H65" s="14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I65" s="14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J65" s="14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K65" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="L65" s="23" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="L65" s="22" t="s">
+        <v>28</v>
       </c>
       <c r="M65" s="17"/>
     </row>
@@ -3632,7 +3620,7 @@
         <v>200102</v>
       </c>
       <c r="D66" s="12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E66" s="17">
         <v>4</v>
@@ -3644,19 +3632,19 @@
         <v>0</v>
       </c>
       <c r="H66" s="14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I66" s="14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J66" s="14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K66" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="L66" s="23" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="L66" s="22" t="s">
+        <v>28</v>
       </c>
       <c r="M66" s="17"/>
     </row>
@@ -3665,7 +3653,7 @@
         <v>200103</v>
       </c>
       <c r="D67" s="12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E67" s="17">
         <v>4</v>
@@ -3677,19 +3665,19 @@
         <v>0</v>
       </c>
       <c r="H67" s="14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I67" s="14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J67" s="14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K67" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="L67" s="23" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="L67" s="22" t="s">
+        <v>28</v>
       </c>
       <c r="M67" s="17"/>
     </row>
@@ -3698,7 +3686,7 @@
         <v>200104</v>
       </c>
       <c r="D68" s="12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E68" s="17">
         <v>4</v>
@@ -3710,19 +3698,19 @@
         <v>0</v>
       </c>
       <c r="H68" s="14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I68" s="14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J68" s="14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K68" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="L68" s="23" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="L68" s="22" t="s">
+        <v>28</v>
       </c>
       <c r="M68" s="17"/>
     </row>
@@ -3731,7 +3719,7 @@
         <v>200105</v>
       </c>
       <c r="D69" s="12" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E69" s="17">
         <v>2</v>
@@ -3743,19 +3731,19 @@
         <v>0</v>
       </c>
       <c r="H69" s="14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I69" s="14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J69" s="14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K69" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="L69" s="23" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="L69" s="22" t="s">
+        <v>28</v>
       </c>
       <c r="M69" s="17"/>
     </row>
@@ -3764,7 +3752,7 @@
         <v>200106</v>
       </c>
       <c r="D70" s="12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E70" s="17">
         <v>4</v>
@@ -3776,19 +3764,19 @@
         <v>0</v>
       </c>
       <c r="H70" s="14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I70" s="14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J70" s="14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K70" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="L70" s="23" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="L70" s="22" t="s">
+        <v>28</v>
       </c>
       <c r="M70" s="17"/>
     </row>
@@ -3797,7 +3785,7 @@
         <v>200201</v>
       </c>
       <c r="D71" s="12" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E71" s="17">
         <v>1</v>
@@ -3809,19 +3797,19 @@
         <v>0</v>
       </c>
       <c r="H71" s="14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I71" s="14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J71" s="14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K71" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="L71" s="23" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="L71" s="22" t="s">
+        <v>28</v>
       </c>
       <c r="M71" s="17"/>
     </row>
@@ -3830,7 +3818,7 @@
         <v>200202</v>
       </c>
       <c r="D72" s="12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E72" s="17">
         <v>4</v>
@@ -3842,19 +3830,19 @@
         <v>0</v>
       </c>
       <c r="H72" s="14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I72" s="14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J72" s="14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K72" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="L72" s="23" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="L72" s="22" t="s">
+        <v>28</v>
       </c>
       <c r="M72" s="17"/>
     </row>
@@ -3863,7 +3851,7 @@
         <v>200203</v>
       </c>
       <c r="D73" s="12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E73" s="17">
         <v>4</v>
@@ -3875,19 +3863,19 @@
         <v>0</v>
       </c>
       <c r="H73" s="14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I73" s="14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J73" s="14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K73" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="L73" s="23" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="L73" s="22" t="s">
+        <v>28</v>
       </c>
       <c r="M73" s="17"/>
     </row>
@@ -3896,7 +3884,7 @@
         <v>200204</v>
       </c>
       <c r="D74" s="12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E74" s="17">
         <v>4</v>
@@ -3908,19 +3896,19 @@
         <v>0</v>
       </c>
       <c r="H74" s="14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I74" s="14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J74" s="14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K74" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="L74" s="23" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="L74" s="22" t="s">
+        <v>28</v>
       </c>
       <c r="M74" s="17"/>
     </row>
@@ -3929,7 +3917,7 @@
         <v>200205</v>
       </c>
       <c r="D75" s="12" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E75" s="17">
         <v>2</v>
@@ -3941,19 +3929,19 @@
         <v>0</v>
       </c>
       <c r="H75" s="14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I75" s="14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J75" s="14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K75" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="L75" s="23" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="L75" s="22" t="s">
+        <v>28</v>
       </c>
       <c r="M75" s="17"/>
     </row>
@@ -3962,7 +3950,7 @@
         <v>200206</v>
       </c>
       <c r="D76" s="12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E76" s="17">
         <v>4</v>
@@ -3974,19 +3962,19 @@
         <v>0</v>
       </c>
       <c r="H76" s="14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I76" s="14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J76" s="14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K76" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="L76" s="23" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="L76" s="22" t="s">
+        <v>28</v>
       </c>
       <c r="M76" s="17"/>
     </row>
@@ -3995,7 +3983,7 @@
         <v>200301</v>
       </c>
       <c r="D77" s="12" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E77" s="17">
         <v>1</v>
@@ -4007,19 +3995,19 @@
         <v>0</v>
       </c>
       <c r="H77" s="14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I77" s="14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J77" s="14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K77" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="L77" s="23" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="L77" s="22" t="s">
+        <v>28</v>
       </c>
       <c r="M77" s="17"/>
     </row>
@@ -4028,7 +4016,7 @@
         <v>200302</v>
       </c>
       <c r="D78" s="12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E78" s="17">
         <v>4</v>
@@ -4040,19 +4028,19 @@
         <v>0</v>
       </c>
       <c r="H78" s="14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I78" s="14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J78" s="14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K78" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="L78" s="23" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="L78" s="22" t="s">
+        <v>28</v>
       </c>
       <c r="M78" s="17"/>
     </row>
@@ -4061,7 +4049,7 @@
         <v>200303</v>
       </c>
       <c r="D79" s="12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E79" s="17">
         <v>4</v>
@@ -4073,19 +4061,19 @@
         <v>0</v>
       </c>
       <c r="H79" s="14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I79" s="14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J79" s="14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K79" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="L79" s="23" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="L79" s="22" t="s">
+        <v>28</v>
       </c>
       <c r="M79" s="17"/>
     </row>
@@ -4094,7 +4082,7 @@
         <v>200304</v>
       </c>
       <c r="D80" s="12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E80" s="17">
         <v>4</v>
@@ -4106,19 +4094,19 @@
         <v>0</v>
       </c>
       <c r="H80" s="14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I80" s="14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J80" s="14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K80" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="L80" s="23" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="L80" s="22" t="s">
+        <v>28</v>
       </c>
       <c r="M80" s="17"/>
     </row>
@@ -4127,7 +4115,7 @@
         <v>200305</v>
       </c>
       <c r="D81" s="12" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E81" s="17">
         <v>2</v>
@@ -4139,19 +4127,19 @@
         <v>0</v>
       </c>
       <c r="H81" s="14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I81" s="14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J81" s="14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K81" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="L81" s="23" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="L81" s="22" t="s">
+        <v>28</v>
       </c>
       <c r="M81" s="17"/>
     </row>
@@ -4160,7 +4148,7 @@
         <v>200306</v>
       </c>
       <c r="D82" s="12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E82" s="17">
         <v>4</v>
@@ -4172,19 +4160,19 @@
         <v>0</v>
       </c>
       <c r="H82" s="14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I82" s="14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J82" s="14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K82" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="L82" s="23" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="L82" s="22" t="s">
+        <v>28</v>
       </c>
       <c r="M82" s="17"/>
     </row>
@@ -4193,7 +4181,7 @@
         <v>200401</v>
       </c>
       <c r="D83" s="12" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E83" s="17">
         <v>1</v>
@@ -4205,19 +4193,19 @@
         <v>0</v>
       </c>
       <c r="H83" s="14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I83" s="14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J83" s="14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K83" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="L83" s="23" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="L83" s="22" t="s">
+        <v>28</v>
       </c>
       <c r="M83" s="17"/>
     </row>
@@ -4226,7 +4214,7 @@
         <v>200402</v>
       </c>
       <c r="D84" s="12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E84" s="17">
         <v>4</v>
@@ -4238,19 +4226,19 @@
         <v>0</v>
       </c>
       <c r="H84" s="14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I84" s="14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J84" s="14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K84" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="L84" s="23" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="L84" s="22" t="s">
+        <v>28</v>
       </c>
       <c r="M84" s="17"/>
     </row>
@@ -4259,7 +4247,7 @@
         <v>200403</v>
       </c>
       <c r="D85" s="12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E85" s="17">
         <v>4</v>
@@ -4271,19 +4259,19 @@
         <v>0</v>
       </c>
       <c r="H85" s="14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I85" s="14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J85" s="14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K85" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="L85" s="23" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="L85" s="22" t="s">
+        <v>28</v>
       </c>
       <c r="M85" s="17"/>
     </row>
@@ -4292,7 +4280,7 @@
         <v>200404</v>
       </c>
       <c r="D86" s="12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E86" s="17">
         <v>4</v>
@@ -4304,19 +4292,19 @@
         <v>0</v>
       </c>
       <c r="H86" s="14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I86" s="14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J86" s="14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K86" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="L86" s="23" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="L86" s="22" t="s">
+        <v>28</v>
       </c>
       <c r="M86" s="17"/>
     </row>
@@ -4325,7 +4313,7 @@
         <v>200405</v>
       </c>
       <c r="D87" s="12" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E87" s="17">
         <v>2</v>
@@ -4337,19 +4325,19 @@
         <v>0</v>
       </c>
       <c r="H87" s="14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I87" s="14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J87" s="14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K87" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="L87" s="23" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="L87" s="22" t="s">
+        <v>28</v>
       </c>
       <c r="M87" s="17"/>
     </row>
@@ -4358,7 +4346,7 @@
         <v>200406</v>
       </c>
       <c r="D88" s="12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E88" s="17">
         <v>4</v>
@@ -4370,19 +4358,19 @@
         <v>0</v>
       </c>
       <c r="H88" s="14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I88" s="14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J88" s="14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K88" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="L88" s="23" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="L88" s="22" t="s">
+        <v>28</v>
       </c>
       <c r="M88" s="17"/>
     </row>
@@ -4391,7 +4379,7 @@
         <v>300001</v>
       </c>
       <c r="D89" s="12" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E89" s="17">
         <v>1</v>
@@ -4403,19 +4391,19 @@
         <v>0</v>
       </c>
       <c r="H89" s="14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I89" s="14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J89" s="14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K89" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="L89" s="23" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="L89" s="22" t="s">
+        <v>28</v>
       </c>
       <c r="M89" s="17"/>
     </row>
@@ -4424,7 +4412,7 @@
         <v>300002</v>
       </c>
       <c r="D90" s="12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E90" s="17">
         <v>4</v>
@@ -4436,19 +4424,19 @@
         <v>0</v>
       </c>
       <c r="H90" s="14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I90" s="14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J90" s="14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K90" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="L90" s="23" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="L90" s="22" t="s">
+        <v>28</v>
       </c>
       <c r="M90" s="17"/>
     </row>
@@ -4457,7 +4445,7 @@
         <v>300003</v>
       </c>
       <c r="D91" s="12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E91" s="17">
         <v>4</v>
@@ -4469,19 +4457,19 @@
         <v>0</v>
       </c>
       <c r="H91" s="14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I91" s="14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J91" s="14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K91" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="L91" s="23" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="L91" s="22" t="s">
+        <v>28</v>
       </c>
       <c r="M91" s="17"/>
     </row>
@@ -4490,7 +4478,7 @@
         <v>300004</v>
       </c>
       <c r="D92" s="12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E92" s="17">
         <v>4</v>
@@ -4502,19 +4490,19 @@
         <v>0</v>
       </c>
       <c r="H92" s="14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I92" s="14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J92" s="14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K92" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="L92" s="23" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="L92" s="22" t="s">
+        <v>28</v>
       </c>
       <c r="M92" s="17"/>
     </row>
@@ -4523,7 +4511,7 @@
         <v>300005</v>
       </c>
       <c r="D93" s="12" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E93" s="17">
         <v>2</v>
@@ -4535,19 +4523,19 @@
         <v>0</v>
       </c>
       <c r="H93" s="14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I93" s="14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J93" s="14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K93" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="L93" s="23" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="L93" s="22" t="s">
+        <v>28</v>
       </c>
       <c r="M93" s="17"/>
     </row>
@@ -4556,7 +4544,7 @@
         <v>300006</v>
       </c>
       <c r="D94" s="12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E94" s="17">
         <v>4</v>
@@ -4568,19 +4556,19 @@
         <v>0</v>
       </c>
       <c r="H94" s="14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I94" s="14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J94" s="14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K94" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="L94" s="23" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="L94" s="22" t="s">
+        <v>28</v>
       </c>
       <c r="M94" s="17"/>
     </row>
@@ -4589,7 +4577,7 @@
         <v>300101</v>
       </c>
       <c r="D95" s="12" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E95" s="17">
         <v>1</v>
@@ -4601,19 +4589,19 @@
         <v>0</v>
       </c>
       <c r="H95" s="14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I95" s="14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J95" s="14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K95" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="L95" s="23" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="L95" s="22" t="s">
+        <v>28</v>
       </c>
       <c r="M95" s="17"/>
     </row>
@@ -4622,7 +4610,7 @@
         <v>300102</v>
       </c>
       <c r="D96" s="12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E96" s="17">
         <v>4</v>
@@ -4634,19 +4622,19 @@
         <v>0</v>
       </c>
       <c r="H96" s="14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I96" s="14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J96" s="14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K96" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="L96" s="23" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="L96" s="22" t="s">
+        <v>28</v>
       </c>
       <c r="M96" s="17"/>
     </row>
@@ -4655,7 +4643,7 @@
         <v>300103</v>
       </c>
       <c r="D97" s="12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E97" s="17">
         <v>4</v>
@@ -4667,19 +4655,19 @@
         <v>0</v>
       </c>
       <c r="H97" s="14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I97" s="14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J97" s="14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K97" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="L97" s="23" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="L97" s="22" t="s">
+        <v>28</v>
       </c>
       <c r="M97" s="17"/>
     </row>
@@ -4688,7 +4676,7 @@
         <v>300104</v>
       </c>
       <c r="D98" s="12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E98" s="17">
         <v>4</v>
@@ -4700,19 +4688,19 @@
         <v>0</v>
       </c>
       <c r="H98" s="14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I98" s="14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J98" s="14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K98" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="L98" s="23" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="L98" s="22" t="s">
+        <v>28</v>
       </c>
       <c r="M98" s="17"/>
     </row>
@@ -4721,7 +4709,7 @@
         <v>300105</v>
       </c>
       <c r="D99" s="12" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E99" s="17">
         <v>2</v>
@@ -4733,19 +4721,19 @@
         <v>0</v>
       </c>
       <c r="H99" s="14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I99" s="14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J99" s="14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K99" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="L99" s="23" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="L99" s="22" t="s">
+        <v>28</v>
       </c>
       <c r="M99" s="17"/>
     </row>
@@ -4754,7 +4742,7 @@
         <v>300106</v>
       </c>
       <c r="D100" s="12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E100" s="17">
         <v>4</v>
@@ -4766,19 +4754,19 @@
         <v>0</v>
       </c>
       <c r="H100" s="14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I100" s="14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J100" s="14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K100" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="L100" s="23" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="L100" s="22" t="s">
+        <v>28</v>
       </c>
       <c r="M100" s="17"/>
     </row>
@@ -4787,7 +4775,7 @@
         <v>300201</v>
       </c>
       <c r="D101" s="12" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E101" s="17">
         <v>1</v>
@@ -4799,19 +4787,19 @@
         <v>0</v>
       </c>
       <c r="H101" s="14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I101" s="14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J101" s="14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K101" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="L101" s="23" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="L101" s="22" t="s">
+        <v>28</v>
       </c>
       <c r="M101" s="17"/>
     </row>
@@ -4820,7 +4808,7 @@
         <v>300202</v>
       </c>
       <c r="D102" s="12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E102" s="17">
         <v>4</v>
@@ -4832,19 +4820,19 @@
         <v>0</v>
       </c>
       <c r="H102" s="14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I102" s="14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J102" s="14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K102" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="L102" s="23" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="L102" s="22" t="s">
+        <v>28</v>
       </c>
       <c r="M102" s="17"/>
     </row>
@@ -4853,7 +4841,7 @@
         <v>300203</v>
       </c>
       <c r="D103" s="12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E103" s="17">
         <v>4</v>
@@ -4865,19 +4853,19 @@
         <v>0</v>
       </c>
       <c r="H103" s="14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I103" s="14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J103" s="14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K103" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="L103" s="23" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="L103" s="22" t="s">
+        <v>28</v>
       </c>
       <c r="M103" s="17"/>
     </row>
@@ -4886,7 +4874,7 @@
         <v>300204</v>
       </c>
       <c r="D104" s="12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E104" s="17">
         <v>4</v>
@@ -4898,28 +4886,28 @@
         <v>0</v>
       </c>
       <c r="H104" s="14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I104" s="14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J104" s="14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K104" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="L104" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="M104" s="22"/>
+        <v>27</v>
+      </c>
+      <c r="L104" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="M104" s="21"/>
     </row>
     <row r="105" ht="20.1" customHeight="1" spans="3:13">
       <c r="C105" s="16">
         <v>300205</v>
       </c>
       <c r="D105" s="12" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E105" s="17">
         <v>2</v>
@@ -4931,28 +4919,28 @@
         <v>0</v>
       </c>
       <c r="H105" s="14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I105" s="14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J105" s="14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K105" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="L105" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="M105" s="22"/>
+        <v>27</v>
+      </c>
+      <c r="L105" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="M105" s="21"/>
     </row>
     <row r="106" ht="20.1" customHeight="1" spans="3:13">
       <c r="C106" s="16">
         <v>300206</v>
       </c>
       <c r="D106" s="12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E106" s="17">
         <v>4</v>
@@ -4964,28 +4952,28 @@
         <v>0</v>
       </c>
       <c r="H106" s="14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I106" s="14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J106" s="14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K106" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="L106" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="M106" s="22"/>
+        <v>27</v>
+      </c>
+      <c r="L106" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="M106" s="21"/>
     </row>
     <row r="107" ht="20.1" customHeight="1" spans="3:13">
       <c r="C107" s="16">
         <v>300301</v>
       </c>
       <c r="D107" s="12" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E107" s="17">
         <v>1</v>
@@ -4997,19 +4985,19 @@
         <v>0</v>
       </c>
       <c r="H107" s="14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I107" s="14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J107" s="14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K107" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="L107" s="23" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="L107" s="22" t="s">
+        <v>28</v>
       </c>
       <c r="M107" s="17"/>
     </row>
@@ -5018,7 +5006,7 @@
         <v>300302</v>
       </c>
       <c r="D108" s="12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E108" s="17">
         <v>4</v>
@@ -5030,19 +5018,19 @@
         <v>0</v>
       </c>
       <c r="H108" s="14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I108" s="14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J108" s="14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K108" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="L108" s="23" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="L108" s="22" t="s">
+        <v>28</v>
       </c>
       <c r="M108" s="17"/>
     </row>
@@ -5051,7 +5039,7 @@
         <v>300303</v>
       </c>
       <c r="D109" s="12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E109" s="17">
         <v>4</v>
@@ -5063,19 +5051,19 @@
         <v>0</v>
       </c>
       <c r="H109" s="14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I109" s="14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J109" s="14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K109" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="L109" s="23" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="L109" s="22" t="s">
+        <v>28</v>
       </c>
       <c r="M109" s="17"/>
     </row>
@@ -5084,7 +5072,7 @@
         <v>300304</v>
       </c>
       <c r="D110" s="12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E110" s="17">
         <v>4</v>
@@ -5096,28 +5084,28 @@
         <v>0</v>
       </c>
       <c r="H110" s="14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I110" s="14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J110" s="14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K110" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="L110" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="M110" s="22"/>
+        <v>27</v>
+      </c>
+      <c r="L110" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="M110" s="21"/>
     </row>
     <row r="111" ht="20.1" customHeight="1" spans="3:13">
       <c r="C111" s="16">
         <v>300305</v>
       </c>
       <c r="D111" s="12" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E111" s="17">
         <v>2</v>
@@ -5129,28 +5117,28 @@
         <v>0</v>
       </c>
       <c r="H111" s="14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I111" s="14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J111" s="14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K111" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="L111" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="M111" s="22"/>
+        <v>27</v>
+      </c>
+      <c r="L111" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="M111" s="21"/>
     </row>
     <row r="112" ht="20.1" customHeight="1" spans="3:13">
       <c r="C112" s="16">
         <v>300306</v>
       </c>
       <c r="D112" s="12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E112" s="17">
         <v>4</v>
@@ -5162,28 +5150,28 @@
         <v>0</v>
       </c>
       <c r="H112" s="14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I112" s="14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J112" s="14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K112" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="L112" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="M112" s="22"/>
+        <v>27</v>
+      </c>
+      <c r="L112" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="M112" s="21"/>
     </row>
     <row r="113" ht="20.1" customHeight="1" spans="3:13">
       <c r="C113" s="16">
         <v>300401</v>
       </c>
       <c r="D113" s="12" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E113" s="17">
         <v>1</v>
@@ -5195,28 +5183,28 @@
         <v>0</v>
       </c>
       <c r="H113" s="14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I113" s="14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J113" s="14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K113" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="L113" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="M113" s="22"/>
+        <v>27</v>
+      </c>
+      <c r="L113" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="M113" s="21"/>
     </row>
     <row r="114" ht="20.1" customHeight="1" spans="3:13">
       <c r="C114" s="16">
         <v>300402</v>
       </c>
       <c r="D114" s="12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E114" s="17">
         <v>4</v>
@@ -5228,28 +5216,28 @@
         <v>0</v>
       </c>
       <c r="H114" s="14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I114" s="14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J114" s="14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K114" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="L114" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="M114" s="22"/>
+        <v>27</v>
+      </c>
+      <c r="L114" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="M114" s="21"/>
     </row>
     <row r="115" ht="20.1" customHeight="1" spans="3:13">
       <c r="C115" s="16">
         <v>300403</v>
       </c>
       <c r="D115" s="12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E115" s="17">
         <v>4</v>
@@ -5261,28 +5249,28 @@
         <v>0</v>
       </c>
       <c r="H115" s="14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I115" s="14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J115" s="14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K115" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="L115" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="M115" s="22"/>
+        <v>27</v>
+      </c>
+      <c r="L115" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="M115" s="21"/>
     </row>
     <row r="116" ht="20.1" customHeight="1" spans="3:13">
       <c r="C116" s="16">
         <v>300404</v>
       </c>
       <c r="D116" s="12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E116" s="17">
         <v>4</v>
@@ -5294,19 +5282,19 @@
         <v>0</v>
       </c>
       <c r="H116" s="14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I116" s="14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J116" s="14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K116" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="L116" s="23" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="L116" s="22" t="s">
+        <v>28</v>
       </c>
       <c r="M116" s="17"/>
     </row>
@@ -5315,7 +5303,7 @@
         <v>300405</v>
       </c>
       <c r="D117" s="12" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E117" s="17">
         <v>2</v>
@@ -5327,19 +5315,19 @@
         <v>0</v>
       </c>
       <c r="H117" s="14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I117" s="14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J117" s="14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K117" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="L117" s="23" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="L117" s="22" t="s">
+        <v>28</v>
       </c>
       <c r="M117" s="17"/>
     </row>
@@ -5348,7 +5336,7 @@
         <v>300406</v>
       </c>
       <c r="D118" s="12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E118" s="17">
         <v>4</v>
@@ -5360,19 +5348,19 @@
         <v>0</v>
       </c>
       <c r="H118" s="14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I118" s="14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J118" s="14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K118" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="L118" s="23" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="L118" s="22" t="s">
+        <v>28</v>
       </c>
       <c r="M118" s="17"/>
     </row>
@@ -5381,7 +5369,7 @@
         <v>400001</v>
       </c>
       <c r="D119" s="12" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E119" s="17">
         <v>1</v>
@@ -5393,19 +5381,19 @@
         <v>0</v>
       </c>
       <c r="H119" s="14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I119" s="14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J119" s="14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K119" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="L119" s="23" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="L119" s="22" t="s">
+        <v>28</v>
       </c>
       <c r="M119" s="17"/>
     </row>
@@ -5414,7 +5402,7 @@
         <v>400002</v>
       </c>
       <c r="D120" s="12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E120" s="17">
         <v>4</v>
@@ -5426,19 +5414,19 @@
         <v>0</v>
       </c>
       <c r="H120" s="14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I120" s="14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J120" s="14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K120" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="L120" s="23" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="L120" s="22" t="s">
+        <v>28</v>
       </c>
       <c r="M120" s="17"/>
     </row>
@@ -5447,7 +5435,7 @@
         <v>400003</v>
       </c>
       <c r="D121" s="12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E121" s="17">
         <v>4</v>
@@ -5459,19 +5447,19 @@
         <v>0</v>
       </c>
       <c r="H121" s="14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I121" s="14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J121" s="14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K121" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="L121" s="23" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="L121" s="22" t="s">
+        <v>28</v>
       </c>
       <c r="M121" s="17"/>
     </row>
@@ -5480,7 +5468,7 @@
         <v>400004</v>
       </c>
       <c r="D122" s="12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E122" s="17">
         <v>4</v>
@@ -5492,19 +5480,19 @@
         <v>0</v>
       </c>
       <c r="H122" s="14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I122" s="14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J122" s="14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K122" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="L122" s="23" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="L122" s="22" t="s">
+        <v>28</v>
       </c>
       <c r="M122" s="17"/>
     </row>
@@ -5513,7 +5501,7 @@
         <v>400005</v>
       </c>
       <c r="D123" s="12" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E123" s="17">
         <v>2</v>
@@ -5525,19 +5513,19 @@
         <v>0</v>
       </c>
       <c r="H123" s="14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I123" s="14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J123" s="14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K123" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="L123" s="23" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="L123" s="22" t="s">
+        <v>28</v>
       </c>
       <c r="M123" s="17"/>
     </row>
@@ -5546,7 +5534,7 @@
         <v>400006</v>
       </c>
       <c r="D124" s="12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E124" s="17">
         <v>4</v>
@@ -5558,19 +5546,19 @@
         <v>0</v>
       </c>
       <c r="H124" s="14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I124" s="14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J124" s="14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K124" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="L124" s="23" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="L124" s="22" t="s">
+        <v>28</v>
       </c>
       <c r="M124" s="17"/>
     </row>
@@ -5579,7 +5567,7 @@
         <v>400101</v>
       </c>
       <c r="D125" s="12" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E125" s="17">
         <v>1</v>
@@ -5591,19 +5579,19 @@
         <v>0</v>
       </c>
       <c r="H125" s="14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I125" s="14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J125" s="14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K125" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="L125" s="23" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="L125" s="22" t="s">
+        <v>28</v>
       </c>
       <c r="M125" s="17"/>
     </row>
@@ -5612,7 +5600,7 @@
         <v>400102</v>
       </c>
       <c r="D126" s="12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E126" s="17">
         <v>4</v>
@@ -5624,19 +5612,19 @@
         <v>0</v>
       </c>
       <c r="H126" s="14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I126" s="14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J126" s="14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K126" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="L126" s="23" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="L126" s="22" t="s">
+        <v>28</v>
       </c>
       <c r="M126" s="17"/>
     </row>
@@ -5645,7 +5633,7 @@
         <v>400103</v>
       </c>
       <c r="D127" s="12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E127" s="17">
         <v>4</v>
@@ -5657,19 +5645,19 @@
         <v>0</v>
       </c>
       <c r="H127" s="14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I127" s="14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J127" s="14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K127" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="L127" s="23" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="L127" s="22" t="s">
+        <v>28</v>
       </c>
       <c r="M127" s="17"/>
     </row>
@@ -5678,7 +5666,7 @@
         <v>400104</v>
       </c>
       <c r="D128" s="12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E128" s="17">
         <v>4</v>
@@ -5690,19 +5678,19 @@
         <v>0</v>
       </c>
       <c r="H128" s="14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I128" s="14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J128" s="14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K128" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="L128" s="23" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="L128" s="22" t="s">
+        <v>28</v>
       </c>
       <c r="M128" s="17"/>
     </row>
@@ -5711,7 +5699,7 @@
         <v>400105</v>
       </c>
       <c r="D129" s="12" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E129" s="17">
         <v>2</v>
@@ -5723,19 +5711,19 @@
         <v>0</v>
       </c>
       <c r="H129" s="14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I129" s="14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J129" s="14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K129" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="L129" s="23" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="L129" s="22" t="s">
+        <v>28</v>
       </c>
       <c r="M129" s="17"/>
     </row>
@@ -5744,7 +5732,7 @@
         <v>400106</v>
       </c>
       <c r="D130" s="12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E130" s="17">
         <v>4</v>
@@ -5756,19 +5744,19 @@
         <v>0</v>
       </c>
       <c r="H130" s="14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I130" s="14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J130" s="14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K130" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="L130" s="23" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="L130" s="22" t="s">
+        <v>28</v>
       </c>
       <c r="M130" s="17"/>
     </row>
@@ -5777,7 +5765,7 @@
         <v>400201</v>
       </c>
       <c r="D131" s="12" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E131" s="17">
         <v>1</v>
@@ -5789,19 +5777,19 @@
         <v>0</v>
       </c>
       <c r="H131" s="14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I131" s="14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J131" s="14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K131" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="L131" s="23" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="L131" s="22" t="s">
+        <v>28</v>
       </c>
       <c r="M131" s="17"/>
     </row>
@@ -5810,7 +5798,7 @@
         <v>400202</v>
       </c>
       <c r="D132" s="12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E132" s="17">
         <v>4</v>
@@ -5822,19 +5810,19 @@
         <v>0</v>
       </c>
       <c r="H132" s="14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I132" s="14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J132" s="14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K132" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="L132" s="23" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="L132" s="22" t="s">
+        <v>28</v>
       </c>
       <c r="M132" s="17"/>
     </row>
@@ -5843,7 +5831,7 @@
         <v>400203</v>
       </c>
       <c r="D133" s="12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E133" s="17">
         <v>4</v>
@@ -5855,19 +5843,19 @@
         <v>0</v>
       </c>
       <c r="H133" s="14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I133" s="14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J133" s="14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K133" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="L133" s="23" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="L133" s="22" t="s">
+        <v>28</v>
       </c>
       <c r="M133" s="17"/>
     </row>
@@ -5876,7 +5864,7 @@
         <v>400204</v>
       </c>
       <c r="D134" s="12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E134" s="17">
         <v>4</v>
@@ -5888,19 +5876,19 @@
         <v>0</v>
       </c>
       <c r="H134" s="14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I134" s="14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J134" s="14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K134" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="L134" s="23" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="L134" s="22" t="s">
+        <v>28</v>
       </c>
       <c r="M134" s="17"/>
     </row>
@@ -5909,7 +5897,7 @@
         <v>400205</v>
       </c>
       <c r="D135" s="12" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E135" s="17">
         <v>2</v>
@@ -5921,19 +5909,19 @@
         <v>0</v>
       </c>
       <c r="H135" s="14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I135" s="14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J135" s="14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K135" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="L135" s="23" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="L135" s="22" t="s">
+        <v>28</v>
       </c>
       <c r="M135" s="17"/>
     </row>
@@ -5942,7 +5930,7 @@
         <v>400206</v>
       </c>
       <c r="D136" s="12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E136" s="17">
         <v>4</v>
@@ -5954,19 +5942,19 @@
         <v>0</v>
       </c>
       <c r="H136" s="14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I136" s="14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J136" s="14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K136" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="L136" s="23" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="L136" s="22" t="s">
+        <v>28</v>
       </c>
       <c r="M136" s="17"/>
     </row>
@@ -5975,7 +5963,7 @@
         <v>400301</v>
       </c>
       <c r="D137" s="12" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E137" s="17">
         <v>1</v>
@@ -5987,19 +5975,19 @@
         <v>0</v>
       </c>
       <c r="H137" s="14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I137" s="14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J137" s="14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K137" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="L137" s="23" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="L137" s="22" t="s">
+        <v>28</v>
       </c>
       <c r="M137" s="17"/>
     </row>
@@ -6008,7 +5996,7 @@
         <v>400302</v>
       </c>
       <c r="D138" s="12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E138" s="17">
         <v>4</v>
@@ -6020,19 +6008,19 @@
         <v>0</v>
       </c>
       <c r="H138" s="14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I138" s="14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J138" s="14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K138" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="L138" s="23" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="L138" s="22" t="s">
+        <v>28</v>
       </c>
       <c r="M138" s="17"/>
     </row>
@@ -6041,7 +6029,7 @@
         <v>400303</v>
       </c>
       <c r="D139" s="12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E139" s="17">
         <v>4</v>
@@ -6053,19 +6041,19 @@
         <v>0</v>
       </c>
       <c r="H139" s="14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I139" s="14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J139" s="14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K139" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="L139" s="23" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="L139" s="22" t="s">
+        <v>28</v>
       </c>
       <c r="M139" s="17"/>
     </row>
@@ -6074,7 +6062,7 @@
         <v>400304</v>
       </c>
       <c r="D140" s="12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E140" s="17">
         <v>4</v>
@@ -6086,19 +6074,19 @@
         <v>0</v>
       </c>
       <c r="H140" s="14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I140" s="14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J140" s="14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K140" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="L140" s="23" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="L140" s="22" t="s">
+        <v>28</v>
       </c>
       <c r="M140" s="17"/>
     </row>
@@ -6107,7 +6095,7 @@
         <v>400305</v>
       </c>
       <c r="D141" s="12" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E141" s="17">
         <v>2</v>
@@ -6119,19 +6107,19 @@
         <v>0</v>
       </c>
       <c r="H141" s="14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I141" s="14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J141" s="14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K141" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="L141" s="23" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="L141" s="22" t="s">
+        <v>28</v>
       </c>
       <c r="M141" s="17"/>
     </row>
@@ -6140,7 +6128,7 @@
         <v>400306</v>
       </c>
       <c r="D142" s="12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E142" s="17">
         <v>4</v>
@@ -6152,19 +6140,19 @@
         <v>0</v>
       </c>
       <c r="H142" s="14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I142" s="14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J142" s="14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K142" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="L142" s="23" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="L142" s="22" t="s">
+        <v>28</v>
       </c>
       <c r="M142" s="17"/>
     </row>
@@ -6173,7 +6161,7 @@
         <v>400401</v>
       </c>
       <c r="D143" s="12" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E143" s="17">
         <v>1</v>
@@ -6185,19 +6173,19 @@
         <v>0</v>
       </c>
       <c r="H143" s="14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I143" s="14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J143" s="14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K143" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="L143" s="23" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="L143" s="22" t="s">
+        <v>28</v>
       </c>
       <c r="M143" s="17"/>
     </row>
@@ -6206,7 +6194,7 @@
         <v>400402</v>
       </c>
       <c r="D144" s="12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E144" s="17">
         <v>4</v>
@@ -6218,19 +6206,19 @@
         <v>0</v>
       </c>
       <c r="H144" s="14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I144" s="14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J144" s="14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K144" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="L144" s="23" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="L144" s="22" t="s">
+        <v>28</v>
       </c>
       <c r="M144" s="17"/>
     </row>
@@ -6239,7 +6227,7 @@
         <v>400403</v>
       </c>
       <c r="D145" s="12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E145" s="17">
         <v>4</v>
@@ -6251,19 +6239,19 @@
         <v>0</v>
       </c>
       <c r="H145" s="14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I145" s="14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J145" s="14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K145" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="L145" s="23" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="L145" s="22" t="s">
+        <v>28</v>
       </c>
       <c r="M145" s="17"/>
     </row>
@@ -6272,7 +6260,7 @@
         <v>400404</v>
       </c>
       <c r="D146" s="12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E146" s="17">
         <v>4</v>
@@ -6284,19 +6272,19 @@
         <v>0</v>
       </c>
       <c r="H146" s="14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I146" s="14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J146" s="14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K146" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="L146" s="23" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="L146" s="22" t="s">
+        <v>28</v>
       </c>
       <c r="M146" s="17"/>
     </row>
@@ -6305,7 +6293,7 @@
         <v>400405</v>
       </c>
       <c r="D147" s="12" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E147" s="17">
         <v>2</v>
@@ -6317,19 +6305,19 @@
         <v>0</v>
       </c>
       <c r="H147" s="14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I147" s="14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J147" s="14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K147" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="L147" s="23" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="L147" s="22" t="s">
+        <v>28</v>
       </c>
       <c r="M147" s="17"/>
     </row>
@@ -6338,7 +6326,7 @@
         <v>400406</v>
       </c>
       <c r="D148" s="12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E148" s="17">
         <v>4</v>
@@ -6350,19 +6338,19 @@
         <v>0</v>
       </c>
       <c r="H148" s="14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I148" s="14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J148" s="14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K148" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="L148" s="23" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="L148" s="22" t="s">
+        <v>28</v>
       </c>
       <c r="M148" s="17"/>
     </row>

--- a/Unity/Assets/Config/Excel/CellDungeonConfig.xlsx
+++ b/Unity/Assets/Config/Excel/CellDungeonConfig.xlsx
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="38">
   <si>
     <t>Id</t>
   </si>
@@ -152,6 +152,9 @@
   </si>
   <si>
     <t>CreateScenceMonsterPro</t>
+  </si>
+  <si>
+    <t>CreateScenceMonster</t>
   </si>
   <si>
     <t>int</t>
@@ -215,7 +218,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -251,6 +254,12 @@
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FFD0D0D0"/>
+      <name val="Courier New"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -833,133 +842,133 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -970,14 +979,14 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1031,6 +1040,7 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="57" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49">
       <alignment vertical="center"/>
     </xf>
@@ -1126,7 +1136,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{D010387C-9684-4BB9-AFDD-8D85337D42DA}">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{B6D3CDE2-8814-493E-B446-C9DD6A642E37}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -1458,8 +1468,8 @@
   <sheetPr/>
   <dimension ref="C1:W148"/>
   <sheetViews>
-    <sheetView showFormulas="1" tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+    <sheetView showFormulas="1" tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1476,7 +1486,7 @@
     <col min="12" max="12" width="23.625" customWidth="1"/>
     <col min="13" max="13" width="33.875" customWidth="1"/>
     <col min="14" max="14" width="12.75" style="3" customWidth="1"/>
-    <col min="15" max="15" width="9.5" customWidth="1"/>
+    <col min="15" max="15" width="11.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="20.1" customHeight="1"/>
@@ -1518,7 +1528,9 @@
       <c r="N3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="O3" s="4"/>
+      <c r="O3" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="P3" s="4"/>
       <c r="Q3" s="4"/>
       <c r="R3" s="4"/>
@@ -1560,63 +1572,67 @@
       <c r="N4" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="O4" s="4"/>
+      <c r="O4" s="19" t="s">
+        <v>20</v>
+      </c>
       <c r="P4" s="4"/>
       <c r="Q4" s="4"/>
       <c r="R4" s="4"/>
     </row>
     <row r="5" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:23">
       <c r="C5" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D5" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="6" t="s">
-        <v>20</v>
-      </c>
       <c r="F5" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G5" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="L5" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="M5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="N5" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="O5" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="J5" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K5" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="L5" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="M5" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="N5" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="O5" s="4"/>
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
-      <c r="T5" s="19"/>
-      <c r="U5" s="19"/>
-      <c r="V5" s="19"/>
-      <c r="W5" s="19"/>
+      <c r="T5" s="20"/>
+      <c r="U5" s="20"/>
+      <c r="V5" s="20"/>
+      <c r="W5" s="20"/>
     </row>
     <row r="6" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:13">
       <c r="C6" s="12">
         <v>101</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E6" s="12">
         <v>4</v>
@@ -1628,19 +1644,19 @@
         <v>0</v>
       </c>
       <c r="H6" s="14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I6" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J6" s="14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K6" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="L6" s="22" t="s">
-        <v>28</v>
+        <v>28</v>
+      </c>
+      <c r="L6" s="23" t="s">
+        <v>29</v>
       </c>
       <c r="M6" s="17"/>
     </row>
@@ -1649,7 +1665,7 @@
         <v>201</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E7" s="12">
         <v>4</v>
@@ -1661,19 +1677,19 @@
         <v>0</v>
       </c>
       <c r="H7" s="14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I7" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J7" s="14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K7" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="L7" s="22" t="s">
-        <v>28</v>
+        <v>28</v>
+      </c>
+      <c r="L7" s="23" t="s">
+        <v>29</v>
       </c>
       <c r="M7" s="17"/>
     </row>
@@ -1682,7 +1698,7 @@
         <v>202</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E8" s="12">
         <v>4</v>
@@ -1694,19 +1710,19 @@
         <v>0</v>
       </c>
       <c r="H8" s="14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I8" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J8" s="14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K8" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="L8" s="22" t="s">
-        <v>28</v>
+        <v>28</v>
+      </c>
+      <c r="L8" s="23" t="s">
+        <v>29</v>
       </c>
       <c r="M8" s="17"/>
     </row>
@@ -1715,7 +1731,7 @@
         <v>203</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E9" s="12">
         <v>4</v>
@@ -1727,19 +1743,19 @@
         <v>0</v>
       </c>
       <c r="H9" s="14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I9" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J9" s="14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K9" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="L9" s="22" t="s">
-        <v>28</v>
+        <v>28</v>
+      </c>
+      <c r="L9" s="23" t="s">
+        <v>29</v>
       </c>
       <c r="M9" s="17"/>
     </row>
@@ -1748,7 +1764,7 @@
         <v>204</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E10" s="12">
         <v>4</v>
@@ -1760,19 +1776,19 @@
         <v>0</v>
       </c>
       <c r="H10" s="14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I10" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J10" s="14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K10" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="L10" s="22" t="s">
-        <v>28</v>
+        <v>28</v>
+      </c>
+      <c r="L10" s="23" t="s">
+        <v>29</v>
       </c>
       <c r="M10" s="17"/>
     </row>
@@ -1781,7 +1797,7 @@
         <v>1001</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E11" s="16">
         <v>1</v>
@@ -1793,19 +1809,19 @@
         <v>0</v>
       </c>
       <c r="H11" s="14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I11" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J11" s="14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K11" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="L11" s="22" t="s">
-        <v>28</v>
+        <v>28</v>
+      </c>
+      <c r="L11" s="23" t="s">
+        <v>29</v>
       </c>
       <c r="M11" s="17"/>
     </row>
@@ -1814,7 +1830,7 @@
         <v>1002</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E12" s="12">
         <v>4</v>
@@ -1826,19 +1842,19 @@
         <v>0</v>
       </c>
       <c r="H12" s="14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I12" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J12" s="14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K12" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="L12" s="22" t="s">
-        <v>28</v>
+        <v>28</v>
+      </c>
+      <c r="L12" s="23" t="s">
+        <v>29</v>
       </c>
       <c r="M12" s="17"/>
     </row>
@@ -1847,7 +1863,7 @@
         <v>1003</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E13" s="12">
         <v>4</v>
@@ -1859,19 +1875,19 @@
         <v>0</v>
       </c>
       <c r="H13" s="14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I13" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J13" s="14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K13" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="L13" s="22" t="s">
-        <v>28</v>
+        <v>28</v>
+      </c>
+      <c r="L13" s="23" t="s">
+        <v>29</v>
       </c>
       <c r="M13" s="17"/>
       <c r="N13" s="4"/>
@@ -1879,14 +1895,14 @@
       <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
       <c r="R13" s="2"/>
-      <c r="S13" s="20"/>
+      <c r="S13" s="21"/>
     </row>
     <row r="14" ht="20.1" customHeight="1" spans="3:19">
       <c r="C14" s="15">
         <v>1004</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E14" s="12">
         <v>4</v>
@@ -1898,19 +1914,19 @@
         <v>0</v>
       </c>
       <c r="H14" s="14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I14" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J14" s="14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K14" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="L14" s="22" t="s">
-        <v>28</v>
+        <v>28</v>
+      </c>
+      <c r="L14" s="23" t="s">
+        <v>29</v>
       </c>
       <c r="M14" s="17"/>
       <c r="N14" s="4"/>
@@ -1918,14 +1934,14 @@
       <c r="P14" s="2"/>
       <c r="Q14" s="2"/>
       <c r="R14" s="2"/>
-      <c r="S14" s="20"/>
+      <c r="S14" s="21"/>
     </row>
     <row r="15" ht="20.1" customHeight="1" spans="3:19">
       <c r="C15" s="15">
         <v>1005</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E15" s="12">
         <v>2</v>
@@ -1937,19 +1953,19 @@
         <v>0</v>
       </c>
       <c r="H15" s="14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I15" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K15" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="L15" s="22" t="s">
-        <v>28</v>
+        <v>28</v>
+      </c>
+      <c r="L15" s="23" t="s">
+        <v>29</v>
       </c>
       <c r="M15" s="17"/>
       <c r="N15" s="4"/>
@@ -1957,14 +1973,14 @@
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
       <c r="R15" s="2"/>
-      <c r="S15" s="20"/>
+      <c r="S15" s="21"/>
     </row>
     <row r="16" ht="20.1" customHeight="1" spans="3:19">
       <c r="C16" s="15">
         <v>1006</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E16" s="12">
         <v>3</v>
@@ -1976,19 +1992,19 @@
         <v>0</v>
       </c>
       <c r="H16" s="14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I16" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J16" s="14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K16" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="L16" s="22" t="s">
-        <v>28</v>
+        <v>28</v>
+      </c>
+      <c r="L16" s="23" t="s">
+        <v>29</v>
       </c>
       <c r="M16" s="17"/>
       <c r="N16" s="4"/>
@@ -1996,14 +2012,14 @@
       <c r="P16" s="2"/>
       <c r="Q16" s="2"/>
       <c r="R16" s="2"/>
-      <c r="S16" s="20"/>
+      <c r="S16" s="21"/>
     </row>
     <row r="17" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:13">
       <c r="C17" s="15">
         <v>100101</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E17" s="16">
         <v>1</v>
@@ -2015,19 +2031,19 @@
         <v>0</v>
       </c>
       <c r="H17" s="14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I17" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J17" s="14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K17" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="L17" s="22" t="s">
-        <v>28</v>
+        <v>28</v>
+      </c>
+      <c r="L17" s="23" t="s">
+        <v>29</v>
       </c>
       <c r="M17" s="17"/>
     </row>
@@ -2036,7 +2052,7 @@
         <v>100102</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E18" s="16">
         <v>4</v>
@@ -2048,19 +2064,19 @@
         <v>0</v>
       </c>
       <c r="H18" s="14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I18" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J18" s="14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K18" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="L18" s="22" t="s">
-        <v>28</v>
+        <v>28</v>
+      </c>
+      <c r="L18" s="23" t="s">
+        <v>29</v>
       </c>
       <c r="M18" s="17"/>
     </row>
@@ -2069,7 +2085,7 @@
         <v>100103</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E19" s="16">
         <v>4</v>
@@ -2081,19 +2097,19 @@
         <v>0</v>
       </c>
       <c r="H19" s="14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I19" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J19" s="14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K19" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="L19" s="22" t="s">
-        <v>28</v>
+        <v>28</v>
+      </c>
+      <c r="L19" s="23" t="s">
+        <v>29</v>
       </c>
       <c r="M19" s="17"/>
     </row>
@@ -2102,7 +2118,7 @@
         <v>100105</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E20" s="16">
         <v>2</v>
@@ -2114,19 +2130,19 @@
         <v>0</v>
       </c>
       <c r="H20" s="14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I20" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J20" s="14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K20" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="L20" s="22" t="s">
-        <v>28</v>
+        <v>28</v>
+      </c>
+      <c r="L20" s="23" t="s">
+        <v>29</v>
       </c>
       <c r="M20" s="17"/>
     </row>
@@ -2135,7 +2151,7 @@
         <v>100201</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E21" s="16">
         <v>1</v>
@@ -2147,19 +2163,19 @@
         <v>0</v>
       </c>
       <c r="H21" s="14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I21" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J21" s="14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K21" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="L21" s="22" t="s">
-        <v>28</v>
+        <v>28</v>
+      </c>
+      <c r="L21" s="23" t="s">
+        <v>29</v>
       </c>
       <c r="M21" s="17"/>
     </row>
@@ -2168,7 +2184,7 @@
         <v>100202</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E22" s="16">
         <v>4</v>
@@ -2180,19 +2196,19 @@
         <v>0</v>
       </c>
       <c r="H22" s="14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I22" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J22" s="14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K22" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="L22" s="22" t="s">
-        <v>28</v>
+        <v>28</v>
+      </c>
+      <c r="L22" s="23" t="s">
+        <v>29</v>
       </c>
       <c r="M22" s="17"/>
     </row>
@@ -2201,7 +2217,7 @@
         <v>100203</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E23" s="16">
         <v>4</v>
@@ -2213,19 +2229,19 @@
         <v>0</v>
       </c>
       <c r="H23" s="14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I23" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J23" s="14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K23" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="L23" s="22" t="s">
-        <v>28</v>
+        <v>28</v>
+      </c>
+      <c r="L23" s="23" t="s">
+        <v>29</v>
       </c>
       <c r="M23" s="17"/>
     </row>
@@ -2234,7 +2250,7 @@
         <v>100204</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E24" s="16">
         <v>4</v>
@@ -2246,19 +2262,19 @@
         <v>0</v>
       </c>
       <c r="H24" s="14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I24" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J24" s="14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K24" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="L24" s="22" t="s">
-        <v>28</v>
+        <v>28</v>
+      </c>
+      <c r="L24" s="23" t="s">
+        <v>29</v>
       </c>
       <c r="M24" s="17"/>
     </row>
@@ -2267,7 +2283,7 @@
         <v>100205</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E25" s="16">
         <v>4</v>
@@ -2279,19 +2295,19 @@
         <v>0</v>
       </c>
       <c r="H25" s="14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I25" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J25" s="14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K25" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="L25" s="22" t="s">
-        <v>28</v>
+        <v>28</v>
+      </c>
+      <c r="L25" s="23" t="s">
+        <v>29</v>
       </c>
       <c r="M25" s="17"/>
     </row>
@@ -2300,7 +2316,7 @@
         <v>100206</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E26" s="16">
         <v>2</v>
@@ -2312,19 +2328,19 @@
         <v>0</v>
       </c>
       <c r="H26" s="14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I26" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J26" s="14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K26" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="L26" s="22" t="s">
-        <v>28</v>
+        <v>28</v>
+      </c>
+      <c r="L26" s="23" t="s">
+        <v>29</v>
       </c>
       <c r="M26" s="17"/>
     </row>
@@ -2333,7 +2349,7 @@
         <v>100301</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E27" s="17">
         <v>1</v>
@@ -2345,19 +2361,19 @@
         <v>0</v>
       </c>
       <c r="H27" s="14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I27" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J27" s="14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K27" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="L27" s="22" t="s">
-        <v>28</v>
+        <v>28</v>
+      </c>
+      <c r="L27" s="23" t="s">
+        <v>29</v>
       </c>
       <c r="M27" s="17"/>
     </row>
@@ -2366,7 +2382,7 @@
         <v>100302</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E28" s="17">
         <v>4</v>
@@ -2378,19 +2394,19 @@
         <v>0</v>
       </c>
       <c r="H28" s="14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I28" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J28" s="14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K28" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="L28" s="22" t="s">
-        <v>28</v>
+        <v>28</v>
+      </c>
+      <c r="L28" s="23" t="s">
+        <v>29</v>
       </c>
       <c r="M28" s="17"/>
     </row>
@@ -2399,7 +2415,7 @@
         <v>100303</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E29" s="17">
         <v>4</v>
@@ -2411,19 +2427,19 @@
         <v>0</v>
       </c>
       <c r="H29" s="14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I29" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J29" s="14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K29" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="L29" s="22" t="s">
-        <v>28</v>
+        <v>28</v>
+      </c>
+      <c r="L29" s="23" t="s">
+        <v>29</v>
       </c>
       <c r="M29" s="17"/>
     </row>
@@ -2432,7 +2448,7 @@
         <v>100304</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E30" s="17">
         <v>4</v>
@@ -2444,19 +2460,19 @@
         <v>0</v>
       </c>
       <c r="H30" s="14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I30" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J30" s="14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K30" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="L30" s="22" t="s">
-        <v>28</v>
+        <v>28</v>
+      </c>
+      <c r="L30" s="23" t="s">
+        <v>29</v>
       </c>
       <c r="M30" s="17"/>
     </row>
@@ -2465,7 +2481,7 @@
         <v>100305</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E31" s="17">
         <v>2</v>
@@ -2477,19 +2493,19 @@
         <v>0</v>
       </c>
       <c r="H31" s="14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I31" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J31" s="14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K31" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="L31" s="22" t="s">
-        <v>28</v>
+        <v>28</v>
+      </c>
+      <c r="L31" s="23" t="s">
+        <v>29</v>
       </c>
       <c r="M31" s="17"/>
     </row>
@@ -2498,7 +2514,7 @@
         <v>100306</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E32" s="17">
         <v>4</v>
@@ -2510,19 +2526,19 @@
         <v>0</v>
       </c>
       <c r="H32" s="14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I32" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J32" s="14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K32" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="L32" s="22" t="s">
-        <v>28</v>
+        <v>28</v>
+      </c>
+      <c r="L32" s="23" t="s">
+        <v>29</v>
       </c>
       <c r="M32" s="17"/>
     </row>
@@ -2531,7 +2547,7 @@
         <v>100401</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E33" s="17">
         <v>1</v>
@@ -2543,19 +2559,19 @@
         <v>0</v>
       </c>
       <c r="H33" s="14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I33" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J33" s="14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K33" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="L33" s="22" t="s">
-        <v>28</v>
+        <v>28</v>
+      </c>
+      <c r="L33" s="23" t="s">
+        <v>29</v>
       </c>
       <c r="M33" s="17"/>
     </row>
@@ -2564,7 +2580,7 @@
         <v>100402</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E34" s="17">
         <v>4</v>
@@ -2576,19 +2592,19 @@
         <v>0</v>
       </c>
       <c r="H34" s="14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I34" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J34" s="14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K34" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="L34" s="22" t="s">
-        <v>28</v>
+        <v>28</v>
+      </c>
+      <c r="L34" s="23" t="s">
+        <v>29</v>
       </c>
       <c r="M34" s="17"/>
     </row>
@@ -2597,7 +2613,7 @@
         <v>100403</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E35" s="17">
         <v>4</v>
@@ -2609,19 +2625,19 @@
         <v>0</v>
       </c>
       <c r="H35" s="14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I35" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J35" s="14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K35" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="L35" s="22" t="s">
-        <v>28</v>
+        <v>28</v>
+      </c>
+      <c r="L35" s="23" t="s">
+        <v>29</v>
       </c>
       <c r="M35" s="17"/>
     </row>
@@ -2630,7 +2646,7 @@
         <v>100404</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E36" s="17">
         <v>4</v>
@@ -2642,19 +2658,19 @@
         <v>0</v>
       </c>
       <c r="H36" s="14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I36" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J36" s="14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K36" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="L36" s="22" t="s">
-        <v>28</v>
+        <v>28</v>
+      </c>
+      <c r="L36" s="23" t="s">
+        <v>29</v>
       </c>
       <c r="M36" s="17"/>
     </row>
@@ -2663,7 +2679,7 @@
         <v>100405</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E37" s="17">
         <v>2</v>
@@ -2675,19 +2691,19 @@
         <v>0</v>
       </c>
       <c r="H37" s="14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I37" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J37" s="14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K37" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="L37" s="22" t="s">
-        <v>28</v>
+        <v>28</v>
+      </c>
+      <c r="L37" s="23" t="s">
+        <v>29</v>
       </c>
       <c r="M37" s="17"/>
     </row>
@@ -2696,7 +2712,7 @@
         <v>100406</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E38" s="17">
         <v>1</v>
@@ -2708,19 +2724,19 @@
         <v>0</v>
       </c>
       <c r="H38" s="14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I38" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J38" s="14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K38" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="L38" s="22" t="s">
-        <v>28</v>
+        <v>28</v>
+      </c>
+      <c r="L38" s="23" t="s">
+        <v>29</v>
       </c>
       <c r="M38" s="17"/>
     </row>
@@ -2729,7 +2745,7 @@
         <v>100407</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E39" s="17">
         <v>1</v>
@@ -2741,19 +2757,19 @@
         <v>0</v>
       </c>
       <c r="H39" s="14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I39" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J39" s="14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K39" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="L39" s="22" t="s">
-        <v>28</v>
+        <v>28</v>
+      </c>
+      <c r="L39" s="23" t="s">
+        <v>29</v>
       </c>
       <c r="M39" s="17"/>
     </row>
@@ -2762,7 +2778,7 @@
         <v>100501</v>
       </c>
       <c r="D40" s="12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E40" s="17">
         <v>1</v>
@@ -2774,19 +2790,19 @@
         <v>0</v>
       </c>
       <c r="H40" s="14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I40" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J40" s="14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K40" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="L40" s="22" t="s">
-        <v>28</v>
+        <v>28</v>
+      </c>
+      <c r="L40" s="23" t="s">
+        <v>29</v>
       </c>
       <c r="M40" s="17"/>
     </row>
@@ -2795,7 +2811,7 @@
         <v>100502</v>
       </c>
       <c r="D41" s="12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E41" s="17">
         <v>4</v>
@@ -2807,19 +2823,19 @@
         <v>0</v>
       </c>
       <c r="H41" s="14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I41" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J41" s="14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K41" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="L41" s="22" t="s">
-        <v>28</v>
+        <v>28</v>
+      </c>
+      <c r="L41" s="23" t="s">
+        <v>29</v>
       </c>
       <c r="M41" s="17"/>
     </row>
@@ -2828,7 +2844,7 @@
         <v>100503</v>
       </c>
       <c r="D42" s="12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E42" s="17">
         <v>4</v>
@@ -2840,19 +2856,19 @@
         <v>0</v>
       </c>
       <c r="H42" s="14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I42" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J42" s="14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K42" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="L42" s="22" t="s">
-        <v>28</v>
+        <v>28</v>
+      </c>
+      <c r="L42" s="23" t="s">
+        <v>29</v>
       </c>
       <c r="M42" s="17"/>
     </row>
@@ -2861,7 +2877,7 @@
         <v>100504</v>
       </c>
       <c r="D43" s="12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E43" s="17">
         <v>4</v>
@@ -2873,19 +2889,19 @@
         <v>0</v>
       </c>
       <c r="H43" s="14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I43" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J43" s="14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K43" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="L43" s="22" t="s">
-        <v>28</v>
+        <v>28</v>
+      </c>
+      <c r="L43" s="23" t="s">
+        <v>29</v>
       </c>
       <c r="M43" s="17"/>
     </row>
@@ -2894,7 +2910,7 @@
         <v>100505</v>
       </c>
       <c r="D44" s="12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E44" s="17">
         <v>2</v>
@@ -2906,19 +2922,19 @@
         <v>0</v>
       </c>
       <c r="H44" s="14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I44" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J44" s="14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K44" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="L44" s="22" t="s">
-        <v>28</v>
+        <v>28</v>
+      </c>
+      <c r="L44" s="23" t="s">
+        <v>29</v>
       </c>
       <c r="M44" s="17"/>
     </row>
@@ -2927,7 +2943,7 @@
         <v>100506</v>
       </c>
       <c r="D45" s="12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E45" s="17">
         <v>4</v>
@@ -2939,19 +2955,19 @@
         <v>0</v>
       </c>
       <c r="H45" s="14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I45" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J45" s="14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K45" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="L45" s="22" t="s">
-        <v>28</v>
+        <v>28</v>
+      </c>
+      <c r="L45" s="23" t="s">
+        <v>29</v>
       </c>
       <c r="M45" s="17"/>
     </row>
@@ -2960,7 +2976,7 @@
         <v>100601</v>
       </c>
       <c r="D46" s="12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E46" s="17">
         <v>1</v>
@@ -2972,19 +2988,19 @@
         <v>0</v>
       </c>
       <c r="H46" s="14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I46" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J46" s="14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K46" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="L46" s="22" t="s">
-        <v>28</v>
+        <v>28</v>
+      </c>
+      <c r="L46" s="23" t="s">
+        <v>29</v>
       </c>
       <c r="M46" s="17"/>
     </row>
@@ -2993,7 +3009,7 @@
         <v>100602</v>
       </c>
       <c r="D47" s="12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E47" s="17">
         <v>4</v>
@@ -3005,19 +3021,19 @@
         <v>0</v>
       </c>
       <c r="H47" s="14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I47" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J47" s="14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K47" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="L47" s="22" t="s">
-        <v>28</v>
+        <v>28</v>
+      </c>
+      <c r="L47" s="23" t="s">
+        <v>29</v>
       </c>
       <c r="M47" s="17"/>
     </row>
@@ -3026,7 +3042,7 @@
         <v>100603</v>
       </c>
       <c r="D48" s="12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E48" s="17">
         <v>4</v>
@@ -3038,19 +3054,19 @@
         <v>0</v>
       </c>
       <c r="H48" s="14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I48" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J48" s="14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K48" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="L48" s="22" t="s">
-        <v>28</v>
+        <v>28</v>
+      </c>
+      <c r="L48" s="23" t="s">
+        <v>29</v>
       </c>
       <c r="M48" s="17"/>
     </row>
@@ -3059,7 +3075,7 @@
         <v>100604</v>
       </c>
       <c r="D49" s="12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E49" s="17">
         <v>4</v>
@@ -3071,19 +3087,19 @@
         <v>0</v>
       </c>
       <c r="H49" s="14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I49" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J49" s="14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K49" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="L49" s="22" t="s">
-        <v>28</v>
+        <v>28</v>
+      </c>
+      <c r="L49" s="23" t="s">
+        <v>29</v>
       </c>
       <c r="M49" s="17"/>
     </row>
@@ -3092,7 +3108,7 @@
         <v>100605</v>
       </c>
       <c r="D50" s="12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E50" s="17">
         <v>2</v>
@@ -3104,19 +3120,19 @@
         <v>0</v>
       </c>
       <c r="H50" s="14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I50" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J50" s="14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K50" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="L50" s="22" t="s">
-        <v>28</v>
+        <v>28</v>
+      </c>
+      <c r="L50" s="23" t="s">
+        <v>29</v>
       </c>
       <c r="M50" s="17"/>
     </row>
@@ -3125,7 +3141,7 @@
         <v>100606</v>
       </c>
       <c r="D51" s="12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E51" s="17">
         <v>4</v>
@@ -3137,19 +3153,19 @@
         <v>0</v>
       </c>
       <c r="H51" s="14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I51" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J51" s="14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K51" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="L51" s="22" t="s">
-        <v>28</v>
+        <v>28</v>
+      </c>
+      <c r="L51" s="23" t="s">
+        <v>29</v>
       </c>
       <c r="M51" s="17"/>
     </row>
@@ -3158,7 +3174,7 @@
         <v>100607</v>
       </c>
       <c r="D52" s="12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E52" s="17">
         <v>4</v>
@@ -3170,19 +3186,19 @@
         <v>0</v>
       </c>
       <c r="H52" s="14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I52" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J52" s="14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K52" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="L52" s="22" t="s">
-        <v>28</v>
+        <v>28</v>
+      </c>
+      <c r="L52" s="23" t="s">
+        <v>29</v>
       </c>
       <c r="M52" s="17"/>
     </row>
@@ -3191,7 +3207,7 @@
         <v>100701</v>
       </c>
       <c r="D53" s="12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E53" s="17">
         <v>1</v>
@@ -3203,19 +3219,19 @@
         <v>0</v>
       </c>
       <c r="H53" s="14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I53" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J53" s="14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K53" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="L53" s="22" t="s">
-        <v>28</v>
+        <v>28</v>
+      </c>
+      <c r="L53" s="23" t="s">
+        <v>29</v>
       </c>
       <c r="M53" s="17"/>
     </row>
@@ -3224,7 +3240,7 @@
         <v>100702</v>
       </c>
       <c r="D54" s="12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E54" s="17">
         <v>4</v>
@@ -3236,19 +3252,19 @@
         <v>0</v>
       </c>
       <c r="H54" s="14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I54" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J54" s="14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K54" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="L54" s="22" t="s">
-        <v>28</v>
+        <v>28</v>
+      </c>
+      <c r="L54" s="23" t="s">
+        <v>29</v>
       </c>
       <c r="M54" s="17"/>
     </row>
@@ -3257,7 +3273,7 @@
         <v>100703</v>
       </c>
       <c r="D55" s="12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E55" s="17">
         <v>4</v>
@@ -3269,19 +3285,19 @@
         <v>0</v>
       </c>
       <c r="H55" s="14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I55" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J55" s="14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K55" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="L55" s="22" t="s">
-        <v>28</v>
+        <v>28</v>
+      </c>
+      <c r="L55" s="23" t="s">
+        <v>29</v>
       </c>
       <c r="M55" s="17"/>
     </row>
@@ -3290,7 +3306,7 @@
         <v>100704</v>
       </c>
       <c r="D56" s="12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E56" s="17">
         <v>4</v>
@@ -3302,19 +3318,19 @@
         <v>0</v>
       </c>
       <c r="H56" s="14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I56" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J56" s="14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K56" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="L56" s="22" t="s">
-        <v>28</v>
+        <v>28</v>
+      </c>
+      <c r="L56" s="23" t="s">
+        <v>29</v>
       </c>
       <c r="M56" s="17"/>
     </row>
@@ -3323,7 +3339,7 @@
         <v>100705</v>
       </c>
       <c r="D57" s="12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E57" s="17">
         <v>2</v>
@@ -3335,19 +3351,19 @@
         <v>0</v>
       </c>
       <c r="H57" s="14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I57" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J57" s="14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K57" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="L57" s="22" t="s">
-        <v>28</v>
+        <v>28</v>
+      </c>
+      <c r="L57" s="23" t="s">
+        <v>29</v>
       </c>
       <c r="M57" s="17"/>
     </row>
@@ -3356,7 +3372,7 @@
         <v>100706</v>
       </c>
       <c r="D58" s="12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E58" s="17">
         <v>4</v>
@@ -3368,19 +3384,19 @@
         <v>0</v>
       </c>
       <c r="H58" s="14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I58" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J58" s="14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K58" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="L58" s="22" t="s">
-        <v>28</v>
+        <v>28</v>
+      </c>
+      <c r="L58" s="23" t="s">
+        <v>29</v>
       </c>
       <c r="M58" s="17"/>
     </row>
@@ -3389,7 +3405,7 @@
         <v>200001</v>
       </c>
       <c r="D59" s="12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E59" s="17">
         <v>1</v>
@@ -3401,19 +3417,19 @@
         <v>0</v>
       </c>
       <c r="H59" s="14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I59" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J59" s="14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K59" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="L59" s="22" t="s">
-        <v>28</v>
+        <v>28</v>
+      </c>
+      <c r="L59" s="23" t="s">
+        <v>29</v>
       </c>
       <c r="M59" s="17"/>
     </row>
@@ -3422,7 +3438,7 @@
         <v>200002</v>
       </c>
       <c r="D60" s="12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E60" s="17">
         <v>4</v>
@@ -3434,19 +3450,19 @@
         <v>0</v>
       </c>
       <c r="H60" s="14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I60" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J60" s="14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K60" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="L60" s="22" t="s">
-        <v>28</v>
+        <v>28</v>
+      </c>
+      <c r="L60" s="23" t="s">
+        <v>29</v>
       </c>
       <c r="M60" s="17"/>
     </row>
@@ -3455,7 +3471,7 @@
         <v>200003</v>
       </c>
       <c r="D61" s="12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E61" s="17">
         <v>4</v>
@@ -3467,19 +3483,19 @@
         <v>0</v>
       </c>
       <c r="H61" s="14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I61" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J61" s="14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K61" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="L61" s="22" t="s">
-        <v>28</v>
+        <v>28</v>
+      </c>
+      <c r="L61" s="23" t="s">
+        <v>29</v>
       </c>
       <c r="M61" s="17"/>
     </row>
@@ -3488,7 +3504,7 @@
         <v>200004</v>
       </c>
       <c r="D62" s="12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E62" s="17">
         <v>4</v>
@@ -3500,19 +3516,19 @@
         <v>0</v>
       </c>
       <c r="H62" s="14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I62" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J62" s="14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K62" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="L62" s="22" t="s">
-        <v>28</v>
+        <v>28</v>
+      </c>
+      <c r="L62" s="23" t="s">
+        <v>29</v>
       </c>
       <c r="M62" s="17"/>
     </row>
@@ -3521,7 +3537,7 @@
         <v>200005</v>
       </c>
       <c r="D63" s="12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E63" s="17">
         <v>2</v>
@@ -3533,19 +3549,19 @@
         <v>0</v>
       </c>
       <c r="H63" s="14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I63" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J63" s="14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K63" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="L63" s="22" t="s">
-        <v>28</v>
+        <v>28</v>
+      </c>
+      <c r="L63" s="23" t="s">
+        <v>29</v>
       </c>
       <c r="M63" s="17"/>
     </row>
@@ -3554,7 +3570,7 @@
         <v>200006</v>
       </c>
       <c r="D64" s="12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E64" s="17">
         <v>4</v>
@@ -3566,19 +3582,19 @@
         <v>0</v>
       </c>
       <c r="H64" s="14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I64" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J64" s="14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K64" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="L64" s="22" t="s">
-        <v>28</v>
+        <v>28</v>
+      </c>
+      <c r="L64" s="23" t="s">
+        <v>29</v>
       </c>
       <c r="M64" s="17"/>
     </row>
@@ -3587,7 +3603,7 @@
         <v>200101</v>
       </c>
       <c r="D65" s="12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E65" s="17">
         <v>1</v>
@@ -3599,19 +3615,19 @@
         <v>0</v>
       </c>
       <c r="H65" s="14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I65" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J65" s="14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K65" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="L65" s="22" t="s">
-        <v>28</v>
+        <v>28</v>
+      </c>
+      <c r="L65" s="23" t="s">
+        <v>29</v>
       </c>
       <c r="M65" s="17"/>
     </row>
@@ -3620,7 +3636,7 @@
         <v>200102</v>
       </c>
       <c r="D66" s="12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E66" s="17">
         <v>4</v>
@@ -3632,19 +3648,19 @@
         <v>0</v>
       </c>
       <c r="H66" s="14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I66" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J66" s="14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K66" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="L66" s="22" t="s">
-        <v>28</v>
+        <v>28</v>
+      </c>
+      <c r="L66" s="23" t="s">
+        <v>29</v>
       </c>
       <c r="M66" s="17"/>
     </row>
@@ -3653,7 +3669,7 @@
         <v>200103</v>
       </c>
       <c r="D67" s="12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E67" s="17">
         <v>4</v>
@@ -3665,19 +3681,19 @@
         <v>0</v>
       </c>
       <c r="H67" s="14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I67" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J67" s="14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K67" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="L67" s="22" t="s">
-        <v>28</v>
+        <v>28</v>
+      </c>
+      <c r="L67" s="23" t="s">
+        <v>29</v>
       </c>
       <c r="M67" s="17"/>
     </row>
@@ -3686,7 +3702,7 @@
         <v>200104</v>
       </c>
       <c r="D68" s="12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E68" s="17">
         <v>4</v>
@@ -3698,19 +3714,19 @@
         <v>0</v>
       </c>
       <c r="H68" s="14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I68" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J68" s="14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K68" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="L68" s="22" t="s">
-        <v>28</v>
+        <v>28</v>
+      </c>
+      <c r="L68" s="23" t="s">
+        <v>29</v>
       </c>
       <c r="M68" s="17"/>
     </row>
@@ -3719,7 +3735,7 @@
         <v>200105</v>
       </c>
       <c r="D69" s="12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E69" s="17">
         <v>2</v>
@@ -3731,19 +3747,19 @@
         <v>0</v>
       </c>
       <c r="H69" s="14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I69" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J69" s="14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K69" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="L69" s="22" t="s">
-        <v>28</v>
+        <v>28</v>
+      </c>
+      <c r="L69" s="23" t="s">
+        <v>29</v>
       </c>
       <c r="M69" s="17"/>
     </row>
@@ -3752,7 +3768,7 @@
         <v>200106</v>
       </c>
       <c r="D70" s="12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E70" s="17">
         <v>4</v>
@@ -3764,19 +3780,19 @@
         <v>0</v>
       </c>
       <c r="H70" s="14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I70" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J70" s="14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K70" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="L70" s="22" t="s">
-        <v>28</v>
+        <v>28</v>
+      </c>
+      <c r="L70" s="23" t="s">
+        <v>29</v>
       </c>
       <c r="M70" s="17"/>
     </row>
@@ -3785,7 +3801,7 @@
         <v>200201</v>
       </c>
       <c r="D71" s="12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E71" s="17">
         <v>1</v>
@@ -3797,19 +3813,19 @@
         <v>0</v>
       </c>
       <c r="H71" s="14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I71" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J71" s="14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K71" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="L71" s="22" t="s">
-        <v>28</v>
+        <v>28</v>
+      </c>
+      <c r="L71" s="23" t="s">
+        <v>29</v>
       </c>
       <c r="M71" s="17"/>
     </row>
@@ -3818,7 +3834,7 @@
         <v>200202</v>
       </c>
       <c r="D72" s="12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E72" s="17">
         <v>4</v>
@@ -3830,19 +3846,19 @@
         <v>0</v>
       </c>
       <c r="H72" s="14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I72" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J72" s="14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K72" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="L72" s="22" t="s">
-        <v>28</v>
+        <v>28</v>
+      </c>
+      <c r="L72" s="23" t="s">
+        <v>29</v>
       </c>
       <c r="M72" s="17"/>
     </row>
@@ -3851,7 +3867,7 @@
         <v>200203</v>
       </c>
       <c r="D73" s="12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E73" s="17">
         <v>4</v>
@@ -3863,19 +3879,19 @@
         <v>0</v>
       </c>
       <c r="H73" s="14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I73" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J73" s="14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K73" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="L73" s="22" t="s">
-        <v>28</v>
+        <v>28</v>
+      </c>
+      <c r="L73" s="23" t="s">
+        <v>29</v>
       </c>
       <c r="M73" s="17"/>
     </row>
@@ -3884,7 +3900,7 @@
         <v>200204</v>
       </c>
       <c r="D74" s="12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E74" s="17">
         <v>4</v>
@@ -3896,19 +3912,19 @@
         <v>0</v>
       </c>
       <c r="H74" s="14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I74" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J74" s="14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K74" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="L74" s="22" t="s">
-        <v>28</v>
+        <v>28</v>
+      </c>
+      <c r="L74" s="23" t="s">
+        <v>29</v>
       </c>
       <c r="M74" s="17"/>
     </row>
@@ -3917,7 +3933,7 @@
         <v>200205</v>
       </c>
       <c r="D75" s="12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E75" s="17">
         <v>2</v>
@@ -3929,19 +3945,19 @@
         <v>0</v>
       </c>
       <c r="H75" s="14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I75" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J75" s="14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K75" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="L75" s="22" t="s">
-        <v>28</v>
+        <v>28</v>
+      </c>
+      <c r="L75" s="23" t="s">
+        <v>29</v>
       </c>
       <c r="M75" s="17"/>
     </row>
@@ -3950,7 +3966,7 @@
         <v>200206</v>
       </c>
       <c r="D76" s="12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E76" s="17">
         <v>4</v>
@@ -3962,19 +3978,19 @@
         <v>0</v>
       </c>
       <c r="H76" s="14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I76" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J76" s="14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K76" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="L76" s="22" t="s">
-        <v>28</v>
+        <v>28</v>
+      </c>
+      <c r="L76" s="23" t="s">
+        <v>29</v>
       </c>
       <c r="M76" s="17"/>
     </row>
@@ -3983,7 +3999,7 @@
         <v>200301</v>
       </c>
       <c r="D77" s="12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E77" s="17">
         <v>1</v>
@@ -3995,19 +4011,19 @@
         <v>0</v>
       </c>
       <c r="H77" s="14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I77" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J77" s="14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K77" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="L77" s="22" t="s">
-        <v>28</v>
+        <v>28</v>
+      </c>
+      <c r="L77" s="23" t="s">
+        <v>29</v>
       </c>
       <c r="M77" s="17"/>
     </row>
@@ -4016,7 +4032,7 @@
         <v>200302</v>
       </c>
       <c r="D78" s="12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E78" s="17">
         <v>4</v>
@@ -4028,19 +4044,19 @@
         <v>0</v>
       </c>
       <c r="H78" s="14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I78" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J78" s="14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K78" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="L78" s="22" t="s">
-        <v>28</v>
+        <v>28</v>
+      </c>
+      <c r="L78" s="23" t="s">
+        <v>29</v>
       </c>
       <c r="M78" s="17"/>
     </row>
@@ -4049,7 +4065,7 @@
         <v>200303</v>
       </c>
       <c r="D79" s="12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E79" s="17">
         <v>4</v>
@@ -4061,19 +4077,19 @@
         <v>0</v>
       </c>
       <c r="H79" s="14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I79" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J79" s="14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K79" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="L79" s="22" t="s">
-        <v>28</v>
+        <v>28</v>
+      </c>
+      <c r="L79" s="23" t="s">
+        <v>29</v>
       </c>
       <c r="M79" s="17"/>
     </row>
@@ -4082,7 +4098,7 @@
         <v>200304</v>
       </c>
       <c r="D80" s="12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E80" s="17">
         <v>4</v>
@@ -4094,19 +4110,19 @@
         <v>0</v>
       </c>
       <c r="H80" s="14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I80" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J80" s="14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K80" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="L80" s="22" t="s">
-        <v>28</v>
+        <v>28</v>
+      </c>
+      <c r="L80" s="23" t="s">
+        <v>29</v>
       </c>
       <c r="M80" s="17"/>
     </row>
@@ -4115,7 +4131,7 @@
         <v>200305</v>
       </c>
       <c r="D81" s="12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E81" s="17">
         <v>2</v>
@@ -4127,19 +4143,19 @@
         <v>0</v>
       </c>
       <c r="H81" s="14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I81" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J81" s="14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K81" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="L81" s="22" t="s">
-        <v>28</v>
+        <v>28</v>
+      </c>
+      <c r="L81" s="23" t="s">
+        <v>29</v>
       </c>
       <c r="M81" s="17"/>
     </row>
@@ -4148,7 +4164,7 @@
         <v>200306</v>
       </c>
       <c r="D82" s="12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E82" s="17">
         <v>4</v>
@@ -4160,19 +4176,19 @@
         <v>0</v>
       </c>
       <c r="H82" s="14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I82" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J82" s="14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K82" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="L82" s="22" t="s">
-        <v>28</v>
+        <v>28</v>
+      </c>
+      <c r="L82" s="23" t="s">
+        <v>29</v>
       </c>
       <c r="M82" s="17"/>
     </row>
@@ -4181,7 +4197,7 @@
         <v>200401</v>
       </c>
       <c r="D83" s="12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E83" s="17">
         <v>1</v>
@@ -4193,19 +4209,19 @@
         <v>0</v>
       </c>
       <c r="H83" s="14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I83" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J83" s="14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K83" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="L83" s="22" t="s">
-        <v>28</v>
+        <v>28</v>
+      </c>
+      <c r="L83" s="23" t="s">
+        <v>29</v>
       </c>
       <c r="M83" s="17"/>
     </row>
@@ -4214,7 +4230,7 @@
         <v>200402</v>
       </c>
       <c r="D84" s="12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E84" s="17">
         <v>4</v>
@@ -4226,19 +4242,19 @@
         <v>0</v>
       </c>
       <c r="H84" s="14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I84" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J84" s="14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K84" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="L84" s="22" t="s">
-        <v>28</v>
+        <v>28</v>
+      </c>
+      <c r="L84" s="23" t="s">
+        <v>29</v>
       </c>
       <c r="M84" s="17"/>
     </row>
@@ -4247,7 +4263,7 @@
         <v>200403</v>
       </c>
       <c r="D85" s="12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E85" s="17">
         <v>4</v>
@@ -4259,19 +4275,19 @@
         <v>0</v>
       </c>
       <c r="H85" s="14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I85" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J85" s="14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K85" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="L85" s="22" t="s">
-        <v>28</v>
+        <v>28</v>
+      </c>
+      <c r="L85" s="23" t="s">
+        <v>29</v>
       </c>
       <c r="M85" s="17"/>
     </row>
@@ -4280,7 +4296,7 @@
         <v>200404</v>
       </c>
       <c r="D86" s="12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E86" s="17">
         <v>4</v>
@@ -4292,19 +4308,19 @@
         <v>0</v>
       </c>
       <c r="H86" s="14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I86" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J86" s="14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K86" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="L86" s="22" t="s">
-        <v>28</v>
+        <v>28</v>
+      </c>
+      <c r="L86" s="23" t="s">
+        <v>29</v>
       </c>
       <c r="M86" s="17"/>
     </row>
@@ -4313,7 +4329,7 @@
         <v>200405</v>
       </c>
       <c r="D87" s="12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E87" s="17">
         <v>2</v>
@@ -4325,19 +4341,19 @@
         <v>0</v>
       </c>
       <c r="H87" s="14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I87" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J87" s="14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K87" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="L87" s="22" t="s">
-        <v>28</v>
+        <v>28</v>
+      </c>
+      <c r="L87" s="23" t="s">
+        <v>29</v>
       </c>
       <c r="M87" s="17"/>
     </row>
@@ -4346,7 +4362,7 @@
         <v>200406</v>
       </c>
       <c r="D88" s="12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E88" s="17">
         <v>4</v>
@@ -4358,19 +4374,19 @@
         <v>0</v>
       </c>
       <c r="H88" s="14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I88" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J88" s="14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K88" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="L88" s="22" t="s">
-        <v>28</v>
+        <v>28</v>
+      </c>
+      <c r="L88" s="23" t="s">
+        <v>29</v>
       </c>
       <c r="M88" s="17"/>
     </row>
@@ -4379,7 +4395,7 @@
         <v>300001</v>
       </c>
       <c r="D89" s="12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E89" s="17">
         <v>1</v>
@@ -4391,19 +4407,19 @@
         <v>0</v>
       </c>
       <c r="H89" s="14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I89" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J89" s="14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K89" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="L89" s="22" t="s">
-        <v>28</v>
+        <v>28</v>
+      </c>
+      <c r="L89" s="23" t="s">
+        <v>29</v>
       </c>
       <c r="M89" s="17"/>
     </row>
@@ -4412,7 +4428,7 @@
         <v>300002</v>
       </c>
       <c r="D90" s="12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E90" s="17">
         <v>4</v>
@@ -4424,19 +4440,19 @@
         <v>0</v>
       </c>
       <c r="H90" s="14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I90" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J90" s="14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K90" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="L90" s="22" t="s">
-        <v>28</v>
+        <v>28</v>
+      </c>
+      <c r="L90" s="23" t="s">
+        <v>29</v>
       </c>
       <c r="M90" s="17"/>
     </row>
@@ -4445,7 +4461,7 @@
         <v>300003</v>
       </c>
       <c r="D91" s="12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E91" s="17">
         <v>4</v>
@@ -4457,19 +4473,19 @@
         <v>0</v>
       </c>
       <c r="H91" s="14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I91" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J91" s="14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K91" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="L91" s="22" t="s">
-        <v>28</v>
+        <v>28</v>
+      </c>
+      <c r="L91" s="23" t="s">
+        <v>29</v>
       </c>
       <c r="M91" s="17"/>
     </row>
@@ -4478,7 +4494,7 @@
         <v>300004</v>
       </c>
       <c r="D92" s="12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E92" s="17">
         <v>4</v>
@@ -4490,19 +4506,19 @@
         <v>0</v>
       </c>
       <c r="H92" s="14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I92" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J92" s="14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K92" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="L92" s="22" t="s">
-        <v>28</v>
+        <v>28</v>
+      </c>
+      <c r="L92" s="23" t="s">
+        <v>29</v>
       </c>
       <c r="M92" s="17"/>
     </row>
@@ -4511,7 +4527,7 @@
         <v>300005</v>
       </c>
       <c r="D93" s="12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E93" s="17">
         <v>2</v>
@@ -4523,19 +4539,19 @@
         <v>0</v>
       </c>
       <c r="H93" s="14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I93" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J93" s="14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K93" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="L93" s="22" t="s">
-        <v>28</v>
+        <v>28</v>
+      </c>
+      <c r="L93" s="23" t="s">
+        <v>29</v>
       </c>
       <c r="M93" s="17"/>
     </row>
@@ -4544,7 +4560,7 @@
         <v>300006</v>
       </c>
       <c r="D94" s="12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E94" s="17">
         <v>4</v>
@@ -4556,19 +4572,19 @@
         <v>0</v>
       </c>
       <c r="H94" s="14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I94" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J94" s="14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K94" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="L94" s="22" t="s">
-        <v>28</v>
+        <v>28</v>
+      </c>
+      <c r="L94" s="23" t="s">
+        <v>29</v>
       </c>
       <c r="M94" s="17"/>
     </row>
@@ -4577,7 +4593,7 @@
         <v>300101</v>
       </c>
       <c r="D95" s="12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E95" s="17">
         <v>1</v>
@@ -4589,19 +4605,19 @@
         <v>0</v>
       </c>
       <c r="H95" s="14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I95" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J95" s="14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K95" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="L95" s="22" t="s">
-        <v>28</v>
+        <v>28</v>
+      </c>
+      <c r="L95" s="23" t="s">
+        <v>29</v>
       </c>
       <c r="M95" s="17"/>
     </row>
@@ -4610,7 +4626,7 @@
         <v>300102</v>
       </c>
       <c r="D96" s="12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E96" s="17">
         <v>4</v>
@@ -4622,19 +4638,19 @@
         <v>0</v>
       </c>
       <c r="H96" s="14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I96" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J96" s="14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K96" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="L96" s="22" t="s">
-        <v>28</v>
+        <v>28</v>
+      </c>
+      <c r="L96" s="23" t="s">
+        <v>29</v>
       </c>
       <c r="M96" s="17"/>
     </row>
@@ -4643,7 +4659,7 @@
         <v>300103</v>
       </c>
       <c r="D97" s="12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E97" s="17">
         <v>4</v>
@@ -4655,19 +4671,19 @@
         <v>0</v>
       </c>
       <c r="H97" s="14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I97" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J97" s="14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K97" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="L97" s="22" t="s">
-        <v>28</v>
+        <v>28</v>
+      </c>
+      <c r="L97" s="23" t="s">
+        <v>29</v>
       </c>
       <c r="M97" s="17"/>
     </row>
@@ -4676,7 +4692,7 @@
         <v>300104</v>
       </c>
       <c r="D98" s="12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E98" s="17">
         <v>4</v>
@@ -4688,19 +4704,19 @@
         <v>0</v>
       </c>
       <c r="H98" s="14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I98" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J98" s="14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K98" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="L98" s="22" t="s">
-        <v>28</v>
+        <v>28</v>
+      </c>
+      <c r="L98" s="23" t="s">
+        <v>29</v>
       </c>
       <c r="M98" s="17"/>
     </row>
@@ -4709,7 +4725,7 @@
         <v>300105</v>
       </c>
       <c r="D99" s="12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E99" s="17">
         <v>2</v>
@@ -4721,19 +4737,19 @@
         <v>0</v>
       </c>
       <c r="H99" s="14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I99" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J99" s="14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K99" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="L99" s="22" t="s">
-        <v>28</v>
+        <v>28</v>
+      </c>
+      <c r="L99" s="23" t="s">
+        <v>29</v>
       </c>
       <c r="M99" s="17"/>
     </row>
@@ -4742,7 +4758,7 @@
         <v>300106</v>
       </c>
       <c r="D100" s="12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E100" s="17">
         <v>4</v>
@@ -4754,19 +4770,19 @@
         <v>0</v>
       </c>
       <c r="H100" s="14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I100" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J100" s="14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K100" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="L100" s="22" t="s">
-        <v>28</v>
+        <v>28</v>
+      </c>
+      <c r="L100" s="23" t="s">
+        <v>29</v>
       </c>
       <c r="M100" s="17"/>
     </row>
@@ -4775,7 +4791,7 @@
         <v>300201</v>
       </c>
       <c r="D101" s="12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E101" s="17">
         <v>1</v>
@@ -4787,19 +4803,19 @@
         <v>0</v>
       </c>
       <c r="H101" s="14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I101" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J101" s="14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K101" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="L101" s="22" t="s">
-        <v>28</v>
+        <v>28</v>
+      </c>
+      <c r="L101" s="23" t="s">
+        <v>29</v>
       </c>
       <c r="M101" s="17"/>
     </row>
@@ -4808,7 +4824,7 @@
         <v>300202</v>
       </c>
       <c r="D102" s="12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E102" s="17">
         <v>4</v>
@@ -4820,19 +4836,19 @@
         <v>0</v>
       </c>
       <c r="H102" s="14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I102" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J102" s="14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K102" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="L102" s="22" t="s">
-        <v>28</v>
+        <v>28</v>
+      </c>
+      <c r="L102" s="23" t="s">
+        <v>29</v>
       </c>
       <c r="M102" s="17"/>
     </row>
@@ -4841,7 +4857,7 @@
         <v>300203</v>
       </c>
       <c r="D103" s="12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E103" s="17">
         <v>4</v>
@@ -4853,19 +4869,19 @@
         <v>0</v>
       </c>
       <c r="H103" s="14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I103" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J103" s="14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K103" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="L103" s="22" t="s">
-        <v>28</v>
+        <v>28</v>
+      </c>
+      <c r="L103" s="23" t="s">
+        <v>29</v>
       </c>
       <c r="M103" s="17"/>
     </row>
@@ -4874,7 +4890,7 @@
         <v>300204</v>
       </c>
       <c r="D104" s="12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E104" s="17">
         <v>4</v>
@@ -4886,28 +4902,28 @@
         <v>0</v>
       </c>
       <c r="H104" s="14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I104" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J104" s="14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K104" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="L104" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="M104" s="21"/>
+        <v>28</v>
+      </c>
+      <c r="L104" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="M104" s="22"/>
     </row>
     <row r="105" ht="20.1" customHeight="1" spans="3:13">
       <c r="C105" s="16">
         <v>300205</v>
       </c>
       <c r="D105" s="12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E105" s="17">
         <v>2</v>
@@ -4919,28 +4935,28 @@
         <v>0</v>
       </c>
       <c r="H105" s="14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I105" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J105" s="14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K105" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="L105" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="M105" s="21"/>
+        <v>28</v>
+      </c>
+      <c r="L105" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="M105" s="22"/>
     </row>
     <row r="106" ht="20.1" customHeight="1" spans="3:13">
       <c r="C106" s="16">
         <v>300206</v>
       </c>
       <c r="D106" s="12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E106" s="17">
         <v>4</v>
@@ -4952,28 +4968,28 @@
         <v>0</v>
       </c>
       <c r="H106" s="14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I106" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J106" s="14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K106" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="L106" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="M106" s="21"/>
+        <v>28</v>
+      </c>
+      <c r="L106" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="M106" s="22"/>
     </row>
     <row r="107" ht="20.1" customHeight="1" spans="3:13">
       <c r="C107" s="16">
         <v>300301</v>
       </c>
       <c r="D107" s="12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E107" s="17">
         <v>1</v>
@@ -4985,19 +5001,19 @@
         <v>0</v>
       </c>
       <c r="H107" s="14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I107" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J107" s="14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K107" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="L107" s="22" t="s">
-        <v>28</v>
+        <v>28</v>
+      </c>
+      <c r="L107" s="23" t="s">
+        <v>29</v>
       </c>
       <c r="M107" s="17"/>
     </row>
@@ -5006,7 +5022,7 @@
         <v>300302</v>
       </c>
       <c r="D108" s="12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E108" s="17">
         <v>4</v>
@@ -5018,19 +5034,19 @@
         <v>0</v>
       </c>
       <c r="H108" s="14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I108" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J108" s="14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K108" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="L108" s="22" t="s">
-        <v>28</v>
+        <v>28</v>
+      </c>
+      <c r="L108" s="23" t="s">
+        <v>29</v>
       </c>
       <c r="M108" s="17"/>
     </row>
@@ -5039,7 +5055,7 @@
         <v>300303</v>
       </c>
       <c r="D109" s="12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E109" s="17">
         <v>4</v>
@@ -5051,19 +5067,19 @@
         <v>0</v>
       </c>
       <c r="H109" s="14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I109" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J109" s="14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K109" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="L109" s="22" t="s">
-        <v>28</v>
+        <v>28</v>
+      </c>
+      <c r="L109" s="23" t="s">
+        <v>29</v>
       </c>
       <c r="M109" s="17"/>
     </row>
@@ -5072,7 +5088,7 @@
         <v>300304</v>
       </c>
       <c r="D110" s="12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E110" s="17">
         <v>4</v>
@@ -5084,28 +5100,28 @@
         <v>0</v>
       </c>
       <c r="H110" s="14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I110" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J110" s="14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K110" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="L110" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="M110" s="21"/>
+        <v>28</v>
+      </c>
+      <c r="L110" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="M110" s="22"/>
     </row>
     <row r="111" ht="20.1" customHeight="1" spans="3:13">
       <c r="C111" s="16">
         <v>300305</v>
       </c>
       <c r="D111" s="12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E111" s="17">
         <v>2</v>
@@ -5117,28 +5133,28 @@
         <v>0</v>
       </c>
       <c r="H111" s="14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I111" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J111" s="14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K111" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="L111" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="M111" s="21"/>
+        <v>28</v>
+      </c>
+      <c r="L111" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="M111" s="22"/>
     </row>
     <row r="112" ht="20.1" customHeight="1" spans="3:13">
       <c r="C112" s="16">
         <v>300306</v>
       </c>
       <c r="D112" s="12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E112" s="17">
         <v>4</v>
@@ -5150,28 +5166,28 @@
         <v>0</v>
       </c>
       <c r="H112" s="14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I112" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J112" s="14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K112" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="L112" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="M112" s="21"/>
+        <v>28</v>
+      </c>
+      <c r="L112" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="M112" s="22"/>
     </row>
     <row r="113" ht="20.1" customHeight="1" spans="3:13">
       <c r="C113" s="16">
         <v>300401</v>
       </c>
       <c r="D113" s="12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E113" s="17">
         <v>1</v>
@@ -5183,28 +5199,28 @@
         <v>0</v>
       </c>
       <c r="H113" s="14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I113" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J113" s="14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K113" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="L113" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="M113" s="21"/>
+        <v>28</v>
+      </c>
+      <c r="L113" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="M113" s="22"/>
     </row>
     <row r="114" ht="20.1" customHeight="1" spans="3:13">
       <c r="C114" s="16">
         <v>300402</v>
       </c>
       <c r="D114" s="12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E114" s="17">
         <v>4</v>
@@ -5216,28 +5232,28 @@
         <v>0</v>
       </c>
       <c r="H114" s="14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I114" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J114" s="14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K114" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="L114" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="M114" s="21"/>
+        <v>28</v>
+      </c>
+      <c r="L114" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="M114" s="22"/>
     </row>
     <row r="115" ht="20.1" customHeight="1" spans="3:13">
       <c r="C115" s="16">
         <v>300403</v>
       </c>
       <c r="D115" s="12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E115" s="17">
         <v>4</v>
@@ -5249,28 +5265,28 @@
         <v>0</v>
       </c>
       <c r="H115" s="14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I115" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J115" s="14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K115" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="L115" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="M115" s="21"/>
+        <v>28</v>
+      </c>
+      <c r="L115" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="M115" s="22"/>
     </row>
     <row r="116" ht="20.1" customHeight="1" spans="3:13">
       <c r="C116" s="16">
         <v>300404</v>
       </c>
       <c r="D116" s="12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E116" s="17">
         <v>4</v>
@@ -5282,19 +5298,19 @@
         <v>0</v>
       </c>
       <c r="H116" s="14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I116" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J116" s="14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K116" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="L116" s="22" t="s">
-        <v>28</v>
+        <v>28</v>
+      </c>
+      <c r="L116" s="23" t="s">
+        <v>29</v>
       </c>
       <c r="M116" s="17"/>
     </row>
@@ -5303,7 +5319,7 @@
         <v>300405</v>
       </c>
       <c r="D117" s="12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E117" s="17">
         <v>2</v>
@@ -5315,19 +5331,19 @@
         <v>0</v>
       </c>
       <c r="H117" s="14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I117" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J117" s="14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K117" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="L117" s="22" t="s">
-        <v>28</v>
+        <v>28</v>
+      </c>
+      <c r="L117" s="23" t="s">
+        <v>29</v>
       </c>
       <c r="M117" s="17"/>
     </row>
@@ -5336,7 +5352,7 @@
         <v>300406</v>
       </c>
       <c r="D118" s="12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E118" s="17">
         <v>4</v>
@@ -5348,19 +5364,19 @@
         <v>0</v>
       </c>
       <c r="H118" s="14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I118" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J118" s="14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K118" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="L118" s="22" t="s">
-        <v>28</v>
+        <v>28</v>
+      </c>
+      <c r="L118" s="23" t="s">
+        <v>29</v>
       </c>
       <c r="M118" s="17"/>
     </row>
@@ -5369,7 +5385,7 @@
         <v>400001</v>
       </c>
       <c r="D119" s="12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E119" s="17">
         <v>1</v>
@@ -5381,19 +5397,19 @@
         <v>0</v>
       </c>
       <c r="H119" s="14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I119" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J119" s="14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K119" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="L119" s="22" t="s">
-        <v>28</v>
+        <v>28</v>
+      </c>
+      <c r="L119" s="23" t="s">
+        <v>29</v>
       </c>
       <c r="M119" s="17"/>
     </row>
@@ -5402,7 +5418,7 @@
         <v>400002</v>
       </c>
       <c r="D120" s="12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E120" s="17">
         <v>4</v>
@@ -5414,19 +5430,19 @@
         <v>0</v>
       </c>
       <c r="H120" s="14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I120" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J120" s="14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K120" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="L120" s="22" t="s">
-        <v>28</v>
+        <v>28</v>
+      </c>
+      <c r="L120" s="23" t="s">
+        <v>29</v>
       </c>
       <c r="M120" s="17"/>
     </row>
@@ -5435,7 +5451,7 @@
         <v>400003</v>
       </c>
       <c r="D121" s="12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E121" s="17">
         <v>4</v>
@@ -5447,19 +5463,19 @@
         <v>0</v>
       </c>
       <c r="H121" s="14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I121" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J121" s="14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K121" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="L121" s="22" t="s">
-        <v>28</v>
+        <v>28</v>
+      </c>
+      <c r="L121" s="23" t="s">
+        <v>29</v>
       </c>
       <c r="M121" s="17"/>
     </row>
@@ -5468,7 +5484,7 @@
         <v>400004</v>
       </c>
       <c r="D122" s="12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E122" s="17">
         <v>4</v>
@@ -5480,19 +5496,19 @@
         <v>0</v>
       </c>
       <c r="H122" s="14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I122" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J122" s="14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K122" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="L122" s="22" t="s">
-        <v>28</v>
+        <v>28</v>
+      </c>
+      <c r="L122" s="23" t="s">
+        <v>29</v>
       </c>
       <c r="M122" s="17"/>
     </row>
@@ -5501,7 +5517,7 @@
         <v>400005</v>
       </c>
       <c r="D123" s="12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E123" s="17">
         <v>2</v>
@@ -5513,19 +5529,19 @@
         <v>0</v>
       </c>
       <c r="H123" s="14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I123" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J123" s="14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K123" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="L123" s="22" t="s">
-        <v>28</v>
+        <v>28</v>
+      </c>
+      <c r="L123" s="23" t="s">
+        <v>29</v>
       </c>
       <c r="M123" s="17"/>
     </row>
@@ -5534,7 +5550,7 @@
         <v>400006</v>
       </c>
       <c r="D124" s="12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E124" s="17">
         <v>4</v>
@@ -5546,19 +5562,19 @@
         <v>0</v>
       </c>
       <c r="H124" s="14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I124" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J124" s="14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K124" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="L124" s="22" t="s">
-        <v>28</v>
+        <v>28</v>
+      </c>
+      <c r="L124" s="23" t="s">
+        <v>29</v>
       </c>
       <c r="M124" s="17"/>
     </row>
@@ -5567,7 +5583,7 @@
         <v>400101</v>
       </c>
       <c r="D125" s="12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E125" s="17">
         <v>1</v>
@@ -5579,19 +5595,19 @@
         <v>0</v>
       </c>
       <c r="H125" s="14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I125" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J125" s="14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K125" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="L125" s="22" t="s">
-        <v>28</v>
+        <v>28</v>
+      </c>
+      <c r="L125" s="23" t="s">
+        <v>29</v>
       </c>
       <c r="M125" s="17"/>
     </row>
@@ -5600,7 +5616,7 @@
         <v>400102</v>
       </c>
       <c r="D126" s="12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E126" s="17">
         <v>4</v>
@@ -5612,19 +5628,19 @@
         <v>0</v>
       </c>
       <c r="H126" s="14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I126" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J126" s="14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K126" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="L126" s="22" t="s">
-        <v>28</v>
+        <v>28</v>
+      </c>
+      <c r="L126" s="23" t="s">
+        <v>29</v>
       </c>
       <c r="M126" s="17"/>
     </row>
@@ -5633,7 +5649,7 @@
         <v>400103</v>
       </c>
       <c r="D127" s="12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E127" s="17">
         <v>4</v>
@@ -5645,19 +5661,19 @@
         <v>0</v>
       </c>
       <c r="H127" s="14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I127" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J127" s="14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K127" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="L127" s="22" t="s">
-        <v>28</v>
+        <v>28</v>
+      </c>
+      <c r="L127" s="23" t="s">
+        <v>29</v>
       </c>
       <c r="M127" s="17"/>
     </row>
@@ -5666,7 +5682,7 @@
         <v>400104</v>
       </c>
       <c r="D128" s="12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E128" s="17">
         <v>4</v>
@@ -5678,19 +5694,19 @@
         <v>0</v>
       </c>
       <c r="H128" s="14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I128" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J128" s="14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K128" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="L128" s="22" t="s">
-        <v>28</v>
+        <v>28</v>
+      </c>
+      <c r="L128" s="23" t="s">
+        <v>29</v>
       </c>
       <c r="M128" s="17"/>
     </row>
@@ -5699,7 +5715,7 @@
         <v>400105</v>
       </c>
       <c r="D129" s="12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E129" s="17">
         <v>2</v>
@@ -5711,19 +5727,19 @@
         <v>0</v>
       </c>
       <c r="H129" s="14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I129" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J129" s="14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K129" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="L129" s="22" t="s">
-        <v>28</v>
+        <v>28</v>
+      </c>
+      <c r="L129" s="23" t="s">
+        <v>29</v>
       </c>
       <c r="M129" s="17"/>
     </row>
@@ -5732,7 +5748,7 @@
         <v>400106</v>
       </c>
       <c r="D130" s="12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E130" s="17">
         <v>4</v>
@@ -5744,19 +5760,19 @@
         <v>0</v>
       </c>
       <c r="H130" s="14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I130" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J130" s="14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K130" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="L130" s="22" t="s">
-        <v>28</v>
+        <v>28</v>
+      </c>
+      <c r="L130" s="23" t="s">
+        <v>29</v>
       </c>
       <c r="M130" s="17"/>
     </row>
@@ -5765,7 +5781,7 @@
         <v>400201</v>
       </c>
       <c r="D131" s="12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E131" s="17">
         <v>1</v>
@@ -5777,19 +5793,19 @@
         <v>0</v>
       </c>
       <c r="H131" s="14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I131" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J131" s="14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K131" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="L131" s="22" t="s">
-        <v>28</v>
+        <v>28</v>
+      </c>
+      <c r="L131" s="23" t="s">
+        <v>29</v>
       </c>
       <c r="M131" s="17"/>
     </row>
@@ -5798,7 +5814,7 @@
         <v>400202</v>
       </c>
       <c r="D132" s="12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E132" s="17">
         <v>4</v>
@@ -5810,19 +5826,19 @@
         <v>0</v>
       </c>
       <c r="H132" s="14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I132" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J132" s="14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K132" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="L132" s="22" t="s">
-        <v>28</v>
+        <v>28</v>
+      </c>
+      <c r="L132" s="23" t="s">
+        <v>29</v>
       </c>
       <c r="M132" s="17"/>
     </row>
@@ -5831,7 +5847,7 @@
         <v>400203</v>
       </c>
       <c r="D133" s="12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E133" s="17">
         <v>4</v>
@@ -5843,19 +5859,19 @@
         <v>0</v>
       </c>
       <c r="H133" s="14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I133" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J133" s="14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K133" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="L133" s="22" t="s">
-        <v>28</v>
+        <v>28</v>
+      </c>
+      <c r="L133" s="23" t="s">
+        <v>29</v>
       </c>
       <c r="M133" s="17"/>
     </row>
@@ -5864,7 +5880,7 @@
         <v>400204</v>
       </c>
       <c r="D134" s="12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E134" s="17">
         <v>4</v>
@@ -5876,19 +5892,19 @@
         <v>0</v>
       </c>
       <c r="H134" s="14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I134" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J134" s="14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K134" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="L134" s="22" t="s">
-        <v>28</v>
+        <v>28</v>
+      </c>
+      <c r="L134" s="23" t="s">
+        <v>29</v>
       </c>
       <c r="M134" s="17"/>
     </row>
@@ -5897,7 +5913,7 @@
         <v>400205</v>
       </c>
       <c r="D135" s="12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E135" s="17">
         <v>2</v>
@@ -5909,19 +5925,19 @@
         <v>0</v>
       </c>
       <c r="H135" s="14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I135" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J135" s="14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K135" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="L135" s="22" t="s">
-        <v>28</v>
+        <v>28</v>
+      </c>
+      <c r="L135" s="23" t="s">
+        <v>29</v>
       </c>
       <c r="M135" s="17"/>
     </row>
@@ -5930,7 +5946,7 @@
         <v>400206</v>
       </c>
       <c r="D136" s="12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E136" s="17">
         <v>4</v>
@@ -5942,19 +5958,19 @@
         <v>0</v>
       </c>
       <c r="H136" s="14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I136" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J136" s="14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K136" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="L136" s="22" t="s">
-        <v>28</v>
+        <v>28</v>
+      </c>
+      <c r="L136" s="23" t="s">
+        <v>29</v>
       </c>
       <c r="M136" s="17"/>
     </row>
@@ -5963,7 +5979,7 @@
         <v>400301</v>
       </c>
       <c r="D137" s="12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E137" s="17">
         <v>1</v>
@@ -5975,19 +5991,19 @@
         <v>0</v>
       </c>
       <c r="H137" s="14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I137" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J137" s="14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K137" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="L137" s="22" t="s">
-        <v>28</v>
+        <v>28</v>
+      </c>
+      <c r="L137" s="23" t="s">
+        <v>29</v>
       </c>
       <c r="M137" s="17"/>
     </row>
@@ -5996,7 +6012,7 @@
         <v>400302</v>
       </c>
       <c r="D138" s="12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E138" s="17">
         <v>4</v>
@@ -6008,19 +6024,19 @@
         <v>0</v>
       </c>
       <c r="H138" s="14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I138" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J138" s="14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K138" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="L138" s="22" t="s">
-        <v>28</v>
+        <v>28</v>
+      </c>
+      <c r="L138" s="23" t="s">
+        <v>29</v>
       </c>
       <c r="M138" s="17"/>
     </row>
@@ -6029,7 +6045,7 @@
         <v>400303</v>
       </c>
       <c r="D139" s="12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E139" s="17">
         <v>4</v>
@@ -6041,19 +6057,19 @@
         <v>0</v>
       </c>
       <c r="H139" s="14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I139" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J139" s="14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K139" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="L139" s="22" t="s">
-        <v>28</v>
+        <v>28</v>
+      </c>
+      <c r="L139" s="23" t="s">
+        <v>29</v>
       </c>
       <c r="M139" s="17"/>
     </row>
@@ -6062,7 +6078,7 @@
         <v>400304</v>
       </c>
       <c r="D140" s="12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E140" s="17">
         <v>4</v>
@@ -6074,19 +6090,19 @@
         <v>0</v>
       </c>
       <c r="H140" s="14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I140" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J140" s="14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K140" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="L140" s="22" t="s">
-        <v>28</v>
+        <v>28</v>
+      </c>
+      <c r="L140" s="23" t="s">
+        <v>29</v>
       </c>
       <c r="M140" s="17"/>
     </row>
@@ -6095,7 +6111,7 @@
         <v>400305</v>
       </c>
       <c r="D141" s="12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E141" s="17">
         <v>2</v>
@@ -6107,19 +6123,19 @@
         <v>0</v>
       </c>
       <c r="H141" s="14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I141" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J141" s="14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K141" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="L141" s="22" t="s">
-        <v>28</v>
+        <v>28</v>
+      </c>
+      <c r="L141" s="23" t="s">
+        <v>29</v>
       </c>
       <c r="M141" s="17"/>
     </row>
@@ -6128,7 +6144,7 @@
         <v>400306</v>
       </c>
       <c r="D142" s="12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E142" s="17">
         <v>4</v>
@@ -6140,19 +6156,19 @@
         <v>0</v>
       </c>
       <c r="H142" s="14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I142" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J142" s="14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K142" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="L142" s="22" t="s">
-        <v>28</v>
+        <v>28</v>
+      </c>
+      <c r="L142" s="23" t="s">
+        <v>29</v>
       </c>
       <c r="M142" s="17"/>
     </row>
@@ -6161,7 +6177,7 @@
         <v>400401</v>
       </c>
       <c r="D143" s="12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E143" s="17">
         <v>1</v>
@@ -6173,19 +6189,19 @@
         <v>0</v>
       </c>
       <c r="H143" s="14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I143" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J143" s="14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K143" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="L143" s="22" t="s">
-        <v>28</v>
+        <v>28</v>
+      </c>
+      <c r="L143" s="23" t="s">
+        <v>29</v>
       </c>
       <c r="M143" s="17"/>
     </row>
@@ -6194,7 +6210,7 @@
         <v>400402</v>
       </c>
       <c r="D144" s="12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E144" s="17">
         <v>4</v>
@@ -6206,19 +6222,19 @@
         <v>0</v>
       </c>
       <c r="H144" s="14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I144" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J144" s="14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K144" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="L144" s="22" t="s">
-        <v>28</v>
+        <v>28</v>
+      </c>
+      <c r="L144" s="23" t="s">
+        <v>29</v>
       </c>
       <c r="M144" s="17"/>
     </row>
@@ -6227,7 +6243,7 @@
         <v>400403</v>
       </c>
       <c r="D145" s="12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E145" s="17">
         <v>4</v>
@@ -6239,19 +6255,19 @@
         <v>0</v>
       </c>
       <c r="H145" s="14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I145" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J145" s="14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K145" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="L145" s="22" t="s">
-        <v>28</v>
+        <v>28</v>
+      </c>
+      <c r="L145" s="23" t="s">
+        <v>29</v>
       </c>
       <c r="M145" s="17"/>
     </row>
@@ -6260,7 +6276,7 @@
         <v>400404</v>
       </c>
       <c r="D146" s="12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E146" s="17">
         <v>4</v>
@@ -6272,19 +6288,19 @@
         <v>0</v>
       </c>
       <c r="H146" s="14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I146" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J146" s="14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K146" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="L146" s="22" t="s">
-        <v>28</v>
+        <v>28</v>
+      </c>
+      <c r="L146" s="23" t="s">
+        <v>29</v>
       </c>
       <c r="M146" s="17"/>
     </row>
@@ -6293,7 +6309,7 @@
         <v>400405</v>
       </c>
       <c r="D147" s="12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E147" s="17">
         <v>2</v>
@@ -6305,19 +6321,19 @@
         <v>0</v>
       </c>
       <c r="H147" s="14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I147" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J147" s="14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K147" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="L147" s="22" t="s">
-        <v>28</v>
+        <v>28</v>
+      </c>
+      <c r="L147" s="23" t="s">
+        <v>29</v>
       </c>
       <c r="M147" s="17"/>
     </row>
@@ -6326,7 +6342,7 @@
         <v>400406</v>
       </c>
       <c r="D148" s="12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E148" s="17">
         <v>4</v>
@@ -6338,19 +6354,19 @@
         <v>0</v>
       </c>
       <c r="H148" s="14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I148" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J148" s="14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K148" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="L148" s="22" t="s">
-        <v>28</v>
+        <v>28</v>
+      </c>
+      <c r="L148" s="23" t="s">
+        <v>29</v>
       </c>
       <c r="M148" s="17"/>
     </row>

--- a/Unity/Assets/Config/Excel/CellDungeonConfig.xlsx
+++ b/Unity/Assets/Config/Excel/CellDungeonConfig.xlsx
@@ -7,7 +7,7 @@
     <workbookView windowWidth="27945" windowHeight="12375"/>
   </bookViews>
   <sheets>
-    <sheet name="ChapterSonPro" sheetId="1" r:id="rId1"/>
+    <sheet name="CellDungeonPro" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1136,7 +1136,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{B6D3CDE2-8814-493E-B446-C9DD6A642E37}">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{117E2B4E-9C17-49C3-AFC1-6E6B5B987133}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -1468,7 +1468,7 @@
   <sheetPr/>
   <dimension ref="C1:W148"/>
   <sheetViews>
-    <sheetView showFormulas="1" tabSelected="1" topLeftCell="M1" workbookViewId="0">
+    <sheetView showFormulas="1" tabSelected="1" workbookViewId="0">
       <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>

--- a/Unity/Assets/Config/Excel/CellDungeonConfig.xlsx
+++ b/Unity/Assets/Config/Excel/CellDungeonConfig.xlsx
@@ -169,19 +169,19 @@
     <t>特殊能力房间</t>
   </si>
   <si>
-    <t>0,0,-1000</t>
+    <t>0,0,-800</t>
   </si>
   <si>
-    <t>-1000,0,0</t>
+    <t>-800,0,0</t>
   </si>
   <si>
-    <t>1000,0,0</t>
+    <t>800,0,0</t>
   </si>
   <si>
-    <t>0,0,1000</t>
+    <t>0,0,800</t>
   </si>
   <si>
-    <t>0,0,-2000;-2000,0,0;2000,0,0;0,0,2000</t>
+    <t>0,0,-1000;-1000,0,0;1000,0,0;0,0,1000</t>
   </si>
   <si>
     <t>精英怪物房间</t>
@@ -1136,7 +1136,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{117E2B4E-9C17-49C3-AFC1-6E6B5B987133}">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{FAFA5400-2D0E-4F19-BC30-EE2C09A62BE5}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -1468,8 +1468,8 @@
   <sheetPr/>
   <dimension ref="C1:W148"/>
   <sheetViews>
-    <sheetView showFormulas="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+    <sheetView showFormulas="1" tabSelected="1" topLeftCell="A130" workbookViewId="0">
+      <selection activeCell="K152" sqref="K152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/Unity/Assets/Config/Excel/CellDungeonConfig.xlsx
+++ b/Unity/Assets/Config/Excel/CellDungeonConfig.xlsx
@@ -169,16 +169,16 @@
     <t>特殊能力房间</t>
   </si>
   <si>
-    <t>0,0,-800</t>
+    <t>0,0,-400</t>
   </si>
   <si>
-    <t>-800,0,0</t>
+    <t>-400,0,0</t>
   </si>
   <si>
-    <t>800,0,0</t>
+    <t>400,0,0</t>
   </si>
   <si>
-    <t>0,0,800</t>
+    <t>0,0,400</t>
   </si>
   <si>
     <t>0,0,-1000;-1000,0,0;1000,0,0;0,0,1000</t>
@@ -1136,7 +1136,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{FAFA5400-2D0E-4F19-BC30-EE2C09A62BE5}">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{11186762-B625-4353-8D5F-4B84A1749F77}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -1468,8 +1468,8 @@
   <sheetPr/>
   <dimension ref="C1:W148"/>
   <sheetViews>
-    <sheetView showFormulas="1" tabSelected="1" topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="K152" sqref="K152"/>
+    <sheetView showFormulas="1" tabSelected="1" topLeftCell="B129" workbookViewId="0">
+      <selection activeCell="K153" sqref="K153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/Unity/Assets/Config/Excel/CellDungeonConfig.xlsx
+++ b/Unity/Assets/Config/Excel/CellDungeonConfig.xlsx
@@ -1136,7 +1136,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{11186762-B625-4353-8D5F-4B84A1749F77}">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{D2975C80-DFA6-49F8-BF83-A854314F9A37}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -1466,10 +1466,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C1:W148"/>
+  <dimension ref="C1:W149"/>
   <sheetViews>
-    <sheetView showFormulas="1" tabSelected="1" topLeftCell="B129" workbookViewId="0">
-      <selection activeCell="K153" sqref="K153"/>
+    <sheetView showFormulas="1" tabSelected="1" topLeftCell="A130" workbookViewId="0">
+      <selection activeCell="G156" sqref="G156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1671,7 +1671,7 @@
         <v>4</v>
       </c>
       <c r="F7" s="12">
-        <v>100101</v>
+        <v>100102</v>
       </c>
       <c r="G7" s="13">
         <v>0</v>
@@ -1737,7 +1737,7 @@
         <v>4</v>
       </c>
       <c r="F9" s="12">
-        <v>100101</v>
+        <v>100102</v>
       </c>
       <c r="G9" s="13">
         <v>0</v>
@@ -1803,7 +1803,7 @@
         <v>1</v>
       </c>
       <c r="F11" s="12">
-        <v>100101</v>
+        <v>100102</v>
       </c>
       <c r="G11" s="16">
         <v>0</v>
@@ -1869,7 +1869,7 @@
         <v>4</v>
       </c>
       <c r="F13" s="12">
-        <v>100101</v>
+        <v>100102</v>
       </c>
       <c r="G13" s="16">
         <v>0</v>
@@ -1947,7 +1947,7 @@
         <v>2</v>
       </c>
       <c r="F15" s="12">
-        <v>100101</v>
+        <v>100102</v>
       </c>
       <c r="G15" s="16">
         <v>0</v>
@@ -2025,7 +2025,7 @@
         <v>1</v>
       </c>
       <c r="F17" s="12">
-        <v>100101</v>
+        <v>100102</v>
       </c>
       <c r="G17" s="13">
         <v>0</v>
@@ -2091,7 +2091,7 @@
         <v>4</v>
       </c>
       <c r="F19" s="12">
-        <v>100101</v>
+        <v>100102</v>
       </c>
       <c r="G19" s="13">
         <v>0</v>
@@ -2157,7 +2157,7 @@
         <v>1</v>
       </c>
       <c r="F21" s="12">
-        <v>100101</v>
+        <v>100102</v>
       </c>
       <c r="G21" s="13">
         <v>0</v>
@@ -2223,7 +2223,7 @@
         <v>4</v>
       </c>
       <c r="F23" s="12">
-        <v>100101</v>
+        <v>100102</v>
       </c>
       <c r="G23" s="16">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>4</v>
       </c>
       <c r="F25" s="12">
-        <v>100101</v>
+        <v>100102</v>
       </c>
       <c r="G25" s="16">
         <v>0</v>
@@ -2355,7 +2355,7 @@
         <v>1</v>
       </c>
       <c r="F27" s="12">
-        <v>100101</v>
+        <v>100102</v>
       </c>
       <c r="G27" s="16">
         <v>0</v>
@@ -2421,7 +2421,7 @@
         <v>4</v>
       </c>
       <c r="F29" s="12">
-        <v>100101</v>
+        <v>100102</v>
       </c>
       <c r="G29" s="13">
         <v>0</v>
@@ -2487,7 +2487,7 @@
         <v>2</v>
       </c>
       <c r="F31" s="12">
-        <v>100101</v>
+        <v>100102</v>
       </c>
       <c r="G31" s="13">
         <v>0</v>
@@ -2553,7 +2553,7 @@
         <v>1</v>
       </c>
       <c r="F33" s="12">
-        <v>100101</v>
+        <v>100102</v>
       </c>
       <c r="G33" s="16">
         <v>0</v>
@@ -2619,7 +2619,7 @@
         <v>4</v>
       </c>
       <c r="F35" s="12">
-        <v>100101</v>
+        <v>100102</v>
       </c>
       <c r="G35" s="16">
         <v>0</v>
@@ -2685,7 +2685,7 @@
         <v>2</v>
       </c>
       <c r="F37" s="12">
-        <v>100101</v>
+        <v>100102</v>
       </c>
       <c r="G37" s="16">
         <v>0</v>
@@ -2751,7 +2751,7 @@
         <v>1</v>
       </c>
       <c r="F39" s="12">
-        <v>100101</v>
+        <v>100102</v>
       </c>
       <c r="G39" s="13">
         <v>0</v>
@@ -2817,7 +2817,7 @@
         <v>4</v>
       </c>
       <c r="F41" s="12">
-        <v>100101</v>
+        <v>100102</v>
       </c>
       <c r="G41" s="13">
         <v>0</v>
@@ -2883,7 +2883,7 @@
         <v>4</v>
       </c>
       <c r="F43" s="12">
-        <v>100101</v>
+        <v>100102</v>
       </c>
       <c r="G43" s="13">
         <v>0</v>
@@ -2949,7 +2949,7 @@
         <v>4</v>
       </c>
       <c r="F45" s="12">
-        <v>100101</v>
+        <v>100102</v>
       </c>
       <c r="G45" s="16">
         <v>0</v>
@@ -3015,7 +3015,7 @@
         <v>4</v>
       </c>
       <c r="F47" s="12">
-        <v>100101</v>
+        <v>100102</v>
       </c>
       <c r="G47" s="16">
         <v>0</v>
@@ -3081,7 +3081,7 @@
         <v>4</v>
       </c>
       <c r="F49" s="12">
-        <v>100101</v>
+        <v>100102</v>
       </c>
       <c r="G49" s="16">
         <v>0</v>
@@ -3147,7 +3147,7 @@
         <v>4</v>
       </c>
       <c r="F51" s="12">
-        <v>100101</v>
+        <v>100102</v>
       </c>
       <c r="G51" s="13">
         <v>0</v>
@@ -3213,7 +3213,7 @@
         <v>1</v>
       </c>
       <c r="F53" s="12">
-        <v>100101</v>
+        <v>100102</v>
       </c>
       <c r="G53" s="13">
         <v>0</v>
@@ -3279,7 +3279,7 @@
         <v>4</v>
       </c>
       <c r="F55" s="12">
-        <v>100101</v>
+        <v>100102</v>
       </c>
       <c r="G55" s="16">
         <v>0</v>
@@ -3345,7 +3345,7 @@
         <v>2</v>
       </c>
       <c r="F57" s="12">
-        <v>100101</v>
+        <v>100102</v>
       </c>
       <c r="G57" s="16">
         <v>0</v>
@@ -3411,7 +3411,7 @@
         <v>1</v>
       </c>
       <c r="F59" s="12">
-        <v>100101</v>
+        <v>100102</v>
       </c>
       <c r="G59" s="16">
         <v>0</v>
@@ -3477,7 +3477,7 @@
         <v>4</v>
       </c>
       <c r="F61" s="12">
-        <v>100101</v>
+        <v>100102</v>
       </c>
       <c r="G61" s="13">
         <v>0</v>
@@ -3543,7 +3543,7 @@
         <v>2</v>
       </c>
       <c r="F63" s="12">
-        <v>100101</v>
+        <v>100102</v>
       </c>
       <c r="G63" s="13">
         <v>0</v>
@@ -3609,7 +3609,7 @@
         <v>1</v>
       </c>
       <c r="F65" s="12">
-        <v>100101</v>
+        <v>100102</v>
       </c>
       <c r="G65" s="13">
         <v>0</v>
@@ -3675,7 +3675,7 @@
         <v>4</v>
       </c>
       <c r="F67" s="12">
-        <v>100101</v>
+        <v>100102</v>
       </c>
       <c r="G67" s="16">
         <v>0</v>
@@ -3741,7 +3741,7 @@
         <v>2</v>
       </c>
       <c r="F69" s="12">
-        <v>100101</v>
+        <v>100102</v>
       </c>
       <c r="G69" s="16">
         <v>0</v>
@@ -3807,7 +3807,7 @@
         <v>1</v>
       </c>
       <c r="F71" s="12">
-        <v>100101</v>
+        <v>100102</v>
       </c>
       <c r="G71" s="16">
         <v>0</v>
@@ -3873,7 +3873,7 @@
         <v>4</v>
       </c>
       <c r="F73" s="12">
-        <v>100101</v>
+        <v>100102</v>
       </c>
       <c r="G73" s="13">
         <v>0</v>
@@ -3939,7 +3939,7 @@
         <v>2</v>
       </c>
       <c r="F75" s="12">
-        <v>100101</v>
+        <v>100102</v>
       </c>
       <c r="G75" s="13">
         <v>0</v>
@@ -4005,7 +4005,7 @@
         <v>1</v>
       </c>
       <c r="F77" s="12">
-        <v>100101</v>
+        <v>100102</v>
       </c>
       <c r="G77" s="16">
         <v>0</v>
@@ -4071,7 +4071,7 @@
         <v>4</v>
       </c>
       <c r="F79" s="12">
-        <v>100101</v>
+        <v>100102</v>
       </c>
       <c r="G79" s="16">
         <v>0</v>
@@ -4137,7 +4137,7 @@
         <v>2</v>
       </c>
       <c r="F81" s="12">
-        <v>100101</v>
+        <v>100102</v>
       </c>
       <c r="G81" s="16">
         <v>0</v>
@@ -4203,7 +4203,7 @@
         <v>1</v>
       </c>
       <c r="F83" s="12">
-        <v>100101</v>
+        <v>100102</v>
       </c>
       <c r="G83" s="13">
         <v>0</v>
@@ -4269,7 +4269,7 @@
         <v>4</v>
       </c>
       <c r="F85" s="12">
-        <v>100101</v>
+        <v>100102</v>
       </c>
       <c r="G85" s="13">
         <v>0</v>
@@ -4335,7 +4335,7 @@
         <v>2</v>
       </c>
       <c r="F87" s="12">
-        <v>100101</v>
+        <v>100102</v>
       </c>
       <c r="G87" s="13">
         <v>0</v>
@@ -4401,7 +4401,7 @@
         <v>1</v>
       </c>
       <c r="F89" s="12">
-        <v>100101</v>
+        <v>100102</v>
       </c>
       <c r="G89" s="16">
         <v>0</v>
@@ -4467,7 +4467,7 @@
         <v>4</v>
       </c>
       <c r="F91" s="12">
-        <v>100101</v>
+        <v>100102</v>
       </c>
       <c r="G91" s="16">
         <v>0</v>
@@ -4533,7 +4533,7 @@
         <v>2</v>
       </c>
       <c r="F93" s="12">
-        <v>100101</v>
+        <v>100102</v>
       </c>
       <c r="G93" s="16">
         <v>0</v>
@@ -4599,7 +4599,7 @@
         <v>1</v>
       </c>
       <c r="F95" s="12">
-        <v>100101</v>
+        <v>100102</v>
       </c>
       <c r="G95" s="13">
         <v>0</v>
@@ -4665,7 +4665,7 @@
         <v>4</v>
       </c>
       <c r="F97" s="12">
-        <v>100101</v>
+        <v>100102</v>
       </c>
       <c r="G97" s="13">
         <v>0</v>
@@ -4731,7 +4731,7 @@
         <v>2</v>
       </c>
       <c r="F99" s="12">
-        <v>100101</v>
+        <v>100102</v>
       </c>
       <c r="G99" s="16">
         <v>0</v>
@@ -4797,7 +4797,7 @@
         <v>1</v>
       </c>
       <c r="F101" s="12">
-        <v>100101</v>
+        <v>100102</v>
       </c>
       <c r="G101" s="16">
         <v>0</v>
@@ -4863,7 +4863,7 @@
         <v>4</v>
       </c>
       <c r="F103" s="12">
-        <v>100101</v>
+        <v>100102</v>
       </c>
       <c r="G103" s="16">
         <v>0</v>
@@ -4929,7 +4929,7 @@
         <v>2</v>
       </c>
       <c r="F105" s="12">
-        <v>100101</v>
+        <v>100102</v>
       </c>
       <c r="G105" s="13">
         <v>0</v>
@@ -4995,7 +4995,7 @@
         <v>1</v>
       </c>
       <c r="F107" s="12">
-        <v>100101</v>
+        <v>100102</v>
       </c>
       <c r="G107" s="13">
         <v>0</v>
@@ -5061,7 +5061,7 @@
         <v>4</v>
       </c>
       <c r="F109" s="12">
-        <v>100101</v>
+        <v>100102</v>
       </c>
       <c r="G109" s="13">
         <v>0</v>
@@ -5127,7 +5127,7 @@
         <v>2</v>
       </c>
       <c r="F111" s="12">
-        <v>100101</v>
+        <v>100102</v>
       </c>
       <c r="G111" s="16">
         <v>0</v>
@@ -5193,7 +5193,7 @@
         <v>1</v>
       </c>
       <c r="F113" s="12">
-        <v>100101</v>
+        <v>100102</v>
       </c>
       <c r="G113" s="16">
         <v>0</v>
@@ -5259,7 +5259,7 @@
         <v>4</v>
       </c>
       <c r="F115" s="12">
-        <v>100101</v>
+        <v>100102</v>
       </c>
       <c r="G115" s="16">
         <v>0</v>
@@ -5325,7 +5325,7 @@
         <v>2</v>
       </c>
       <c r="F117" s="12">
-        <v>100101</v>
+        <v>100102</v>
       </c>
       <c r="G117" s="13">
         <v>0</v>
@@ -5391,7 +5391,7 @@
         <v>1</v>
       </c>
       <c r="F119" s="12">
-        <v>100101</v>
+        <v>100102</v>
       </c>
       <c r="G119" s="13">
         <v>0</v>
@@ -5457,7 +5457,7 @@
         <v>4</v>
       </c>
       <c r="F121" s="12">
-        <v>100101</v>
+        <v>100102</v>
       </c>
       <c r="G121" s="16">
         <v>0</v>
@@ -5523,7 +5523,7 @@
         <v>2</v>
       </c>
       <c r="F123" s="12">
-        <v>100101</v>
+        <v>100102</v>
       </c>
       <c r="G123" s="16">
         <v>0</v>
@@ -5589,7 +5589,7 @@
         <v>1</v>
       </c>
       <c r="F125" s="12">
-        <v>100101</v>
+        <v>100102</v>
       </c>
       <c r="G125" s="16">
         <v>0</v>
@@ -5655,7 +5655,7 @@
         <v>4</v>
       </c>
       <c r="F127" s="12">
-        <v>100101</v>
+        <v>100102</v>
       </c>
       <c r="G127" s="13">
         <v>0</v>
@@ -5721,7 +5721,7 @@
         <v>2</v>
       </c>
       <c r="F129" s="12">
-        <v>100101</v>
+        <v>100102</v>
       </c>
       <c r="G129" s="13">
         <v>0</v>
@@ -5787,7 +5787,7 @@
         <v>1</v>
       </c>
       <c r="F131" s="12">
-        <v>100101</v>
+        <v>100102</v>
       </c>
       <c r="G131" s="13">
         <v>0</v>
@@ -5853,7 +5853,7 @@
         <v>4</v>
       </c>
       <c r="F133" s="12">
-        <v>100101</v>
+        <v>100102</v>
       </c>
       <c r="G133" s="16">
         <v>0</v>
@@ -5919,7 +5919,7 @@
         <v>2</v>
       </c>
       <c r="F135" s="12">
-        <v>100101</v>
+        <v>100102</v>
       </c>
       <c r="G135" s="16">
         <v>0</v>
@@ -5985,7 +5985,7 @@
         <v>1</v>
       </c>
       <c r="F137" s="12">
-        <v>100101</v>
+        <v>100102</v>
       </c>
       <c r="G137" s="16">
         <v>0</v>
@@ -6051,7 +6051,7 @@
         <v>4</v>
       </c>
       <c r="F139" s="12">
-        <v>100101</v>
+        <v>100102</v>
       </c>
       <c r="G139" s="13">
         <v>0</v>
@@ -6117,7 +6117,7 @@
         <v>2</v>
       </c>
       <c r="F141" s="12">
-        <v>100101</v>
+        <v>100102</v>
       </c>
       <c r="G141" s="13">
         <v>0</v>
@@ -6183,7 +6183,7 @@
         <v>1</v>
       </c>
       <c r="F143" s="12">
-        <v>100101</v>
+        <v>100102</v>
       </c>
       <c r="G143" s="16">
         <v>0</v>
@@ -6249,7 +6249,7 @@
         <v>4</v>
       </c>
       <c r="F145" s="12">
-        <v>100101</v>
+        <v>100102</v>
       </c>
       <c r="G145" s="16">
         <v>0</v>
@@ -6315,7 +6315,7 @@
         <v>2</v>
       </c>
       <c r="F147" s="12">
-        <v>100101</v>
+        <v>100102</v>
       </c>
       <c r="G147" s="16">
         <v>0</v>
@@ -6369,6 +6369,9 @@
         <v>29</v>
       </c>
       <c r="M148" s="17"/>
+    </row>
+    <row r="149" spans="6:6">
+      <c r="F149" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Unity/Assets/Config/Excel/CellDungeonConfig.xlsx
+++ b/Unity/Assets/Config/Excel/CellDungeonConfig.xlsx
@@ -986,7 +986,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1041,6 +1041,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="57" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49">
       <alignment vertical="center"/>
     </xf>
@@ -1136,7 +1139,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{D2975C80-DFA6-49F8-BF83-A854314F9A37}">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{203F511E-6DBB-41A4-BC19-7384DFF40A15}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -1468,8 +1471,8 @@
   <sheetPr/>
   <dimension ref="C1:W149"/>
   <sheetViews>
-    <sheetView showFormulas="1" tabSelected="1" topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="G156" sqref="G156"/>
+    <sheetView showFormulas="1" tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1622,10 +1625,10 @@
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
-      <c r="T5" s="20"/>
-      <c r="U5" s="20"/>
-      <c r="V5" s="20"/>
-      <c r="W5" s="20"/>
+      <c r="T5" s="21"/>
+      <c r="U5" s="21"/>
+      <c r="V5" s="21"/>
+      <c r="W5" s="21"/>
     </row>
     <row r="6" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:13">
       <c r="C6" s="12">
@@ -1655,7 +1658,7 @@
       <c r="K6" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="L6" s="23" t="s">
+      <c r="L6" s="24" t="s">
         <v>29</v>
       </c>
       <c r="M6" s="17"/>
@@ -1688,7 +1691,7 @@
       <c r="K7" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="L7" s="23" t="s">
+      <c r="L7" s="24" t="s">
         <v>29</v>
       </c>
       <c r="M7" s="17"/>
@@ -1721,7 +1724,7 @@
       <c r="K8" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="L8" s="23" t="s">
+      <c r="L8" s="24" t="s">
         <v>29</v>
       </c>
       <c r="M8" s="17"/>
@@ -1754,7 +1757,7 @@
       <c r="K9" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="L9" s="23" t="s">
+      <c r="L9" s="24" t="s">
         <v>29</v>
       </c>
       <c r="M9" s="17"/>
@@ -1787,7 +1790,7 @@
       <c r="K10" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="L10" s="23" t="s">
+      <c r="L10" s="24" t="s">
         <v>29</v>
       </c>
       <c r="M10" s="17"/>
@@ -1820,7 +1823,7 @@
       <c r="K11" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="L11" s="23" t="s">
+      <c r="L11" s="24" t="s">
         <v>29</v>
       </c>
       <c r="M11" s="17"/>
@@ -1853,7 +1856,7 @@
       <c r="K12" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="L12" s="23" t="s">
+      <c r="L12" s="24" t="s">
         <v>29</v>
       </c>
       <c r="M12" s="17"/>
@@ -1886,7 +1889,7 @@
       <c r="K13" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="L13" s="23" t="s">
+      <c r="L13" s="24" t="s">
         <v>29</v>
       </c>
       <c r="M13" s="17"/>
@@ -1895,7 +1898,7 @@
       <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
       <c r="R13" s="2"/>
-      <c r="S13" s="21"/>
+      <c r="S13" s="22"/>
     </row>
     <row r="14" ht="20.1" customHeight="1" spans="3:19">
       <c r="C14" s="15">
@@ -1925,7 +1928,7 @@
       <c r="K14" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="L14" s="23" t="s">
+      <c r="L14" s="24" t="s">
         <v>29</v>
       </c>
       <c r="M14" s="17"/>
@@ -1934,7 +1937,7 @@
       <c r="P14" s="2"/>
       <c r="Q14" s="2"/>
       <c r="R14" s="2"/>
-      <c r="S14" s="21"/>
+      <c r="S14" s="22"/>
     </row>
     <row r="15" ht="20.1" customHeight="1" spans="3:19">
       <c r="C15" s="15">
@@ -1964,7 +1967,7 @@
       <c r="K15" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="L15" s="23" t="s">
+      <c r="L15" s="24" t="s">
         <v>29</v>
       </c>
       <c r="M15" s="17"/>
@@ -1973,7 +1976,7 @@
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
       <c r="R15" s="2"/>
-      <c r="S15" s="21"/>
+      <c r="S15" s="22"/>
     </row>
     <row r="16" ht="20.1" customHeight="1" spans="3:19">
       <c r="C16" s="15">
@@ -2003,7 +2006,7 @@
       <c r="K16" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="L16" s="23" t="s">
+      <c r="L16" s="24" t="s">
         <v>29</v>
       </c>
       <c r="M16" s="17"/>
@@ -2012,7 +2015,7 @@
       <c r="P16" s="2"/>
       <c r="Q16" s="2"/>
       <c r="R16" s="2"/>
-      <c r="S16" s="21"/>
+      <c r="S16" s="22"/>
     </row>
     <row r="17" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:13">
       <c r="C17" s="15">
@@ -2042,10 +2045,12 @@
       <c r="K17" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="L17" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="M17" s="17"/>
+      <c r="L17" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="M17" s="20">
+        <v>100101</v>
+      </c>
     </row>
     <row r="18" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:13">
       <c r="C18" s="15">
@@ -2075,7 +2080,7 @@
       <c r="K18" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="L18" s="23" t="s">
+      <c r="L18" s="24" t="s">
         <v>29</v>
       </c>
       <c r="M18" s="17"/>
@@ -2108,7 +2113,7 @@
       <c r="K19" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="L19" s="23" t="s">
+      <c r="L19" s="24" t="s">
         <v>29</v>
       </c>
       <c r="M19" s="17"/>
@@ -2141,7 +2146,7 @@
       <c r="K20" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="L20" s="23" t="s">
+      <c r="L20" s="24" t="s">
         <v>29</v>
       </c>
       <c r="M20" s="17"/>
@@ -2174,7 +2179,7 @@
       <c r="K21" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="L21" s="23" t="s">
+      <c r="L21" s="24" t="s">
         <v>29</v>
       </c>
       <c r="M21" s="17"/>
@@ -2207,7 +2212,7 @@
       <c r="K22" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="L22" s="23" t="s">
+      <c r="L22" s="24" t="s">
         <v>29</v>
       </c>
       <c r="M22" s="17"/>
@@ -2240,7 +2245,7 @@
       <c r="K23" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="L23" s="23" t="s">
+      <c r="L23" s="24" t="s">
         <v>29</v>
       </c>
       <c r="M23" s="17"/>
@@ -2273,7 +2278,7 @@
       <c r="K24" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="L24" s="23" t="s">
+      <c r="L24" s="24" t="s">
         <v>29</v>
       </c>
       <c r="M24" s="17"/>
@@ -2306,7 +2311,7 @@
       <c r="K25" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="L25" s="23" t="s">
+      <c r="L25" s="24" t="s">
         <v>29</v>
       </c>
       <c r="M25" s="17"/>
@@ -2339,7 +2344,7 @@
       <c r="K26" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="L26" s="23" t="s">
+      <c r="L26" s="24" t="s">
         <v>29</v>
       </c>
       <c r="M26" s="17"/>
@@ -2372,7 +2377,7 @@
       <c r="K27" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="L27" s="23" t="s">
+      <c r="L27" s="24" t="s">
         <v>29</v>
       </c>
       <c r="M27" s="17"/>
@@ -2405,7 +2410,7 @@
       <c r="K28" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="L28" s="23" t="s">
+      <c r="L28" s="24" t="s">
         <v>29</v>
       </c>
       <c r="M28" s="17"/>
@@ -2438,7 +2443,7 @@
       <c r="K29" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="L29" s="23" t="s">
+      <c r="L29" s="24" t="s">
         <v>29</v>
       </c>
       <c r="M29" s="17"/>
@@ -2471,7 +2476,7 @@
       <c r="K30" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="L30" s="23" t="s">
+      <c r="L30" s="24" t="s">
         <v>29</v>
       </c>
       <c r="M30" s="17"/>
@@ -2504,7 +2509,7 @@
       <c r="K31" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="L31" s="23" t="s">
+      <c r="L31" s="24" t="s">
         <v>29</v>
       </c>
       <c r="M31" s="17"/>
@@ -2537,7 +2542,7 @@
       <c r="K32" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="L32" s="23" t="s">
+      <c r="L32" s="24" t="s">
         <v>29</v>
       </c>
       <c r="M32" s="17"/>
@@ -2570,7 +2575,7 @@
       <c r="K33" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="L33" s="23" t="s">
+      <c r="L33" s="24" t="s">
         <v>29</v>
       </c>
       <c r="M33" s="17"/>
@@ -2603,7 +2608,7 @@
       <c r="K34" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="L34" s="23" t="s">
+      <c r="L34" s="24" t="s">
         <v>29</v>
       </c>
       <c r="M34" s="17"/>
@@ -2636,7 +2641,7 @@
       <c r="K35" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="L35" s="23" t="s">
+      <c r="L35" s="24" t="s">
         <v>29</v>
       </c>
       <c r="M35" s="17"/>
@@ -2669,7 +2674,7 @@
       <c r="K36" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="L36" s="23" t="s">
+      <c r="L36" s="24" t="s">
         <v>29</v>
       </c>
       <c r="M36" s="17"/>
@@ -2702,7 +2707,7 @@
       <c r="K37" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="L37" s="23" t="s">
+      <c r="L37" s="24" t="s">
         <v>29</v>
       </c>
       <c r="M37" s="17"/>
@@ -2735,7 +2740,7 @@
       <c r="K38" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="L38" s="23" t="s">
+      <c r="L38" s="24" t="s">
         <v>29</v>
       </c>
       <c r="M38" s="17"/>
@@ -2768,7 +2773,7 @@
       <c r="K39" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="L39" s="23" t="s">
+      <c r="L39" s="24" t="s">
         <v>29</v>
       </c>
       <c r="M39" s="17"/>
@@ -2801,7 +2806,7 @@
       <c r="K40" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="L40" s="23" t="s">
+      <c r="L40" s="24" t="s">
         <v>29</v>
       </c>
       <c r="M40" s="17"/>
@@ -2834,7 +2839,7 @@
       <c r="K41" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="L41" s="23" t="s">
+      <c r="L41" s="24" t="s">
         <v>29</v>
       </c>
       <c r="M41" s="17"/>
@@ -2867,7 +2872,7 @@
       <c r="K42" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="L42" s="23" t="s">
+      <c r="L42" s="24" t="s">
         <v>29</v>
       </c>
       <c r="M42" s="17"/>
@@ -2900,7 +2905,7 @@
       <c r="K43" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="L43" s="23" t="s">
+      <c r="L43" s="24" t="s">
         <v>29</v>
       </c>
       <c r="M43" s="17"/>
@@ -2933,7 +2938,7 @@
       <c r="K44" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="L44" s="23" t="s">
+      <c r="L44" s="24" t="s">
         <v>29</v>
       </c>
       <c r="M44" s="17"/>
@@ -2966,7 +2971,7 @@
       <c r="K45" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="L45" s="23" t="s">
+      <c r="L45" s="24" t="s">
         <v>29</v>
       </c>
       <c r="M45" s="17"/>
@@ -2999,7 +3004,7 @@
       <c r="K46" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="L46" s="23" t="s">
+      <c r="L46" s="24" t="s">
         <v>29</v>
       </c>
       <c r="M46" s="17"/>
@@ -3032,7 +3037,7 @@
       <c r="K47" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="L47" s="23" t="s">
+      <c r="L47" s="24" t="s">
         <v>29</v>
       </c>
       <c r="M47" s="17"/>
@@ -3065,7 +3070,7 @@
       <c r="K48" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="L48" s="23" t="s">
+      <c r="L48" s="24" t="s">
         <v>29</v>
       </c>
       <c r="M48" s="17"/>
@@ -3098,7 +3103,7 @@
       <c r="K49" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="L49" s="23" t="s">
+      <c r="L49" s="24" t="s">
         <v>29</v>
       </c>
       <c r="M49" s="17"/>
@@ -3131,7 +3136,7 @@
       <c r="K50" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="L50" s="23" t="s">
+      <c r="L50" s="24" t="s">
         <v>29</v>
       </c>
       <c r="M50" s="17"/>
@@ -3164,7 +3169,7 @@
       <c r="K51" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="L51" s="23" t="s">
+      <c r="L51" s="24" t="s">
         <v>29</v>
       </c>
       <c r="M51" s="17"/>
@@ -3197,7 +3202,7 @@
       <c r="K52" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="L52" s="23" t="s">
+      <c r="L52" s="24" t="s">
         <v>29</v>
       </c>
       <c r="M52" s="17"/>
@@ -3230,7 +3235,7 @@
       <c r="K53" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="L53" s="23" t="s">
+      <c r="L53" s="24" t="s">
         <v>29</v>
       </c>
       <c r="M53" s="17"/>
@@ -3263,7 +3268,7 @@
       <c r="K54" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="L54" s="23" t="s">
+      <c r="L54" s="24" t="s">
         <v>29</v>
       </c>
       <c r="M54" s="17"/>
@@ -3296,7 +3301,7 @@
       <c r="K55" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="L55" s="23" t="s">
+      <c r="L55" s="24" t="s">
         <v>29</v>
       </c>
       <c r="M55" s="17"/>
@@ -3329,7 +3334,7 @@
       <c r="K56" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="L56" s="23" t="s">
+      <c r="L56" s="24" t="s">
         <v>29</v>
       </c>
       <c r="M56" s="17"/>
@@ -3362,7 +3367,7 @@
       <c r="K57" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="L57" s="23" t="s">
+      <c r="L57" s="24" t="s">
         <v>29</v>
       </c>
       <c r="M57" s="17"/>
@@ -3395,7 +3400,7 @@
       <c r="K58" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="L58" s="23" t="s">
+      <c r="L58" s="24" t="s">
         <v>29</v>
       </c>
       <c r="M58" s="17"/>
@@ -3428,7 +3433,7 @@
       <c r="K59" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="L59" s="23" t="s">
+      <c r="L59" s="24" t="s">
         <v>29</v>
       </c>
       <c r="M59" s="17"/>
@@ -3461,7 +3466,7 @@
       <c r="K60" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="L60" s="23" t="s">
+      <c r="L60" s="24" t="s">
         <v>29</v>
       </c>
       <c r="M60" s="17"/>
@@ -3494,7 +3499,7 @@
       <c r="K61" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="L61" s="23" t="s">
+      <c r="L61" s="24" t="s">
         <v>29</v>
       </c>
       <c r="M61" s="17"/>
@@ -3527,7 +3532,7 @@
       <c r="K62" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="L62" s="23" t="s">
+      <c r="L62" s="24" t="s">
         <v>29</v>
       </c>
       <c r="M62" s="17"/>
@@ -3560,7 +3565,7 @@
       <c r="K63" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="L63" s="23" t="s">
+      <c r="L63" s="24" t="s">
         <v>29</v>
       </c>
       <c r="M63" s="17"/>
@@ -3593,7 +3598,7 @@
       <c r="K64" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="L64" s="23" t="s">
+      <c r="L64" s="24" t="s">
         <v>29</v>
       </c>
       <c r="M64" s="17"/>
@@ -3626,7 +3631,7 @@
       <c r="K65" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="L65" s="23" t="s">
+      <c r="L65" s="24" t="s">
         <v>29</v>
       </c>
       <c r="M65" s="17"/>
@@ -3659,7 +3664,7 @@
       <c r="K66" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="L66" s="23" t="s">
+      <c r="L66" s="24" t="s">
         <v>29</v>
       </c>
       <c r="M66" s="17"/>
@@ -3692,7 +3697,7 @@
       <c r="K67" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="L67" s="23" t="s">
+      <c r="L67" s="24" t="s">
         <v>29</v>
       </c>
       <c r="M67" s="17"/>
@@ -3725,7 +3730,7 @@
       <c r="K68" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="L68" s="23" t="s">
+      <c r="L68" s="24" t="s">
         <v>29</v>
       </c>
       <c r="M68" s="17"/>
@@ -3758,7 +3763,7 @@
       <c r="K69" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="L69" s="23" t="s">
+      <c r="L69" s="24" t="s">
         <v>29</v>
       </c>
       <c r="M69" s="17"/>
@@ -3791,7 +3796,7 @@
       <c r="K70" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="L70" s="23" t="s">
+      <c r="L70" s="24" t="s">
         <v>29</v>
       </c>
       <c r="M70" s="17"/>
@@ -3824,7 +3829,7 @@
       <c r="K71" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="L71" s="23" t="s">
+      <c r="L71" s="24" t="s">
         <v>29</v>
       </c>
       <c r="M71" s="17"/>
@@ -3857,7 +3862,7 @@
       <c r="K72" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="L72" s="23" t="s">
+      <c r="L72" s="24" t="s">
         <v>29</v>
       </c>
       <c r="M72" s="17"/>
@@ -3890,7 +3895,7 @@
       <c r="K73" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="L73" s="23" t="s">
+      <c r="L73" s="24" t="s">
         <v>29</v>
       </c>
       <c r="M73" s="17"/>
@@ -3923,7 +3928,7 @@
       <c r="K74" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="L74" s="23" t="s">
+      <c r="L74" s="24" t="s">
         <v>29</v>
       </c>
       <c r="M74" s="17"/>
@@ -3956,7 +3961,7 @@
       <c r="K75" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="L75" s="23" t="s">
+      <c r="L75" s="24" t="s">
         <v>29</v>
       </c>
       <c r="M75" s="17"/>
@@ -3989,7 +3994,7 @@
       <c r="K76" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="L76" s="23" t="s">
+      <c r="L76" s="24" t="s">
         <v>29</v>
       </c>
       <c r="M76" s="17"/>
@@ -4022,7 +4027,7 @@
       <c r="K77" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="L77" s="23" t="s">
+      <c r="L77" s="24" t="s">
         <v>29</v>
       </c>
       <c r="M77" s="17"/>
@@ -4055,7 +4060,7 @@
       <c r="K78" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="L78" s="23" t="s">
+      <c r="L78" s="24" t="s">
         <v>29</v>
       </c>
       <c r="M78" s="17"/>
@@ -4088,7 +4093,7 @@
       <c r="K79" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="L79" s="23" t="s">
+      <c r="L79" s="24" t="s">
         <v>29</v>
       </c>
       <c r="M79" s="17"/>
@@ -4121,7 +4126,7 @@
       <c r="K80" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="L80" s="23" t="s">
+      <c r="L80" s="24" t="s">
         <v>29</v>
       </c>
       <c r="M80" s="17"/>
@@ -4154,7 +4159,7 @@
       <c r="K81" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="L81" s="23" t="s">
+      <c r="L81" s="24" t="s">
         <v>29</v>
       </c>
       <c r="M81" s="17"/>
@@ -4187,7 +4192,7 @@
       <c r="K82" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="L82" s="23" t="s">
+      <c r="L82" s="24" t="s">
         <v>29</v>
       </c>
       <c r="M82" s="17"/>
@@ -4220,7 +4225,7 @@
       <c r="K83" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="L83" s="23" t="s">
+      <c r="L83" s="24" t="s">
         <v>29</v>
       </c>
       <c r="M83" s="17"/>
@@ -4253,7 +4258,7 @@
       <c r="K84" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="L84" s="23" t="s">
+      <c r="L84" s="24" t="s">
         <v>29</v>
       </c>
       <c r="M84" s="17"/>
@@ -4286,7 +4291,7 @@
       <c r="K85" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="L85" s="23" t="s">
+      <c r="L85" s="24" t="s">
         <v>29</v>
       </c>
       <c r="M85" s="17"/>
@@ -4319,7 +4324,7 @@
       <c r="K86" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="L86" s="23" t="s">
+      <c r="L86" s="24" t="s">
         <v>29</v>
       </c>
       <c r="M86" s="17"/>
@@ -4352,7 +4357,7 @@
       <c r="K87" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="L87" s="23" t="s">
+      <c r="L87" s="24" t="s">
         <v>29</v>
       </c>
       <c r="M87" s="17"/>
@@ -4385,7 +4390,7 @@
       <c r="K88" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="L88" s="23" t="s">
+      <c r="L88" s="24" t="s">
         <v>29</v>
       </c>
       <c r="M88" s="17"/>
@@ -4418,7 +4423,7 @@
       <c r="K89" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="L89" s="23" t="s">
+      <c r="L89" s="24" t="s">
         <v>29</v>
       </c>
       <c r="M89" s="17"/>
@@ -4451,7 +4456,7 @@
       <c r="K90" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="L90" s="23" t="s">
+      <c r="L90" s="24" t="s">
         <v>29</v>
       </c>
       <c r="M90" s="17"/>
@@ -4484,7 +4489,7 @@
       <c r="K91" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="L91" s="23" t="s">
+      <c r="L91" s="24" t="s">
         <v>29</v>
       </c>
       <c r="M91" s="17"/>
@@ -4517,7 +4522,7 @@
       <c r="K92" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="L92" s="23" t="s">
+      <c r="L92" s="24" t="s">
         <v>29</v>
       </c>
       <c r="M92" s="17"/>
@@ -4550,7 +4555,7 @@
       <c r="K93" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="L93" s="23" t="s">
+      <c r="L93" s="24" t="s">
         <v>29</v>
       </c>
       <c r="M93" s="17"/>
@@ -4583,7 +4588,7 @@
       <c r="K94" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="L94" s="23" t="s">
+      <c r="L94" s="24" t="s">
         <v>29</v>
       </c>
       <c r="M94" s="17"/>
@@ -4616,7 +4621,7 @@
       <c r="K95" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="L95" s="23" t="s">
+      <c r="L95" s="24" t="s">
         <v>29</v>
       </c>
       <c r="M95" s="17"/>
@@ -4649,7 +4654,7 @@
       <c r="K96" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="L96" s="23" t="s">
+      <c r="L96" s="24" t="s">
         <v>29</v>
       </c>
       <c r="M96" s="17"/>
@@ -4682,7 +4687,7 @@
       <c r="K97" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="L97" s="23" t="s">
+      <c r="L97" s="24" t="s">
         <v>29</v>
       </c>
       <c r="M97" s="17"/>
@@ -4715,7 +4720,7 @@
       <c r="K98" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="L98" s="23" t="s">
+      <c r="L98" s="24" t="s">
         <v>29</v>
       </c>
       <c r="M98" s="17"/>
@@ -4748,7 +4753,7 @@
       <c r="K99" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="L99" s="23" t="s">
+      <c r="L99" s="24" t="s">
         <v>29</v>
       </c>
       <c r="M99" s="17"/>
@@ -4781,7 +4786,7 @@
       <c r="K100" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="L100" s="23" t="s">
+      <c r="L100" s="24" t="s">
         <v>29</v>
       </c>
       <c r="M100" s="17"/>
@@ -4814,7 +4819,7 @@
       <c r="K101" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="L101" s="23" t="s">
+      <c r="L101" s="24" t="s">
         <v>29</v>
       </c>
       <c r="M101" s="17"/>
@@ -4847,7 +4852,7 @@
       <c r="K102" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="L102" s="23" t="s">
+      <c r="L102" s="24" t="s">
         <v>29</v>
       </c>
       <c r="M102" s="17"/>
@@ -4880,7 +4885,7 @@
       <c r="K103" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="L103" s="23" t="s">
+      <c r="L103" s="24" t="s">
         <v>29</v>
       </c>
       <c r="M103" s="17"/>
@@ -4913,10 +4918,10 @@
       <c r="K104" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="L104" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="M104" s="22"/>
+      <c r="L104" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="M104" s="23"/>
     </row>
     <row r="105" ht="20.1" customHeight="1" spans="3:13">
       <c r="C105" s="16">
@@ -4946,10 +4951,10 @@
       <c r="K105" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="L105" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="M105" s="22"/>
+      <c r="L105" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="M105" s="23"/>
     </row>
     <row r="106" ht="20.1" customHeight="1" spans="3:13">
       <c r="C106" s="16">
@@ -4979,10 +4984,10 @@
       <c r="K106" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="L106" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="M106" s="22"/>
+      <c r="L106" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="M106" s="23"/>
     </row>
     <row r="107" ht="20.1" customHeight="1" spans="3:13">
       <c r="C107" s="16">
@@ -5012,7 +5017,7 @@
       <c r="K107" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="L107" s="23" t="s">
+      <c r="L107" s="24" t="s">
         <v>29</v>
       </c>
       <c r="M107" s="17"/>
@@ -5045,7 +5050,7 @@
       <c r="K108" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="L108" s="23" t="s">
+      <c r="L108" s="24" t="s">
         <v>29</v>
       </c>
       <c r="M108" s="17"/>
@@ -5078,7 +5083,7 @@
       <c r="K109" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="L109" s="23" t="s">
+      <c r="L109" s="24" t="s">
         <v>29</v>
       </c>
       <c r="M109" s="17"/>
@@ -5111,10 +5116,10 @@
       <c r="K110" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="L110" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="M110" s="22"/>
+      <c r="L110" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="M110" s="23"/>
     </row>
     <row r="111" ht="20.1" customHeight="1" spans="3:13">
       <c r="C111" s="16">
@@ -5144,10 +5149,10 @@
       <c r="K111" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="L111" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="M111" s="22"/>
+      <c r="L111" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="M111" s="23"/>
     </row>
     <row r="112" ht="20.1" customHeight="1" spans="3:13">
       <c r="C112" s="16">
@@ -5177,10 +5182,10 @@
       <c r="K112" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="L112" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="M112" s="22"/>
+      <c r="L112" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="M112" s="23"/>
     </row>
     <row r="113" ht="20.1" customHeight="1" spans="3:13">
       <c r="C113" s="16">
@@ -5210,10 +5215,10 @@
       <c r="K113" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="L113" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="M113" s="22"/>
+      <c r="L113" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="M113" s="23"/>
     </row>
     <row r="114" ht="20.1" customHeight="1" spans="3:13">
       <c r="C114" s="16">
@@ -5243,10 +5248,10 @@
       <c r="K114" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="L114" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="M114" s="22"/>
+      <c r="L114" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="M114" s="23"/>
     </row>
     <row r="115" ht="20.1" customHeight="1" spans="3:13">
       <c r="C115" s="16">
@@ -5276,10 +5281,10 @@
       <c r="K115" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="L115" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="M115" s="22"/>
+      <c r="L115" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="M115" s="23"/>
     </row>
     <row r="116" ht="20.1" customHeight="1" spans="3:13">
       <c r="C116" s="16">
@@ -5309,7 +5314,7 @@
       <c r="K116" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="L116" s="23" t="s">
+      <c r="L116" s="24" t="s">
         <v>29</v>
       </c>
       <c r="M116" s="17"/>
@@ -5342,7 +5347,7 @@
       <c r="K117" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="L117" s="23" t="s">
+      <c r="L117" s="24" t="s">
         <v>29</v>
       </c>
       <c r="M117" s="17"/>
@@ -5375,7 +5380,7 @@
       <c r="K118" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="L118" s="23" t="s">
+      <c r="L118" s="24" t="s">
         <v>29</v>
       </c>
       <c r="M118" s="17"/>
@@ -5408,7 +5413,7 @@
       <c r="K119" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="L119" s="23" t="s">
+      <c r="L119" s="24" t="s">
         <v>29</v>
       </c>
       <c r="M119" s="17"/>
@@ -5441,7 +5446,7 @@
       <c r="K120" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="L120" s="23" t="s">
+      <c r="L120" s="24" t="s">
         <v>29</v>
       </c>
       <c r="M120" s="17"/>
@@ -5474,7 +5479,7 @@
       <c r="K121" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="L121" s="23" t="s">
+      <c r="L121" s="24" t="s">
         <v>29</v>
       </c>
       <c r="M121" s="17"/>
@@ -5507,7 +5512,7 @@
       <c r="K122" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="L122" s="23" t="s">
+      <c r="L122" s="24" t="s">
         <v>29</v>
       </c>
       <c r="M122" s="17"/>
@@ -5540,7 +5545,7 @@
       <c r="K123" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="L123" s="23" t="s">
+      <c r="L123" s="24" t="s">
         <v>29</v>
       </c>
       <c r="M123" s="17"/>
@@ -5573,7 +5578,7 @@
       <c r="K124" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="L124" s="23" t="s">
+      <c r="L124" s="24" t="s">
         <v>29</v>
       </c>
       <c r="M124" s="17"/>
@@ -5606,7 +5611,7 @@
       <c r="K125" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="L125" s="23" t="s">
+      <c r="L125" s="24" t="s">
         <v>29</v>
       </c>
       <c r="M125" s="17"/>
@@ -5639,7 +5644,7 @@
       <c r="K126" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="L126" s="23" t="s">
+      <c r="L126" s="24" t="s">
         <v>29</v>
       </c>
       <c r="M126" s="17"/>
@@ -5672,7 +5677,7 @@
       <c r="K127" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="L127" s="23" t="s">
+      <c r="L127" s="24" t="s">
         <v>29</v>
       </c>
       <c r="M127" s="17"/>
@@ -5705,7 +5710,7 @@
       <c r="K128" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="L128" s="23" t="s">
+      <c r="L128" s="24" t="s">
         <v>29</v>
       </c>
       <c r="M128" s="17"/>
@@ -5738,7 +5743,7 @@
       <c r="K129" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="L129" s="23" t="s">
+      <c r="L129" s="24" t="s">
         <v>29</v>
       </c>
       <c r="M129" s="17"/>
@@ -5771,7 +5776,7 @@
       <c r="K130" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="L130" s="23" t="s">
+      <c r="L130" s="24" t="s">
         <v>29</v>
       </c>
       <c r="M130" s="17"/>
@@ -5804,7 +5809,7 @@
       <c r="K131" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="L131" s="23" t="s">
+      <c r="L131" s="24" t="s">
         <v>29</v>
       </c>
       <c r="M131" s="17"/>
@@ -5837,7 +5842,7 @@
       <c r="K132" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="L132" s="23" t="s">
+      <c r="L132" s="24" t="s">
         <v>29</v>
       </c>
       <c r="M132" s="17"/>
@@ -5870,7 +5875,7 @@
       <c r="K133" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="L133" s="23" t="s">
+      <c r="L133" s="24" t="s">
         <v>29</v>
       </c>
       <c r="M133" s="17"/>
@@ -5903,7 +5908,7 @@
       <c r="K134" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="L134" s="23" t="s">
+      <c r="L134" s="24" t="s">
         <v>29</v>
       </c>
       <c r="M134" s="17"/>
@@ -5936,7 +5941,7 @@
       <c r="K135" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="L135" s="23" t="s">
+      <c r="L135" s="24" t="s">
         <v>29</v>
       </c>
       <c r="M135" s="17"/>
@@ -5969,7 +5974,7 @@
       <c r="K136" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="L136" s="23" t="s">
+      <c r="L136" s="24" t="s">
         <v>29</v>
       </c>
       <c r="M136" s="17"/>
@@ -6002,7 +6007,7 @@
       <c r="K137" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="L137" s="23" t="s">
+      <c r="L137" s="24" t="s">
         <v>29</v>
       </c>
       <c r="M137" s="17"/>
@@ -6035,7 +6040,7 @@
       <c r="K138" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="L138" s="23" t="s">
+      <c r="L138" s="24" t="s">
         <v>29</v>
       </c>
       <c r="M138" s="17"/>
@@ -6068,7 +6073,7 @@
       <c r="K139" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="L139" s="23" t="s">
+      <c r="L139" s="24" t="s">
         <v>29</v>
       </c>
       <c r="M139" s="17"/>
@@ -6101,7 +6106,7 @@
       <c r="K140" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="L140" s="23" t="s">
+      <c r="L140" s="24" t="s">
         <v>29</v>
       </c>
       <c r="M140" s="17"/>
@@ -6134,7 +6139,7 @@
       <c r="K141" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="L141" s="23" t="s">
+      <c r="L141" s="24" t="s">
         <v>29</v>
       </c>
       <c r="M141" s="17"/>
@@ -6167,7 +6172,7 @@
       <c r="K142" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="L142" s="23" t="s">
+      <c r="L142" s="24" t="s">
         <v>29</v>
       </c>
       <c r="M142" s="17"/>
@@ -6200,7 +6205,7 @@
       <c r="K143" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="L143" s="23" t="s">
+      <c r="L143" s="24" t="s">
         <v>29</v>
       </c>
       <c r="M143" s="17"/>
@@ -6233,7 +6238,7 @@
       <c r="K144" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="L144" s="23" t="s">
+      <c r="L144" s="24" t="s">
         <v>29</v>
       </c>
       <c r="M144" s="17"/>
@@ -6266,7 +6271,7 @@
       <c r="K145" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="L145" s="23" t="s">
+      <c r="L145" s="24" t="s">
         <v>29</v>
       </c>
       <c r="M145" s="17"/>
@@ -6299,7 +6304,7 @@
       <c r="K146" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="L146" s="23" t="s">
+      <c r="L146" s="24" t="s">
         <v>29</v>
       </c>
       <c r="M146" s="17"/>
@@ -6332,7 +6337,7 @@
       <c r="K147" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="L147" s="23" t="s">
+      <c r="L147" s="24" t="s">
         <v>29</v>
       </c>
       <c r="M147" s="17"/>
@@ -6365,7 +6370,7 @@
       <c r="K148" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="L148" s="23" t="s">
+      <c r="L148" s="24" t="s">
         <v>29</v>
       </c>
       <c r="M148" s="17"/>

--- a/Unity/Assets/Config/Excel/CellDungeonConfig.xlsx
+++ b/Unity/Assets/Config/Excel/CellDungeonConfig.xlsx
@@ -1,38 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28025"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\mengjing\Unity\Assets\Config\Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{930CD6D2-721D-4859-9F4D-2E4E0070C77E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CellDungeonPro" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>作者</author>
+    <author>FortuneCat0v0</author>
   </authors>
   <commentList>
-    <comment ref="E3" authorId="0">
+    <comment ref="E3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -49,7 +43,20 @@
         </r>
       </text>
     </comment>
-    <comment ref="M3" authorId="0">
+    <comment ref="L3" authorId="1" shapeId="0" xr:uid="{85E413B9-F153-4505-B084-8F319450B989}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>上、左、下、右</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -81,12 +88,12 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="Item_Template" type="4" background="1" refreshedVersion="2" saveData="1">
-    <webPr parsePre="1" consecutive="1" xl2000="1" sourceData="1" xml="1" url="D:\SVN_Work\S_数据表\XML映射模版\Item_Template.xml" htmlFormat="all" htmlTables="1"/>
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="Item_Template" type="4" refreshedVersion="2" background="1" saveData="1">
+    <webPr xml="1" sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="D:\SVN_Work\S_数据表\XML映射模版\Item_Template.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="2" name="Item_Template1" type="4" background="1" refreshedVersion="2" saveData="1">
-    <webPr parsePre="1" consecutive="1" xl2000="1" sourceData="1" xml="1" url="D:\SVN_Work\S_数据表\XML映射模版\Item_Template.xml" htmlFormat="all" htmlTables="1"/>
+  <connection id="2" xr16:uid="{00000000-0015-0000-FFFF-FFFF01000000}" name="Item_Template1" type="4" refreshedVersion="2" background="1" saveData="1">
+    <webPr xml="1" sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="D:\SVN_Work\S_数据表\XML映射模版\Item_Template.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
 </connections>
 </file>
@@ -181,9 +188,6 @@
     <t>0,0,400</t>
   </si>
   <si>
-    <t>0,0,-1000;-1000,0,0;1000,0,0;0,0,1000</t>
-  </si>
-  <si>
     <t>精英怪物房间</t>
   </si>
   <si>
@@ -207,18 +211,16 @@
   <si>
     <t>随机地块1</t>
   </si>
+  <si>
+    <t>0,0,1000;-1000,0,0;0,0,-1000;1000,0,0</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="28">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -259,157 +261,20 @@
       <sz val="10.5"/>
       <color rgb="FFD0D0D0"/>
       <name val="Courier New"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <family val="3"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Tahoma"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -422,8 +287,28 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="36">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -444,198 +329,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14996795556505"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="0" tint="-0.14993743705557422"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -667,7 +366,7 @@
         <color theme="0"/>
       </top>
       <bottom style="thin">
-        <color theme="4" tint="0.399975585192419"/>
+        <color theme="4" tint="0.39994506668294322"/>
       </bottom>
       <diagonal/>
     </border>
@@ -678,7 +377,7 @@
         <color theme="0"/>
       </top>
       <bottom style="thin">
-        <color theme="4" tint="0.399975585192419"/>
+        <color theme="4" tint="0.39994506668294322"/>
       </bottom>
       <diagonal/>
     </border>
@@ -726,267 +425,25 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="59">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1019,107 +476,59 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="57" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="4" borderId="7" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="4" borderId="7" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="7" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="7" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="57" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="57" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="57" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="9" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="57" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="57" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="9" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="57" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="9" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="57" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="9" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="59">
+  <cellStyles count="11">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="49"/>
-    <cellStyle name="常规 2 2" xfId="50"/>
-    <cellStyle name="常规 2 3" xfId="51"/>
-    <cellStyle name="常规 3" xfId="52"/>
-    <cellStyle name="常规 3 2" xfId="53"/>
-    <cellStyle name="常规 4" xfId="54"/>
-    <cellStyle name="常规 4 2" xfId="55"/>
-    <cellStyle name="常规 4 2 2" xfId="56"/>
-    <cellStyle name="常规 5" xfId="57"/>
-    <cellStyle name="常规 5 2" xfId="58"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="常规 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
+    <cellStyle name="常规 2 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
+    <cellStyle name="常规 3" xfId="4" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
+    <cellStyle name="常规 3 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
+    <cellStyle name="常规 4" xfId="6" xr:uid="{00000000-0005-0000-0000-000036000000}"/>
+    <cellStyle name="常规 4 2" xfId="7" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
+    <cellStyle name="常规 4 2 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
+    <cellStyle name="常规 5" xfId="9" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
+    <cellStyle name="常规 5 2" xfId="10" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
         <i val="0"/>
       </font>
       <fill>
@@ -1147,6 +556,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1463,19 +875,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:W149"/>
   <sheetViews>
-    <sheetView showFormulas="1" tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+    <sheetView showFormulas="1" tabSelected="1" topLeftCell="D19" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="3" max="3" width="3.5" customWidth="1"/>
     <col min="4" max="4" width="5.75" customWidth="1"/>
@@ -1492,9 +904,9 @@
     <col min="15" max="15" width="11.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20.1" customHeight="1"/>
-    <row r="2" ht="20.1" customHeight="1"/>
-    <row r="3" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:18">
+    <row r="1" spans="3:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="2" spans="3:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="3" spans="3:23" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C3" s="5" t="s">
         <v>0</v>
       </c>
@@ -1538,7 +950,7 @@
       <c r="Q3" s="4"/>
       <c r="R3" s="4"/>
     </row>
-    <row r="4" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:18">
+    <row r="4" spans="3:23" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" s="5" t="s">
         <v>0</v>
       </c>
@@ -1582,7 +994,7 @@
       <c r="Q4" s="4"/>
       <c r="R4" s="4"/>
     </row>
-    <row r="5" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:23">
+    <row r="5" spans="3:23" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C5" s="11" t="s">
         <v>21</v>
       </c>
@@ -1630,7 +1042,7 @@
       <c r="V5" s="21"/>
       <c r="W5" s="21"/>
     </row>
-    <row r="6" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:13">
+    <row r="6" spans="3:23" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C6" s="12">
         <v>101</v>
       </c>
@@ -1659,16 +1071,16 @@
         <v>28</v>
       </c>
       <c r="L6" s="24" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="M6" s="17"/>
     </row>
-    <row r="7" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:13">
+    <row r="7" spans="3:23" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C7" s="12">
         <v>201</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E7" s="12">
         <v>4</v>
@@ -1692,16 +1104,16 @@
         <v>28</v>
       </c>
       <c r="L7" s="24" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="M7" s="17"/>
     </row>
-    <row r="8" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:13">
+    <row r="8" spans="3:23" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C8" s="12">
         <v>202</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E8" s="12">
         <v>4</v>
@@ -1725,16 +1137,16 @@
         <v>28</v>
       </c>
       <c r="L8" s="24" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="M8" s="17"/>
     </row>
-    <row r="9" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:13">
+    <row r="9" spans="3:23" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C9" s="12">
         <v>203</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E9" s="12">
         <v>4</v>
@@ -1758,16 +1170,16 @@
         <v>28</v>
       </c>
       <c r="L9" s="24" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="M9" s="17"/>
     </row>
-    <row r="10" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:13">
+    <row r="10" spans="3:23" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C10" s="12">
         <v>204</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E10" s="12">
         <v>4</v>
@@ -1791,16 +1203,16 @@
         <v>28</v>
       </c>
       <c r="L10" s="24" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="M10" s="17"/>
     </row>
-    <row r="11" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:13">
+    <row r="11" spans="3:23" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C11" s="15">
         <v>1001</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E11" s="16">
         <v>1</v>
@@ -1824,16 +1236,16 @@
         <v>28</v>
       </c>
       <c r="L11" s="24" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="M11" s="17"/>
     </row>
-    <row r="12" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:13">
+    <row r="12" spans="3:23" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C12" s="15">
         <v>1002</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E12" s="12">
         <v>4</v>
@@ -1857,16 +1269,16 @@
         <v>28</v>
       </c>
       <c r="L12" s="24" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="M12" s="17"/>
     </row>
-    <row r="13" ht="20.1" customHeight="1" spans="3:19">
+    <row r="13" spans="3:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C13" s="15">
         <v>1003</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E13" s="12">
         <v>4</v>
@@ -1890,7 +1302,7 @@
         <v>28</v>
       </c>
       <c r="L13" s="24" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="M13" s="17"/>
       <c r="N13" s="4"/>
@@ -1900,12 +1312,12 @@
       <c r="R13" s="2"/>
       <c r="S13" s="22"/>
     </row>
-    <row r="14" ht="20.1" customHeight="1" spans="3:19">
+    <row r="14" spans="3:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C14" s="15">
         <v>1004</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E14" s="12">
         <v>4</v>
@@ -1929,7 +1341,7 @@
         <v>28</v>
       </c>
       <c r="L14" s="24" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="M14" s="17"/>
       <c r="N14" s="4"/>
@@ -1939,12 +1351,12 @@
       <c r="R14" s="2"/>
       <c r="S14" s="22"/>
     </row>
-    <row r="15" ht="20.1" customHeight="1" spans="3:19">
+    <row r="15" spans="3:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C15" s="15">
         <v>1005</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E15" s="12">
         <v>2</v>
@@ -1968,7 +1380,7 @@
         <v>28</v>
       </c>
       <c r="L15" s="24" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="M15" s="17"/>
       <c r="N15" s="4"/>
@@ -1978,12 +1390,12 @@
       <c r="R15" s="2"/>
       <c r="S15" s="22"/>
     </row>
-    <row r="16" ht="20.1" customHeight="1" spans="3:19">
+    <row r="16" spans="3:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C16" s="15">
         <v>1006</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E16" s="12">
         <v>3</v>
@@ -2007,7 +1419,7 @@
         <v>28</v>
       </c>
       <c r="L16" s="24" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="M16" s="17"/>
       <c r="N16" s="4"/>
@@ -2017,12 +1429,12 @@
       <c r="R16" s="2"/>
       <c r="S16" s="22"/>
     </row>
-    <row r="17" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:13">
+    <row r="17" spans="3:13" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C17" s="15">
         <v>100101</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E17" s="16">
         <v>1</v>
@@ -2046,18 +1458,18 @@
         <v>28</v>
       </c>
       <c r="L17" s="24" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="M17" s="20">
         <v>100101</v>
       </c>
     </row>
-    <row r="18" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:13">
+    <row r="18" spans="3:13" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C18" s="15">
         <v>100102</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E18" s="16">
         <v>4</v>
@@ -2081,16 +1493,16 @@
         <v>28</v>
       </c>
       <c r="L18" s="24" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="M18" s="17"/>
     </row>
-    <row r="19" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:13">
+    <row r="19" spans="3:13" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C19" s="12">
         <v>100103</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E19" s="16">
         <v>4</v>
@@ -2114,16 +1526,16 @@
         <v>28</v>
       </c>
       <c r="L19" s="24" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="M19" s="17"/>
     </row>
-    <row r="20" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:13">
+    <row r="20" spans="3:13" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C20" s="12">
         <v>100105</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E20" s="16">
         <v>2</v>
@@ -2147,16 +1559,16 @@
         <v>28</v>
       </c>
       <c r="L20" s="24" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="M20" s="17"/>
     </row>
-    <row r="21" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:13">
+    <row r="21" spans="3:13" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C21" s="12">
         <v>100201</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E21" s="16">
         <v>1</v>
@@ -2180,16 +1592,16 @@
         <v>28</v>
       </c>
       <c r="L21" s="24" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="M21" s="17"/>
     </row>
-    <row r="22" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:13">
+    <row r="22" spans="3:13" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C22" s="12">
         <v>100202</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E22" s="16">
         <v>4</v>
@@ -2213,16 +1625,16 @@
         <v>28</v>
       </c>
       <c r="L22" s="24" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="M22" s="17"/>
     </row>
-    <row r="23" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:13">
+    <row r="23" spans="3:13" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C23" s="12">
         <v>100203</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E23" s="16">
         <v>4</v>
@@ -2246,16 +1658,16 @@
         <v>28</v>
       </c>
       <c r="L23" s="24" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="M23" s="17"/>
     </row>
-    <row r="24" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:13">
+    <row r="24" spans="3:13" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C24" s="12">
         <v>100204</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E24" s="16">
         <v>4</v>
@@ -2279,16 +1691,16 @@
         <v>28</v>
       </c>
       <c r="L24" s="24" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="M24" s="17"/>
     </row>
-    <row r="25" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:13">
+    <row r="25" spans="3:13" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C25" s="12">
         <v>100205</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E25" s="16">
         <v>4</v>
@@ -2312,16 +1724,16 @@
         <v>28</v>
       </c>
       <c r="L25" s="24" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="M25" s="17"/>
     </row>
-    <row r="26" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:13">
+    <row r="26" spans="3:13" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C26" s="12">
         <v>100206</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E26" s="16">
         <v>2</v>
@@ -2345,16 +1757,16 @@
         <v>28</v>
       </c>
       <c r="L26" s="24" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="M26" s="17"/>
     </row>
-    <row r="27" ht="20.1" customHeight="1" spans="3:13">
+    <row r="27" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C27" s="16">
         <v>100301</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E27" s="17">
         <v>1</v>
@@ -2378,16 +1790,16 @@
         <v>28</v>
       </c>
       <c r="L27" s="24" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="M27" s="17"/>
     </row>
-    <row r="28" ht="20.1" customHeight="1" spans="3:13">
+    <row r="28" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C28" s="16">
         <v>100302</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E28" s="17">
         <v>4</v>
@@ -2411,16 +1823,16 @@
         <v>28</v>
       </c>
       <c r="L28" s="24" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="M28" s="17"/>
     </row>
-    <row r="29" ht="20.1" customHeight="1" spans="3:13">
+    <row r="29" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C29" s="16">
         <v>100303</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E29" s="17">
         <v>4</v>
@@ -2444,16 +1856,16 @@
         <v>28</v>
       </c>
       <c r="L29" s="24" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="M29" s="17"/>
     </row>
-    <row r="30" ht="20.1" customHeight="1" spans="3:13">
+    <row r="30" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C30" s="16">
         <v>100304</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E30" s="17">
         <v>4</v>
@@ -2477,16 +1889,16 @@
         <v>28</v>
       </c>
       <c r="L30" s="24" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="M30" s="17"/>
     </row>
-    <row r="31" ht="20.1" customHeight="1" spans="3:13">
+    <row r="31" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C31" s="16">
         <v>100305</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E31" s="17">
         <v>2</v>
@@ -2510,16 +1922,16 @@
         <v>28</v>
       </c>
       <c r="L31" s="24" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="M31" s="17"/>
     </row>
-    <row r="32" ht="20.1" customHeight="1" spans="3:13">
+    <row r="32" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C32" s="16">
         <v>100306</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E32" s="17">
         <v>4</v>
@@ -2543,16 +1955,16 @@
         <v>28</v>
       </c>
       <c r="L32" s="24" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="M32" s="17"/>
     </row>
-    <row r="33" ht="20.1" customHeight="1" spans="3:13">
+    <row r="33" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C33" s="16">
         <v>100401</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E33" s="17">
         <v>1</v>
@@ -2576,16 +1988,16 @@
         <v>28</v>
       </c>
       <c r="L33" s="24" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="M33" s="17"/>
     </row>
-    <row r="34" ht="20.1" customHeight="1" spans="3:13">
+    <row r="34" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C34" s="18">
         <v>100402</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E34" s="17">
         <v>4</v>
@@ -2609,16 +2021,16 @@
         <v>28</v>
       </c>
       <c r="L34" s="24" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="M34" s="17"/>
     </row>
-    <row r="35" ht="20.1" customHeight="1" spans="3:13">
+    <row r="35" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C35" s="18">
         <v>100403</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E35" s="17">
         <v>4</v>
@@ -2642,16 +2054,16 @@
         <v>28</v>
       </c>
       <c r="L35" s="24" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="M35" s="17"/>
     </row>
-    <row r="36" ht="20.1" customHeight="1" spans="3:13">
+    <row r="36" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C36" s="18">
         <v>100404</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E36" s="17">
         <v>4</v>
@@ -2675,16 +2087,16 @@
         <v>28</v>
       </c>
       <c r="L36" s="24" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="M36" s="17"/>
     </row>
-    <row r="37" ht="20.1" customHeight="1" spans="3:13">
+    <row r="37" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C37" s="18">
         <v>100405</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E37" s="17">
         <v>2</v>
@@ -2708,16 +2120,16 @@
         <v>28</v>
       </c>
       <c r="L37" s="24" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="M37" s="17"/>
     </row>
-    <row r="38" ht="20.1" customHeight="1" spans="3:13">
+    <row r="38" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C38" s="18">
         <v>100406</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E38" s="17">
         <v>1</v>
@@ -2741,16 +2153,16 @@
         <v>28</v>
       </c>
       <c r="L38" s="24" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="M38" s="17"/>
     </row>
-    <row r="39" ht="20.1" customHeight="1" spans="3:13">
+    <row r="39" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C39" s="18">
         <v>100407</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E39" s="17">
         <v>1</v>
@@ -2774,16 +2186,16 @@
         <v>28</v>
       </c>
       <c r="L39" s="24" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="M39" s="17"/>
     </row>
-    <row r="40" ht="20.1" customHeight="1" spans="3:13">
+    <row r="40" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C40" s="16">
         <v>100501</v>
       </c>
       <c r="D40" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E40" s="17">
         <v>1</v>
@@ -2807,16 +2219,16 @@
         <v>28</v>
       </c>
       <c r="L40" s="24" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="M40" s="17"/>
     </row>
-    <row r="41" ht="20.1" customHeight="1" spans="3:13">
+    <row r="41" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C41" s="16">
         <v>100502</v>
       </c>
       <c r="D41" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E41" s="17">
         <v>4</v>
@@ -2840,16 +2252,16 @@
         <v>28</v>
       </c>
       <c r="L41" s="24" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="M41" s="17"/>
     </row>
-    <row r="42" ht="20.1" customHeight="1" spans="3:13">
+    <row r="42" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C42" s="16">
         <v>100503</v>
       </c>
       <c r="D42" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E42" s="17">
         <v>4</v>
@@ -2873,16 +2285,16 @@
         <v>28</v>
       </c>
       <c r="L42" s="24" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="M42" s="17"/>
     </row>
-    <row r="43" ht="20.1" customHeight="1" spans="3:13">
+    <row r="43" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C43" s="16">
         <v>100504</v>
       </c>
       <c r="D43" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E43" s="17">
         <v>4</v>
@@ -2906,16 +2318,16 @@
         <v>28</v>
       </c>
       <c r="L43" s="24" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="M43" s="17"/>
     </row>
-    <row r="44" ht="20.1" customHeight="1" spans="3:13">
+    <row r="44" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C44" s="16">
         <v>100505</v>
       </c>
       <c r="D44" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E44" s="17">
         <v>2</v>
@@ -2939,16 +2351,16 @@
         <v>28</v>
       </c>
       <c r="L44" s="24" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="M44" s="17"/>
     </row>
-    <row r="45" ht="20.1" customHeight="1" spans="3:13">
+    <row r="45" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C45" s="16">
         <v>100506</v>
       </c>
       <c r="D45" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E45" s="17">
         <v>4</v>
@@ -2972,16 +2384,16 @@
         <v>28</v>
       </c>
       <c r="L45" s="24" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="M45" s="17"/>
     </row>
-    <row r="46" ht="20.1" customHeight="1" spans="3:13">
+    <row r="46" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C46" s="16">
         <v>100601</v>
       </c>
       <c r="D46" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E46" s="17">
         <v>1</v>
@@ -3005,16 +2417,16 @@
         <v>28</v>
       </c>
       <c r="L46" s="24" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="M46" s="17"/>
     </row>
-    <row r="47" ht="20.1" customHeight="1" spans="3:13">
+    <row r="47" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C47" s="16">
         <v>100602</v>
       </c>
       <c r="D47" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E47" s="17">
         <v>4</v>
@@ -3038,16 +2450,16 @@
         <v>28</v>
       </c>
       <c r="L47" s="24" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="M47" s="17"/>
     </row>
-    <row r="48" ht="20.1" customHeight="1" spans="3:13">
+    <row r="48" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C48" s="16">
         <v>100603</v>
       </c>
       <c r="D48" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E48" s="17">
         <v>4</v>
@@ -3071,16 +2483,16 @@
         <v>28</v>
       </c>
       <c r="L48" s="24" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="M48" s="17"/>
     </row>
-    <row r="49" ht="20.1" customHeight="1" spans="3:13">
+    <row r="49" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C49" s="16">
         <v>100604</v>
       </c>
       <c r="D49" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E49" s="17">
         <v>4</v>
@@ -3104,16 +2516,16 @@
         <v>28</v>
       </c>
       <c r="L49" s="24" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="M49" s="17"/>
     </row>
-    <row r="50" ht="20.1" customHeight="1" spans="3:13">
+    <row r="50" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C50" s="16">
         <v>100605</v>
       </c>
       <c r="D50" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E50" s="17">
         <v>2</v>
@@ -3137,16 +2549,16 @@
         <v>28</v>
       </c>
       <c r="L50" s="24" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="M50" s="17"/>
     </row>
-    <row r="51" ht="20.1" customHeight="1" spans="3:13">
+    <row r="51" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C51" s="16">
         <v>100606</v>
       </c>
       <c r="D51" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E51" s="17">
         <v>4</v>
@@ -3170,16 +2582,16 @@
         <v>28</v>
       </c>
       <c r="L51" s="24" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="M51" s="17"/>
     </row>
-    <row r="52" ht="20.1" customHeight="1" spans="3:13">
+    <row r="52" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C52" s="16">
         <v>100607</v>
       </c>
       <c r="D52" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E52" s="17">
         <v>4</v>
@@ -3203,16 +2615,16 @@
         <v>28</v>
       </c>
       <c r="L52" s="24" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="M52" s="17"/>
     </row>
-    <row r="53" ht="19.5" customHeight="1" spans="3:13">
+    <row r="53" spans="3:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C53" s="16">
         <v>100701</v>
       </c>
       <c r="D53" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E53" s="17">
         <v>1</v>
@@ -3236,16 +2648,16 @@
         <v>28</v>
       </c>
       <c r="L53" s="24" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="M53" s="17"/>
     </row>
-    <row r="54" ht="20.1" customHeight="1" spans="3:13">
+    <row r="54" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C54" s="16">
         <v>100702</v>
       </c>
       <c r="D54" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E54" s="17">
         <v>4</v>
@@ -3269,16 +2681,16 @@
         <v>28</v>
       </c>
       <c r="L54" s="24" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="M54" s="17"/>
     </row>
-    <row r="55" ht="20.1" customHeight="1" spans="3:13">
+    <row r="55" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C55" s="16">
         <v>100703</v>
       </c>
       <c r="D55" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E55" s="17">
         <v>4</v>
@@ -3302,16 +2714,16 @@
         <v>28</v>
       </c>
       <c r="L55" s="24" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="M55" s="17"/>
     </row>
-    <row r="56" ht="20.1" customHeight="1" spans="3:13">
+    <row r="56" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C56" s="16">
         <v>100704</v>
       </c>
       <c r="D56" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E56" s="17">
         <v>4</v>
@@ -3335,16 +2747,16 @@
         <v>28</v>
       </c>
       <c r="L56" s="24" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="M56" s="17"/>
     </row>
-    <row r="57" ht="20.1" customHeight="1" spans="3:13">
+    <row r="57" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C57" s="16">
         <v>100705</v>
       </c>
       <c r="D57" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E57" s="17">
         <v>2</v>
@@ -3368,16 +2780,16 @@
         <v>28</v>
       </c>
       <c r="L57" s="24" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="M57" s="17"/>
     </row>
-    <row r="58" ht="20.1" customHeight="1" spans="3:13">
+    <row r="58" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C58" s="16">
         <v>100706</v>
       </c>
       <c r="D58" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E58" s="17">
         <v>4</v>
@@ -3401,16 +2813,16 @@
         <v>28</v>
       </c>
       <c r="L58" s="24" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="M58" s="17"/>
     </row>
-    <row r="59" ht="20.1" customHeight="1" spans="3:13">
+    <row r="59" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C59" s="16">
         <v>200001</v>
       </c>
       <c r="D59" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E59" s="17">
         <v>1</v>
@@ -3434,16 +2846,16 @@
         <v>28</v>
       </c>
       <c r="L59" s="24" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="M59" s="17"/>
     </row>
-    <row r="60" ht="20.1" customHeight="1" spans="3:13">
+    <row r="60" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C60" s="16">
         <v>200002</v>
       </c>
       <c r="D60" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E60" s="17">
         <v>4</v>
@@ -3467,16 +2879,16 @@
         <v>28</v>
       </c>
       <c r="L60" s="24" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="M60" s="17"/>
     </row>
-    <row r="61" ht="20.1" customHeight="1" spans="3:13">
+    <row r="61" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C61" s="16">
         <v>200003</v>
       </c>
       <c r="D61" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E61" s="17">
         <v>4</v>
@@ -3500,16 +2912,16 @@
         <v>28</v>
       </c>
       <c r="L61" s="24" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="M61" s="17"/>
     </row>
-    <row r="62" ht="20.1" customHeight="1" spans="3:13">
+    <row r="62" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C62" s="16">
         <v>200004</v>
       </c>
       <c r="D62" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E62" s="17">
         <v>4</v>
@@ -3533,16 +2945,16 @@
         <v>28</v>
       </c>
       <c r="L62" s="24" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="M62" s="17"/>
     </row>
-    <row r="63" ht="20.1" customHeight="1" spans="3:13">
+    <row r="63" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C63" s="16">
         <v>200005</v>
       </c>
       <c r="D63" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E63" s="17">
         <v>2</v>
@@ -3566,16 +2978,16 @@
         <v>28</v>
       </c>
       <c r="L63" s="24" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="M63" s="17"/>
     </row>
-    <row r="64" ht="20.1" customHeight="1" spans="3:13">
+    <row r="64" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C64" s="16">
         <v>200006</v>
       </c>
       <c r="D64" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E64" s="17">
         <v>4</v>
@@ -3599,16 +3011,16 @@
         <v>28</v>
       </c>
       <c r="L64" s="24" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="M64" s="17"/>
     </row>
-    <row r="65" ht="20.1" customHeight="1" spans="3:13">
+    <row r="65" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C65" s="16">
         <v>200101</v>
       </c>
       <c r="D65" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E65" s="17">
         <v>1</v>
@@ -3632,16 +3044,16 @@
         <v>28</v>
       </c>
       <c r="L65" s="24" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="M65" s="17"/>
     </row>
-    <row r="66" ht="20.1" customHeight="1" spans="3:13">
+    <row r="66" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C66" s="16">
         <v>200102</v>
       </c>
       <c r="D66" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E66" s="17">
         <v>4</v>
@@ -3665,16 +3077,16 @@
         <v>28</v>
       </c>
       <c r="L66" s="24" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="M66" s="17"/>
     </row>
-    <row r="67" ht="20.1" customHeight="1" spans="3:13">
+    <row r="67" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C67" s="16">
         <v>200103</v>
       </c>
       <c r="D67" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E67" s="17">
         <v>4</v>
@@ -3698,16 +3110,16 @@
         <v>28</v>
       </c>
       <c r="L67" s="24" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="M67" s="17"/>
     </row>
-    <row r="68" ht="20.1" customHeight="1" spans="3:13">
+    <row r="68" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C68" s="16">
         <v>200104</v>
       </c>
       <c r="D68" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E68" s="17">
         <v>4</v>
@@ -3731,16 +3143,16 @@
         <v>28</v>
       </c>
       <c r="L68" s="24" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="M68" s="17"/>
     </row>
-    <row r="69" ht="20.1" customHeight="1" spans="3:13">
+    <row r="69" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C69" s="16">
         <v>200105</v>
       </c>
       <c r="D69" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E69" s="17">
         <v>2</v>
@@ -3764,16 +3176,16 @@
         <v>28</v>
       </c>
       <c r="L69" s="24" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="M69" s="17"/>
     </row>
-    <row r="70" ht="20.1" customHeight="1" spans="3:13">
+    <row r="70" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C70" s="16">
         <v>200106</v>
       </c>
       <c r="D70" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E70" s="17">
         <v>4</v>
@@ -3797,16 +3209,16 @@
         <v>28</v>
       </c>
       <c r="L70" s="24" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="M70" s="17"/>
     </row>
-    <row r="71" ht="20.1" customHeight="1" spans="3:13">
+    <row r="71" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C71" s="16">
         <v>200201</v>
       </c>
       <c r="D71" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E71" s="17">
         <v>1</v>
@@ -3830,16 +3242,16 @@
         <v>28</v>
       </c>
       <c r="L71" s="24" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="M71" s="17"/>
     </row>
-    <row r="72" ht="20.1" customHeight="1" spans="3:13">
+    <row r="72" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C72" s="16">
         <v>200202</v>
       </c>
       <c r="D72" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E72" s="17">
         <v>4</v>
@@ -3863,16 +3275,16 @@
         <v>28</v>
       </c>
       <c r="L72" s="24" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="M72" s="17"/>
     </row>
-    <row r="73" ht="20.1" customHeight="1" spans="3:13">
+    <row r="73" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C73" s="16">
         <v>200203</v>
       </c>
       <c r="D73" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E73" s="17">
         <v>4</v>
@@ -3896,16 +3308,16 @@
         <v>28</v>
       </c>
       <c r="L73" s="24" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="M73" s="17"/>
     </row>
-    <row r="74" ht="20.1" customHeight="1" spans="3:13">
+    <row r="74" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C74" s="16">
         <v>200204</v>
       </c>
       <c r="D74" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E74" s="17">
         <v>4</v>
@@ -3929,16 +3341,16 @@
         <v>28</v>
       </c>
       <c r="L74" s="24" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="M74" s="17"/>
     </row>
-    <row r="75" ht="20.1" customHeight="1" spans="3:13">
+    <row r="75" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C75" s="16">
         <v>200205</v>
       </c>
       <c r="D75" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E75" s="17">
         <v>2</v>
@@ -3962,16 +3374,16 @@
         <v>28</v>
       </c>
       <c r="L75" s="24" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="M75" s="17"/>
     </row>
-    <row r="76" ht="20.1" customHeight="1" spans="3:13">
+    <row r="76" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C76" s="16">
         <v>200206</v>
       </c>
       <c r="D76" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E76" s="17">
         <v>4</v>
@@ -3995,16 +3407,16 @@
         <v>28</v>
       </c>
       <c r="L76" s="24" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="M76" s="17"/>
     </row>
-    <row r="77" ht="20.1" customHeight="1" spans="3:13">
+    <row r="77" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C77" s="16">
         <v>200301</v>
       </c>
       <c r="D77" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E77" s="17">
         <v>1</v>
@@ -4028,16 +3440,16 @@
         <v>28</v>
       </c>
       <c r="L77" s="24" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="M77" s="17"/>
     </row>
-    <row r="78" ht="20.1" customHeight="1" spans="3:13">
+    <row r="78" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C78" s="16">
         <v>200302</v>
       </c>
       <c r="D78" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E78" s="17">
         <v>4</v>
@@ -4061,16 +3473,16 @@
         <v>28</v>
       </c>
       <c r="L78" s="24" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="M78" s="17"/>
     </row>
-    <row r="79" ht="20.1" customHeight="1" spans="3:13">
+    <row r="79" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C79" s="16">
         <v>200303</v>
       </c>
       <c r="D79" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E79" s="17">
         <v>4</v>
@@ -4094,16 +3506,16 @@
         <v>28</v>
       </c>
       <c r="L79" s="24" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="M79" s="17"/>
     </row>
-    <row r="80" ht="20.1" customHeight="1" spans="3:13">
+    <row r="80" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C80" s="16">
         <v>200304</v>
       </c>
       <c r="D80" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E80" s="17">
         <v>4</v>
@@ -4127,16 +3539,16 @@
         <v>28</v>
       </c>
       <c r="L80" s="24" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="M80" s="17"/>
     </row>
-    <row r="81" ht="20.1" customHeight="1" spans="3:13">
+    <row r="81" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C81" s="16">
         <v>200305</v>
       </c>
       <c r="D81" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E81" s="17">
         <v>2</v>
@@ -4160,16 +3572,16 @@
         <v>28</v>
       </c>
       <c r="L81" s="24" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="M81" s="17"/>
     </row>
-    <row r="82" ht="20.1" customHeight="1" spans="3:13">
+    <row r="82" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C82" s="16">
         <v>200306</v>
       </c>
       <c r="D82" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E82" s="17">
         <v>4</v>
@@ -4193,16 +3605,16 @@
         <v>28</v>
       </c>
       <c r="L82" s="24" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="M82" s="17"/>
     </row>
-    <row r="83" ht="20.1" customHeight="1" spans="3:13">
+    <row r="83" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C83" s="16">
         <v>200401</v>
       </c>
       <c r="D83" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E83" s="17">
         <v>1</v>
@@ -4226,16 +3638,16 @@
         <v>28</v>
       </c>
       <c r="L83" s="24" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="M83" s="17"/>
     </row>
-    <row r="84" ht="20.1" customHeight="1" spans="3:13">
+    <row r="84" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C84" s="16">
         <v>200402</v>
       </c>
       <c r="D84" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E84" s="17">
         <v>4</v>
@@ -4259,16 +3671,16 @@
         <v>28</v>
       </c>
       <c r="L84" s="24" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="M84" s="17"/>
     </row>
-    <row r="85" ht="20.1" customHeight="1" spans="3:13">
+    <row r="85" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C85" s="16">
         <v>200403</v>
       </c>
       <c r="D85" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E85" s="17">
         <v>4</v>
@@ -4292,16 +3704,16 @@
         <v>28</v>
       </c>
       <c r="L85" s="24" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="M85" s="17"/>
     </row>
-    <row r="86" ht="20.1" customHeight="1" spans="3:13">
+    <row r="86" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C86" s="16">
         <v>200404</v>
       </c>
       <c r="D86" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E86" s="17">
         <v>4</v>
@@ -4325,16 +3737,16 @@
         <v>28</v>
       </c>
       <c r="L86" s="24" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="M86" s="17"/>
     </row>
-    <row r="87" ht="20.1" customHeight="1" spans="3:13">
+    <row r="87" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C87" s="16">
         <v>200405</v>
       </c>
       <c r="D87" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E87" s="17">
         <v>2</v>
@@ -4358,16 +3770,16 @@
         <v>28</v>
       </c>
       <c r="L87" s="24" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="M87" s="17"/>
     </row>
-    <row r="88" ht="20.1" customHeight="1" spans="3:13">
+    <row r="88" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C88" s="16">
         <v>200406</v>
       </c>
       <c r="D88" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E88" s="17">
         <v>4</v>
@@ -4391,16 +3803,16 @@
         <v>28</v>
       </c>
       <c r="L88" s="24" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="M88" s="17"/>
     </row>
-    <row r="89" ht="20.1" customHeight="1" spans="3:13">
+    <row r="89" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C89" s="16">
         <v>300001</v>
       </c>
       <c r="D89" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E89" s="17">
         <v>1</v>
@@ -4424,16 +3836,16 @@
         <v>28</v>
       </c>
       <c r="L89" s="24" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="M89" s="17"/>
     </row>
-    <row r="90" ht="20.1" customHeight="1" spans="3:13">
+    <row r="90" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C90" s="16">
         <v>300002</v>
       </c>
       <c r="D90" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E90" s="17">
         <v>4</v>
@@ -4457,16 +3869,16 @@
         <v>28</v>
       </c>
       <c r="L90" s="24" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="M90" s="17"/>
     </row>
-    <row r="91" ht="20.1" customHeight="1" spans="3:13">
+    <row r="91" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C91" s="16">
         <v>300003</v>
       </c>
       <c r="D91" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E91" s="17">
         <v>4</v>
@@ -4490,16 +3902,16 @@
         <v>28</v>
       </c>
       <c r="L91" s="24" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="M91" s="17"/>
     </row>
-    <row r="92" ht="20.1" customHeight="1" spans="3:13">
+    <row r="92" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C92" s="16">
         <v>300004</v>
       </c>
       <c r="D92" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E92" s="17">
         <v>4</v>
@@ -4523,16 +3935,16 @@
         <v>28</v>
       </c>
       <c r="L92" s="24" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="M92" s="17"/>
     </row>
-    <row r="93" ht="20.1" customHeight="1" spans="3:13">
+    <row r="93" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C93" s="16">
         <v>300005</v>
       </c>
       <c r="D93" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E93" s="17">
         <v>2</v>
@@ -4556,16 +3968,16 @@
         <v>28</v>
       </c>
       <c r="L93" s="24" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="M93" s="17"/>
     </row>
-    <row r="94" ht="20.1" customHeight="1" spans="3:13">
+    <row r="94" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C94" s="16">
         <v>300006</v>
       </c>
       <c r="D94" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E94" s="17">
         <v>4</v>
@@ -4589,16 +4001,16 @@
         <v>28</v>
       </c>
       <c r="L94" s="24" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="M94" s="17"/>
     </row>
-    <row r="95" ht="20.1" customHeight="1" spans="3:13">
+    <row r="95" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C95" s="16">
         <v>300101</v>
       </c>
       <c r="D95" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E95" s="17">
         <v>1</v>
@@ -4622,16 +4034,16 @@
         <v>28</v>
       </c>
       <c r="L95" s="24" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="M95" s="17"/>
     </row>
-    <row r="96" ht="20.1" customHeight="1" spans="3:13">
+    <row r="96" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C96" s="16">
         <v>300102</v>
       </c>
       <c r="D96" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E96" s="17">
         <v>4</v>
@@ -4655,16 +4067,16 @@
         <v>28</v>
       </c>
       <c r="L96" s="24" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="M96" s="17"/>
     </row>
-    <row r="97" ht="20.1" customHeight="1" spans="3:13">
+    <row r="97" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C97" s="16">
         <v>300103</v>
       </c>
       <c r="D97" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E97" s="17">
         <v>4</v>
@@ -4688,16 +4100,16 @@
         <v>28</v>
       </c>
       <c r="L97" s="24" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="M97" s="17"/>
     </row>
-    <row r="98" ht="20.1" customHeight="1" spans="3:13">
+    <row r="98" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C98" s="16">
         <v>300104</v>
       </c>
       <c r="D98" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E98" s="17">
         <v>4</v>
@@ -4721,16 +4133,16 @@
         <v>28</v>
       </c>
       <c r="L98" s="24" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="M98" s="17"/>
     </row>
-    <row r="99" ht="20.1" customHeight="1" spans="3:13">
+    <row r="99" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C99" s="16">
         <v>300105</v>
       </c>
       <c r="D99" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E99" s="17">
         <v>2</v>
@@ -4754,16 +4166,16 @@
         <v>28</v>
       </c>
       <c r="L99" s="24" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="M99" s="17"/>
     </row>
-    <row r="100" ht="20.1" customHeight="1" spans="3:13">
+    <row r="100" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C100" s="16">
         <v>300106</v>
       </c>
       <c r="D100" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E100" s="17">
         <v>4</v>
@@ -4787,16 +4199,16 @@
         <v>28</v>
       </c>
       <c r="L100" s="24" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="M100" s="17"/>
     </row>
-    <row r="101" ht="20.1" customHeight="1" spans="3:13">
+    <row r="101" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C101" s="16">
         <v>300201</v>
       </c>
       <c r="D101" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E101" s="17">
         <v>1</v>
@@ -4820,16 +4232,16 @@
         <v>28</v>
       </c>
       <c r="L101" s="24" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="M101" s="17"/>
     </row>
-    <row r="102" ht="20.1" customHeight="1" spans="3:13">
+    <row r="102" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C102" s="16">
         <v>300202</v>
       </c>
       <c r="D102" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E102" s="17">
         <v>4</v>
@@ -4853,16 +4265,16 @@
         <v>28</v>
       </c>
       <c r="L102" s="24" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="M102" s="17"/>
     </row>
-    <row r="103" ht="20.1" customHeight="1" spans="3:13">
+    <row r="103" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C103" s="16">
         <v>300203</v>
       </c>
       <c r="D103" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E103" s="17">
         <v>4</v>
@@ -4886,16 +4298,16 @@
         <v>28</v>
       </c>
       <c r="L103" s="24" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="M103" s="17"/>
     </row>
-    <row r="104" ht="20.1" customHeight="1" spans="3:13">
+    <row r="104" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C104" s="16">
         <v>300204</v>
       </c>
       <c r="D104" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E104" s="17">
         <v>4</v>
@@ -4919,16 +4331,16 @@
         <v>28</v>
       </c>
       <c r="L104" s="24" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="M104" s="23"/>
     </row>
-    <row r="105" ht="20.1" customHeight="1" spans="3:13">
+    <row r="105" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C105" s="16">
         <v>300205</v>
       </c>
       <c r="D105" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E105" s="17">
         <v>2</v>
@@ -4952,16 +4364,16 @@
         <v>28</v>
       </c>
       <c r="L105" s="24" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="M105" s="23"/>
     </row>
-    <row r="106" ht="20.1" customHeight="1" spans="3:13">
+    <row r="106" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C106" s="16">
         <v>300206</v>
       </c>
       <c r="D106" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E106" s="17">
         <v>4</v>
@@ -4985,16 +4397,16 @@
         <v>28</v>
       </c>
       <c r="L106" s="24" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="M106" s="23"/>
     </row>
-    <row r="107" ht="20.1" customHeight="1" spans="3:13">
+    <row r="107" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C107" s="16">
         <v>300301</v>
       </c>
       <c r="D107" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E107" s="17">
         <v>1</v>
@@ -5018,16 +4430,16 @@
         <v>28</v>
       </c>
       <c r="L107" s="24" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="M107" s="17"/>
     </row>
-    <row r="108" ht="20.1" customHeight="1" spans="3:13">
+    <row r="108" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C108" s="16">
         <v>300302</v>
       </c>
       <c r="D108" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E108" s="17">
         <v>4</v>
@@ -5051,16 +4463,16 @@
         <v>28</v>
       </c>
       <c r="L108" s="24" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="M108" s="17"/>
     </row>
-    <row r="109" ht="20.1" customHeight="1" spans="3:13">
+    <row r="109" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C109" s="16">
         <v>300303</v>
       </c>
       <c r="D109" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E109" s="17">
         <v>4</v>
@@ -5084,16 +4496,16 @@
         <v>28</v>
       </c>
       <c r="L109" s="24" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="M109" s="17"/>
     </row>
-    <row r="110" ht="20.1" customHeight="1" spans="3:13">
+    <row r="110" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C110" s="16">
         <v>300304</v>
       </c>
       <c r="D110" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E110" s="17">
         <v>4</v>
@@ -5117,16 +4529,16 @@
         <v>28</v>
       </c>
       <c r="L110" s="24" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="M110" s="23"/>
     </row>
-    <row r="111" ht="20.1" customHeight="1" spans="3:13">
+    <row r="111" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C111" s="16">
         <v>300305</v>
       </c>
       <c r="D111" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E111" s="17">
         <v>2</v>
@@ -5150,16 +4562,16 @@
         <v>28</v>
       </c>
       <c r="L111" s="24" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="M111" s="23"/>
     </row>
-    <row r="112" ht="20.1" customHeight="1" spans="3:13">
+    <row r="112" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C112" s="16">
         <v>300306</v>
       </c>
       <c r="D112" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E112" s="17">
         <v>4</v>
@@ -5183,16 +4595,16 @@
         <v>28</v>
       </c>
       <c r="L112" s="24" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="M112" s="23"/>
     </row>
-    <row r="113" ht="20.1" customHeight="1" spans="3:13">
+    <row r="113" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C113" s="16">
         <v>300401</v>
       </c>
       <c r="D113" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E113" s="17">
         <v>1</v>
@@ -5216,16 +4628,16 @@
         <v>28</v>
       </c>
       <c r="L113" s="24" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="M113" s="23"/>
     </row>
-    <row r="114" ht="20.1" customHeight="1" spans="3:13">
+    <row r="114" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C114" s="16">
         <v>300402</v>
       </c>
       <c r="D114" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E114" s="17">
         <v>4</v>
@@ -5249,16 +4661,16 @@
         <v>28</v>
       </c>
       <c r="L114" s="24" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="M114" s="23"/>
     </row>
-    <row r="115" ht="20.1" customHeight="1" spans="3:13">
+    <row r="115" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C115" s="16">
         <v>300403</v>
       </c>
       <c r="D115" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E115" s="17">
         <v>4</v>
@@ -5282,16 +4694,16 @@
         <v>28</v>
       </c>
       <c r="L115" s="24" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="M115" s="23"/>
     </row>
-    <row r="116" ht="20.1" customHeight="1" spans="3:13">
+    <row r="116" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C116" s="16">
         <v>300404</v>
       </c>
       <c r="D116" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E116" s="17">
         <v>4</v>
@@ -5315,16 +4727,16 @@
         <v>28</v>
       </c>
       <c r="L116" s="24" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="M116" s="17"/>
     </row>
-    <row r="117" ht="20.1" customHeight="1" spans="3:13">
+    <row r="117" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C117" s="16">
         <v>300405</v>
       </c>
       <c r="D117" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E117" s="17">
         <v>2</v>
@@ -5348,16 +4760,16 @@
         <v>28</v>
       </c>
       <c r="L117" s="24" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="M117" s="17"/>
     </row>
-    <row r="118" ht="20.1" customHeight="1" spans="3:13">
+    <row r="118" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C118" s="16">
         <v>300406</v>
       </c>
       <c r="D118" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E118" s="17">
         <v>4</v>
@@ -5381,16 +4793,16 @@
         <v>28</v>
       </c>
       <c r="L118" s="24" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="M118" s="17"/>
     </row>
-    <row r="119" ht="20.1" customHeight="1" spans="3:13">
+    <row r="119" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C119" s="16">
         <v>400001</v>
       </c>
       <c r="D119" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E119" s="17">
         <v>1</v>
@@ -5414,16 +4826,16 @@
         <v>28</v>
       </c>
       <c r="L119" s="24" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="M119" s="17"/>
     </row>
-    <row r="120" ht="20.1" customHeight="1" spans="3:13">
+    <row r="120" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C120" s="16">
         <v>400002</v>
       </c>
       <c r="D120" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E120" s="17">
         <v>4</v>
@@ -5447,16 +4859,16 @@
         <v>28</v>
       </c>
       <c r="L120" s="24" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="M120" s="17"/>
     </row>
-    <row r="121" ht="20.1" customHeight="1" spans="3:13">
+    <row r="121" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C121" s="16">
         <v>400003</v>
       </c>
       <c r="D121" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E121" s="17">
         <v>4</v>
@@ -5480,16 +4892,16 @@
         <v>28</v>
       </c>
       <c r="L121" s="24" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="M121" s="17"/>
     </row>
-    <row r="122" ht="20.1" customHeight="1" spans="3:13">
+    <row r="122" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C122" s="16">
         <v>400004</v>
       </c>
       <c r="D122" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E122" s="17">
         <v>4</v>
@@ -5513,16 +4925,16 @@
         <v>28</v>
       </c>
       <c r="L122" s="24" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="M122" s="17"/>
     </row>
-    <row r="123" ht="20.1" customHeight="1" spans="3:13">
+    <row r="123" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C123" s="16">
         <v>400005</v>
       </c>
       <c r="D123" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E123" s="17">
         <v>2</v>
@@ -5546,16 +4958,16 @@
         <v>28</v>
       </c>
       <c r="L123" s="24" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="M123" s="17"/>
     </row>
-    <row r="124" ht="20.1" customHeight="1" spans="3:13">
+    <row r="124" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C124" s="16">
         <v>400006</v>
       </c>
       <c r="D124" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E124" s="17">
         <v>4</v>
@@ -5579,16 +4991,16 @@
         <v>28</v>
       </c>
       <c r="L124" s="24" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="M124" s="17"/>
     </row>
-    <row r="125" ht="20.1" customHeight="1" spans="3:13">
+    <row r="125" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C125" s="16">
         <v>400101</v>
       </c>
       <c r="D125" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E125" s="17">
         <v>1</v>
@@ -5612,16 +5024,16 @@
         <v>28</v>
       </c>
       <c r="L125" s="24" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="M125" s="17"/>
     </row>
-    <row r="126" ht="20.1" customHeight="1" spans="3:13">
+    <row r="126" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C126" s="16">
         <v>400102</v>
       </c>
       <c r="D126" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E126" s="17">
         <v>4</v>
@@ -5645,16 +5057,16 @@
         <v>28</v>
       </c>
       <c r="L126" s="24" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="M126" s="17"/>
     </row>
-    <row r="127" ht="20.1" customHeight="1" spans="3:13">
+    <row r="127" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C127" s="16">
         <v>400103</v>
       </c>
       <c r="D127" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E127" s="17">
         <v>4</v>
@@ -5678,16 +5090,16 @@
         <v>28</v>
       </c>
       <c r="L127" s="24" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="M127" s="17"/>
     </row>
-    <row r="128" ht="20.1" customHeight="1" spans="3:13">
+    <row r="128" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C128" s="16">
         <v>400104</v>
       </c>
       <c r="D128" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E128" s="17">
         <v>4</v>
@@ -5711,16 +5123,16 @@
         <v>28</v>
       </c>
       <c r="L128" s="24" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="M128" s="17"/>
     </row>
-    <row r="129" ht="20.1" customHeight="1" spans="3:13">
+    <row r="129" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C129" s="16">
         <v>400105</v>
       </c>
       <c r="D129" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E129" s="17">
         <v>2</v>
@@ -5744,16 +5156,16 @@
         <v>28</v>
       </c>
       <c r="L129" s="24" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="M129" s="17"/>
     </row>
-    <row r="130" ht="20.1" customHeight="1" spans="3:13">
+    <row r="130" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C130" s="16">
         <v>400106</v>
       </c>
       <c r="D130" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E130" s="17">
         <v>4</v>
@@ -5777,16 +5189,16 @@
         <v>28</v>
       </c>
       <c r="L130" s="24" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="M130" s="17"/>
     </row>
-    <row r="131" ht="20.1" customHeight="1" spans="3:13">
+    <row r="131" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C131" s="16">
         <v>400201</v>
       </c>
       <c r="D131" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E131" s="17">
         <v>1</v>
@@ -5810,16 +5222,16 @@
         <v>28</v>
       </c>
       <c r="L131" s="24" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="M131" s="17"/>
     </row>
-    <row r="132" ht="20.1" customHeight="1" spans="3:13">
+    <row r="132" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C132" s="16">
         <v>400202</v>
       </c>
       <c r="D132" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E132" s="17">
         <v>4</v>
@@ -5843,16 +5255,16 @@
         <v>28</v>
       </c>
       <c r="L132" s="24" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="M132" s="17"/>
     </row>
-    <row r="133" ht="20.1" customHeight="1" spans="3:13">
+    <row r="133" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C133" s="16">
         <v>400203</v>
       </c>
       <c r="D133" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E133" s="17">
         <v>4</v>
@@ -5876,16 +5288,16 @@
         <v>28</v>
       </c>
       <c r="L133" s="24" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="M133" s="17"/>
     </row>
-    <row r="134" ht="20.1" customHeight="1" spans="3:13">
+    <row r="134" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C134" s="16">
         <v>400204</v>
       </c>
       <c r="D134" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E134" s="17">
         <v>4</v>
@@ -5909,16 +5321,16 @@
         <v>28</v>
       </c>
       <c r="L134" s="24" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="M134" s="17"/>
     </row>
-    <row r="135" ht="20.1" customHeight="1" spans="3:13">
+    <row r="135" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C135" s="16">
         <v>400205</v>
       </c>
       <c r="D135" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E135" s="17">
         <v>2</v>
@@ -5942,16 +5354,16 @@
         <v>28</v>
       </c>
       <c r="L135" s="24" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="M135" s="17"/>
     </row>
-    <row r="136" ht="20.1" customHeight="1" spans="3:13">
+    <row r="136" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C136" s="16">
         <v>400206</v>
       </c>
       <c r="D136" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E136" s="17">
         <v>4</v>
@@ -5975,16 +5387,16 @@
         <v>28</v>
       </c>
       <c r="L136" s="24" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="M136" s="17"/>
     </row>
-    <row r="137" ht="20.1" customHeight="1" spans="3:13">
+    <row r="137" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C137" s="16">
         <v>400301</v>
       </c>
       <c r="D137" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E137" s="17">
         <v>1</v>
@@ -6008,16 +5420,16 @@
         <v>28</v>
       </c>
       <c r="L137" s="24" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="M137" s="17"/>
     </row>
-    <row r="138" ht="20.1" customHeight="1" spans="3:13">
+    <row r="138" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C138" s="16">
         <v>400302</v>
       </c>
       <c r="D138" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E138" s="17">
         <v>4</v>
@@ -6041,16 +5453,16 @@
         <v>28</v>
       </c>
       <c r="L138" s="24" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="M138" s="17"/>
     </row>
-    <row r="139" ht="20.1" customHeight="1" spans="3:13">
+    <row r="139" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C139" s="16">
         <v>400303</v>
       </c>
       <c r="D139" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E139" s="17">
         <v>4</v>
@@ -6074,16 +5486,16 @@
         <v>28</v>
       </c>
       <c r="L139" s="24" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="M139" s="17"/>
     </row>
-    <row r="140" ht="20.1" customHeight="1" spans="3:13">
+    <row r="140" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C140" s="16">
         <v>400304</v>
       </c>
       <c r="D140" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E140" s="17">
         <v>4</v>
@@ -6107,16 +5519,16 @@
         <v>28</v>
       </c>
       <c r="L140" s="24" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="M140" s="17"/>
     </row>
-    <row r="141" ht="20.1" customHeight="1" spans="3:13">
+    <row r="141" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C141" s="16">
         <v>400305</v>
       </c>
       <c r="D141" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E141" s="17">
         <v>2</v>
@@ -6140,16 +5552,16 @@
         <v>28</v>
       </c>
       <c r="L141" s="24" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="M141" s="17"/>
     </row>
-    <row r="142" ht="20.1" customHeight="1" spans="3:13">
+    <row r="142" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C142" s="16">
         <v>400306</v>
       </c>
       <c r="D142" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E142" s="17">
         <v>4</v>
@@ -6173,16 +5585,16 @@
         <v>28</v>
       </c>
       <c r="L142" s="24" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="M142" s="17"/>
     </row>
-    <row r="143" ht="20.1" customHeight="1" spans="3:13">
+    <row r="143" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C143" s="16">
         <v>400401</v>
       </c>
       <c r="D143" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E143" s="17">
         <v>1</v>
@@ -6206,16 +5618,16 @@
         <v>28</v>
       </c>
       <c r="L143" s="24" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="M143" s="17"/>
     </row>
-    <row r="144" ht="20.1" customHeight="1" spans="3:13">
+    <row r="144" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C144" s="16">
         <v>400402</v>
       </c>
       <c r="D144" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E144" s="17">
         <v>4</v>
@@ -6239,16 +5651,16 @@
         <v>28</v>
       </c>
       <c r="L144" s="24" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="M144" s="17"/>
     </row>
-    <row r="145" ht="20.1" customHeight="1" spans="3:13">
+    <row r="145" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C145" s="16">
         <v>400403</v>
       </c>
       <c r="D145" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E145" s="17">
         <v>4</v>
@@ -6272,16 +5684,16 @@
         <v>28</v>
       </c>
       <c r="L145" s="24" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="M145" s="17"/>
     </row>
-    <row r="146" ht="20.1" customHeight="1" spans="3:13">
+    <row r="146" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C146" s="16">
         <v>400404</v>
       </c>
       <c r="D146" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E146" s="17">
         <v>4</v>
@@ -6305,16 +5717,16 @@
         <v>28</v>
       </c>
       <c r="L146" s="24" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="M146" s="17"/>
     </row>
-    <row r="147" ht="20.1" customHeight="1" spans="3:13">
+    <row r="147" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C147" s="16">
         <v>400405</v>
       </c>
       <c r="D147" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E147" s="17">
         <v>2</v>
@@ -6338,16 +5750,16 @@
         <v>28</v>
       </c>
       <c r="L147" s="24" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="M147" s="17"/>
     </row>
-    <row r="148" ht="20.1" customHeight="1" spans="3:13">
+    <row r="148" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C148" s="16">
         <v>400406</v>
       </c>
       <c r="D148" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E148" s="17">
         <v>4</v>
@@ -6371,17 +5783,17 @@
         <v>28</v>
       </c>
       <c r="L148" s="24" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="M148" s="17"/>
     </row>
-    <row r="149" spans="6:6">
+    <row r="149" spans="3:13" x14ac:dyDescent="0.15">
       <c r="F149" s="12"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Unity/Assets/Config/Excel/CellDungeonConfig.xlsx
+++ b/Unity/Assets/Config/Excel/CellDungeonConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\mengjing\Unity\Assets\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5BE782A-7F22-43D7-8EDB-B3E95DF759FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93045532-1E3E-40D5-8DE8-BCF60ED45B4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -887,8 +887,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:W149"/>
   <sheetViews>
-    <sheetView showFormulas="1" tabSelected="1" topLeftCell="D120" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6:K148"/>
+    <sheetView showFormulas="1" tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1565,7 +1565,9 @@
       <c r="L20" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="M20" s="16"/>
+      <c r="M20" s="16">
+        <v>100101</v>
+      </c>
     </row>
     <row r="21" spans="3:13" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C21" s="12">

--- a/Unity/Assets/Config/Excel/CellDungeonConfig.xlsx
+++ b/Unity/Assets/Config/Excel/CellDungeonConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\mengjing\Unity\Assets\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93045532-1E3E-40D5-8DE8-BCF60ED45B4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02768E16-718D-421F-9126-AD610AF5638A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -888,7 +888,7 @@
   <dimension ref="C1:W149"/>
   <sheetViews>
     <sheetView showFormulas="1" tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1499,7 +1499,9 @@
       <c r="L18" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="M18" s="16"/>
+      <c r="M18" s="16">
+        <v>100101</v>
+      </c>
     </row>
     <row r="19" spans="3:13" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C19" s="12">
@@ -1532,7 +1534,9 @@
       <c r="L19" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="M19" s="16"/>
+      <c r="M19" s="16">
+        <v>100101</v>
+      </c>
     </row>
     <row r="20" spans="3:13" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C20" s="12">

--- a/Unity/Assets/Config/Excel/CellDungeonConfig.xlsx
+++ b/Unity/Assets/Config/Excel/CellDungeonConfig.xlsx
@@ -339,7 +339,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="30">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -385,13 +385,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -548,12 +541,12 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1005,149 +998,149 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1231,7 +1224,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="49">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1335,7 +1328,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{B1AAF549-9769-4901-97A0-611279AD0EEF}">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{698F40D2-B96D-420F-8DF2-6D49737F9E74}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -1667,7 +1660,7 @@
   <sheetPr/>
   <dimension ref="C1:W179"/>
   <sheetViews>
-    <sheetView showFormulas="1" tabSelected="1" topLeftCell="J1" workbookViewId="0">
+    <sheetView showFormulas="1" tabSelected="1" workbookViewId="0">
       <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
@@ -1866,7 +1859,7 @@
       <c r="O6" s="15"/>
       <c r="P6" s="25"/>
     </row>
-    <row r="7" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:16">
+    <row r="7" s="2" customFormat="1" ht="20" customHeight="1" spans="3:16">
       <c r="C7" s="13">
         <v>1001102</v>
       </c>

--- a/Unity/Assets/Config/Excel/CellDungeonConfig.xlsx
+++ b/Unity/Assets/Config/Excel/CellDungeonConfig.xlsx
@@ -1328,7 +1328,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{698F40D2-B96D-420F-8DF2-6D49737F9E74}">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{DAE2AD63-61B0-46E2-924B-3A5567453318}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -1660,8 +1660,8 @@
   <sheetPr/>
   <dimension ref="C1:W179"/>
   <sheetViews>
-    <sheetView showFormulas="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView showFormulas="1" tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1677,8 +1677,8 @@
     <col min="11" max="11" width="7" customWidth="1"/>
     <col min="12" max="12" width="23.625" customWidth="1"/>
     <col min="13" max="13" width="31.5" style="2" customWidth="1"/>
-    <col min="14" max="14" width="12.75" style="5" customWidth="1"/>
-    <col min="15" max="15" width="19.625" customWidth="1"/>
+    <col min="14" max="14" width="19.625" customWidth="1"/>
+    <col min="15" max="15" width="12.75" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="20.1" customHeight="1"/>
@@ -1761,10 +1761,10 @@
       <c r="M4" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="N4" s="8" t="s">
+      <c r="N4" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="O4" s="7" t="s">
+      <c r="O4" s="8" t="s">
         <v>20</v>
       </c>
       <c r="P4" s="2"/>
@@ -1853,10 +1853,10 @@
       <c r="M6" s="15">
         <v>311101</v>
       </c>
-      <c r="N6" s="15">
-        <v>0</v>
-      </c>
-      <c r="O6" s="15"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15">
+        <v>0</v>
+      </c>
       <c r="P6" s="25"/>
     </row>
     <row r="7" s="2" customFormat="1" ht="20" customHeight="1" spans="3:16">
@@ -1893,10 +1893,10 @@
       <c r="M7" s="15">
         <v>311201</v>
       </c>
-      <c r="N7" s="15"/>
-      <c r="O7" s="33" t="s">
+      <c r="N7" s="33" t="s">
         <v>32</v>
       </c>
+      <c r="O7" s="15"/>
       <c r="P7" s="25"/>
     </row>
     <row r="8" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:16">
@@ -1933,10 +1933,10 @@
       <c r="M8" s="15">
         <v>311301</v>
       </c>
-      <c r="N8" s="15"/>
-      <c r="O8" s="33" t="s">
+      <c r="N8" s="33" t="s">
         <v>32</v>
       </c>
+      <c r="O8" s="15"/>
       <c r="P8" s="25"/>
     </row>
     <row r="9" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:16">
@@ -1973,10 +1973,10 @@
       <c r="M9" s="15">
         <v>311401</v>
       </c>
-      <c r="N9" s="15"/>
-      <c r="O9" s="33" t="s">
+      <c r="N9" s="33" t="s">
         <v>32</v>
       </c>
+      <c r="O9" s="15"/>
       <c r="P9" s="25"/>
     </row>
     <row r="10" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:16">
@@ -2056,10 +2056,10 @@
         <v>311601</v>
       </c>
       <c r="N11" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="O11" s="33" t="s">
         <v>34</v>
-      </c>
-      <c r="O11" s="33" t="s">
-        <v>32</v>
       </c>
       <c r="P11" s="25"/>
     </row>
@@ -2139,10 +2139,10 @@
       <c r="M13" s="15">
         <v>321201</v>
       </c>
-      <c r="N13" s="15"/>
-      <c r="O13" s="33" t="s">
+      <c r="N13" s="33" t="s">
         <v>32</v>
       </c>
+      <c r="O13" s="15"/>
       <c r="P13" s="5"/>
     </row>
     <row r="14" ht="20.1" customHeight="1" spans="3:16">
@@ -2179,10 +2179,10 @@
       <c r="M14" s="15">
         <v>321301</v>
       </c>
-      <c r="N14" s="15"/>
-      <c r="O14" s="33" t="s">
+      <c r="N14" s="33" t="s">
         <v>32</v>
       </c>
+      <c r="O14" s="15"/>
       <c r="P14" s="5"/>
     </row>
     <row r="15" ht="20.1" customHeight="1" spans="3:16">
@@ -2219,10 +2219,10 @@
       <c r="M15" s="15">
         <v>321401</v>
       </c>
-      <c r="N15" s="15"/>
-      <c r="O15" s="33" t="s">
+      <c r="N15" s="33" t="s">
         <v>32</v>
       </c>
+      <c r="O15" s="15"/>
       <c r="P15" s="5"/>
     </row>
     <row r="16" ht="20.1" customHeight="1" spans="3:16">
@@ -2302,10 +2302,10 @@
         <v>321601</v>
       </c>
       <c r="N17" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="O17" s="33" t="s">
         <v>34</v>
-      </c>
-      <c r="O17" s="33" t="s">
-        <v>32</v>
       </c>
       <c r="P17" s="5"/>
     </row>
@@ -2385,10 +2385,10 @@
       <c r="M19" s="15">
         <v>331201</v>
       </c>
-      <c r="N19" s="15"/>
-      <c r="O19" s="33" t="s">
+      <c r="N19" s="33" t="s">
         <v>47</v>
       </c>
+      <c r="O19" s="15"/>
       <c r="P19" s="5"/>
     </row>
     <row r="20" ht="20.1" customHeight="1" spans="3:16">
@@ -2426,10 +2426,10 @@
         <v>331301</v>
       </c>
       <c r="N20" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="O20" s="33" t="s">
         <v>34</v>
-      </c>
-      <c r="O20" s="33" t="s">
-        <v>47</v>
       </c>
       <c r="P20" s="5"/>
     </row>
@@ -2467,10 +2467,10 @@
       <c r="M21" s="15">
         <v>331401</v>
       </c>
-      <c r="N21" s="15"/>
-      <c r="O21" s="33" t="s">
+      <c r="N21" s="33" t="s">
         <v>48</v>
       </c>
+      <c r="O21" s="15"/>
       <c r="P21" s="5"/>
     </row>
     <row r="22" ht="20.1" customHeight="1" spans="3:16">
@@ -2633,10 +2633,10 @@
       <c r="M25" s="15">
         <v>341201</v>
       </c>
-      <c r="N25" s="15"/>
-      <c r="O25" s="33" t="s">
+      <c r="N25" s="33" t="s">
         <v>52</v>
       </c>
+      <c r="O25" s="15"/>
       <c r="P25" s="5"/>
     </row>
     <row r="26" ht="20.1" customHeight="1" spans="3:16">
@@ -2673,10 +2673,10 @@
       <c r="M26" s="15">
         <v>341301</v>
       </c>
-      <c r="N26" s="15"/>
-      <c r="O26" s="33" t="s">
+      <c r="N26" s="33" t="s">
         <v>52</v>
       </c>
+      <c r="O26" s="15"/>
       <c r="P26" s="5"/>
     </row>
     <row r="27" ht="20.1" customHeight="1" spans="3:16">
@@ -2713,10 +2713,10 @@
       <c r="M27" s="15">
         <v>341401</v>
       </c>
-      <c r="N27" s="15"/>
-      <c r="O27" s="33" t="s">
+      <c r="N27" s="33" t="s">
         <v>52</v>
       </c>
+      <c r="O27" s="15"/>
       <c r="P27" s="5"/>
     </row>
     <row r="28" ht="20.1" customHeight="1" spans="3:16">
@@ -2796,10 +2796,10 @@
         <v>341601</v>
       </c>
       <c r="N29" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="O29" s="33" t="s">
         <v>34</v>
-      </c>
-      <c r="O29" s="33" t="s">
-        <v>52</v>
       </c>
       <c r="P29" s="5"/>
     </row>
@@ -2879,10 +2879,10 @@
       <c r="M31" s="15">
         <v>351201</v>
       </c>
-      <c r="N31" s="15"/>
-      <c r="O31" s="33" t="s">
+      <c r="N31" s="33" t="s">
         <v>61</v>
       </c>
+      <c r="O31" s="15"/>
       <c r="P31" s="13"/>
     </row>
     <row r="32" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:16">
@@ -2919,10 +2919,10 @@
       <c r="M32" s="15">
         <v>351301</v>
       </c>
-      <c r="N32" s="15"/>
-      <c r="O32" s="33" t="s">
+      <c r="N32" s="33" t="s">
         <v>61</v>
       </c>
+      <c r="O32" s="15"/>
       <c r="P32" s="13"/>
     </row>
     <row r="33" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:16">
@@ -2959,10 +2959,10 @@
       <c r="M33" s="15">
         <v>351401</v>
       </c>
-      <c r="N33" s="15"/>
-      <c r="O33" s="33" t="s">
+      <c r="N33" s="33" t="s">
         <v>61</v>
       </c>
+      <c r="O33" s="15"/>
       <c r="P33" s="13"/>
     </row>
     <row r="34" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:16">
@@ -3042,10 +3042,10 @@
         <v>351601</v>
       </c>
       <c r="N35" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="O35" s="33" t="s">
         <v>34</v>
-      </c>
-      <c r="O35" s="33" t="s">
-        <v>61</v>
       </c>
       <c r="P35" s="13"/>
     </row>
@@ -3314,8 +3314,8 @@
         <v>68</v>
       </c>
       <c r="M43" s="23"/>
-      <c r="N43" s="27"/>
-      <c r="O43" s="3"/>
+      <c r="N43" s="3"/>
+      <c r="O43" s="27"/>
       <c r="P43" s="3"/>
       <c r="Q43" s="3"/>
       <c r="R43" s="3"/>
@@ -3353,8 +3353,8 @@
         <v>68</v>
       </c>
       <c r="M44" s="23"/>
-      <c r="N44" s="27"/>
-      <c r="O44" s="3"/>
+      <c r="N44" s="3"/>
+      <c r="O44" s="27"/>
       <c r="P44" s="3"/>
       <c r="Q44" s="3"/>
       <c r="R44" s="3"/>
@@ -3392,8 +3392,8 @@
         <v>68</v>
       </c>
       <c r="M45" s="23"/>
-      <c r="N45" s="27"/>
-      <c r="O45" s="3"/>
+      <c r="N45" s="3"/>
+      <c r="O45" s="27"/>
       <c r="P45" s="3"/>
       <c r="Q45" s="3"/>
       <c r="R45" s="3"/>
@@ -3431,8 +3431,8 @@
         <v>68</v>
       </c>
       <c r="M46" s="23"/>
-      <c r="N46" s="27"/>
-      <c r="O46" s="3"/>
+      <c r="N46" s="3"/>
+      <c r="O46" s="27"/>
       <c r="P46" s="3"/>
       <c r="Q46" s="3"/>
       <c r="R46" s="3"/>
@@ -3776,7 +3776,7 @@
       </c>
       <c r="M56" s="23"/>
     </row>
-    <row r="57" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
+    <row r="57" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:15">
       <c r="C57" s="22">
         <v>100301</v>
       </c>
@@ -3808,9 +3808,9 @@
         <v>68</v>
       </c>
       <c r="M57" s="23"/>
-      <c r="N57" s="28"/>
-    </row>
-    <row r="58" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
+      <c r="O57" s="28"/>
+    </row>
+    <row r="58" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:15">
       <c r="C58" s="22">
         <v>100302</v>
       </c>
@@ -3842,9 +3842,9 @@
         <v>68</v>
       </c>
       <c r="M58" s="23"/>
-      <c r="N58" s="28"/>
-    </row>
-    <row r="59" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
+      <c r="O58" s="28"/>
+    </row>
+    <row r="59" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:15">
       <c r="C59" s="22">
         <v>100303</v>
       </c>
@@ -3876,9 +3876,9 @@
         <v>68</v>
       </c>
       <c r="M59" s="23"/>
-      <c r="N59" s="28"/>
-    </row>
-    <row r="60" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
+      <c r="O59" s="28"/>
+    </row>
+    <row r="60" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:15">
       <c r="C60" s="22">
         <v>100304</v>
       </c>
@@ -3910,9 +3910,9 @@
         <v>68</v>
       </c>
       <c r="M60" s="23"/>
-      <c r="N60" s="28"/>
-    </row>
-    <row r="61" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
+      <c r="O60" s="28"/>
+    </row>
+    <row r="61" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:15">
       <c r="C61" s="22">
         <v>100305</v>
       </c>
@@ -3944,9 +3944,9 @@
         <v>68</v>
       </c>
       <c r="M61" s="23"/>
-      <c r="N61" s="28"/>
-    </row>
-    <row r="62" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
+      <c r="O61" s="28"/>
+    </row>
+    <row r="62" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:15">
       <c r="C62" s="22">
         <v>100306</v>
       </c>
@@ -3978,9 +3978,9 @@
         <v>68</v>
       </c>
       <c r="M62" s="23"/>
-      <c r="N62" s="28"/>
-    </row>
-    <row r="63" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
+      <c r="O62" s="28"/>
+    </row>
+    <row r="63" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:15">
       <c r="C63" s="22">
         <v>100401</v>
       </c>
@@ -4012,9 +4012,9 @@
         <v>68</v>
       </c>
       <c r="M63" s="23"/>
-      <c r="N63" s="28"/>
-    </row>
-    <row r="64" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
+      <c r="O63" s="28"/>
+    </row>
+    <row r="64" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:15">
       <c r="C64" s="24">
         <v>100402</v>
       </c>
@@ -4046,9 +4046,9 @@
         <v>68</v>
       </c>
       <c r="M64" s="23"/>
-      <c r="N64" s="28"/>
-    </row>
-    <row r="65" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
+      <c r="O64" s="28"/>
+    </row>
+    <row r="65" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:15">
       <c r="C65" s="24">
         <v>100403</v>
       </c>
@@ -4080,9 +4080,9 @@
         <v>68</v>
       </c>
       <c r="M65" s="23"/>
-      <c r="N65" s="28"/>
-    </row>
-    <row r="66" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
+      <c r="O65" s="28"/>
+    </row>
+    <row r="66" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:15">
       <c r="C66" s="24">
         <v>100404</v>
       </c>
@@ -4114,9 +4114,9 @@
         <v>68</v>
       </c>
       <c r="M66" s="23"/>
-      <c r="N66" s="28"/>
-    </row>
-    <row r="67" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
+      <c r="O66" s="28"/>
+    </row>
+    <row r="67" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:15">
       <c r="C67" s="24">
         <v>100405</v>
       </c>
@@ -4148,9 +4148,9 @@
         <v>68</v>
       </c>
       <c r="M67" s="23"/>
-      <c r="N67" s="28"/>
-    </row>
-    <row r="68" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
+      <c r="O67" s="28"/>
+    </row>
+    <row r="68" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:15">
       <c r="C68" s="24">
         <v>100406</v>
       </c>
@@ -4182,9 +4182,9 @@
         <v>68</v>
       </c>
       <c r="M68" s="23"/>
-      <c r="N68" s="28"/>
-    </row>
-    <row r="69" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
+      <c r="O68" s="28"/>
+    </row>
+    <row r="69" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:15">
       <c r="C69" s="24">
         <v>100407</v>
       </c>
@@ -4216,9 +4216,9 @@
         <v>68</v>
       </c>
       <c r="M69" s="23"/>
-      <c r="N69" s="28"/>
-    </row>
-    <row r="70" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
+      <c r="O69" s="28"/>
+    </row>
+    <row r="70" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:15">
       <c r="C70" s="22">
         <v>100501</v>
       </c>
@@ -4250,9 +4250,9 @@
         <v>68</v>
       </c>
       <c r="M70" s="23"/>
-      <c r="N70" s="28"/>
-    </row>
-    <row r="71" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
+      <c r="O70" s="28"/>
+    </row>
+    <row r="71" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:15">
       <c r="C71" s="22">
         <v>100502</v>
       </c>
@@ -4284,9 +4284,9 @@
         <v>68</v>
       </c>
       <c r="M71" s="23"/>
-      <c r="N71" s="28"/>
-    </row>
-    <row r="72" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
+      <c r="O71" s="28"/>
+    </row>
+    <row r="72" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:15">
       <c r="C72" s="22">
         <v>100503</v>
       </c>
@@ -4318,9 +4318,9 @@
         <v>68</v>
       </c>
       <c r="M72" s="23"/>
-      <c r="N72" s="28"/>
-    </row>
-    <row r="73" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
+      <c r="O72" s="28"/>
+    </row>
+    <row r="73" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:15">
       <c r="C73" s="22">
         <v>100504</v>
       </c>
@@ -4352,9 +4352,9 @@
         <v>68</v>
       </c>
       <c r="M73" s="23"/>
-      <c r="N73" s="28"/>
-    </row>
-    <row r="74" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
+      <c r="O73" s="28"/>
+    </row>
+    <row r="74" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:15">
       <c r="C74" s="22">
         <v>100505</v>
       </c>
@@ -4386,9 +4386,9 @@
         <v>68</v>
       </c>
       <c r="M74" s="23"/>
-      <c r="N74" s="28"/>
-    </row>
-    <row r="75" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
+      <c r="O74" s="28"/>
+    </row>
+    <row r="75" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:15">
       <c r="C75" s="22">
         <v>100506</v>
       </c>
@@ -4420,9 +4420,9 @@
         <v>68</v>
       </c>
       <c r="M75" s="23"/>
-      <c r="N75" s="28"/>
-    </row>
-    <row r="76" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
+      <c r="O75" s="28"/>
+    </row>
+    <row r="76" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:15">
       <c r="C76" s="22">
         <v>100601</v>
       </c>
@@ -4454,9 +4454,9 @@
         <v>68</v>
       </c>
       <c r="M76" s="23"/>
-      <c r="N76" s="28"/>
-    </row>
-    <row r="77" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
+      <c r="O76" s="28"/>
+    </row>
+    <row r="77" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:15">
       <c r="C77" s="22">
         <v>100602</v>
       </c>
@@ -4488,9 +4488,9 @@
         <v>68</v>
       </c>
       <c r="M77" s="23"/>
-      <c r="N77" s="28"/>
-    </row>
-    <row r="78" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
+      <c r="O77" s="28"/>
+    </row>
+    <row r="78" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:15">
       <c r="C78" s="22">
         <v>100603</v>
       </c>
@@ -4522,9 +4522,9 @@
         <v>68</v>
       </c>
       <c r="M78" s="23"/>
-      <c r="N78" s="28"/>
-    </row>
-    <row r="79" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
+      <c r="O78" s="28"/>
+    </row>
+    <row r="79" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:15">
       <c r="C79" s="22">
         <v>100604</v>
       </c>
@@ -4556,9 +4556,9 @@
         <v>68</v>
       </c>
       <c r="M79" s="23"/>
-      <c r="N79" s="28"/>
-    </row>
-    <row r="80" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
+      <c r="O79" s="28"/>
+    </row>
+    <row r="80" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:15">
       <c r="C80" s="22">
         <v>100605</v>
       </c>
@@ -4590,9 +4590,9 @@
         <v>68</v>
       </c>
       <c r="M80" s="23"/>
-      <c r="N80" s="28"/>
-    </row>
-    <row r="81" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
+      <c r="O80" s="28"/>
+    </row>
+    <row r="81" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:15">
       <c r="C81" s="22">
         <v>100606</v>
       </c>
@@ -4624,9 +4624,9 @@
         <v>68</v>
       </c>
       <c r="M81" s="23"/>
-      <c r="N81" s="28"/>
-    </row>
-    <row r="82" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
+      <c r="O81" s="28"/>
+    </row>
+    <row r="82" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:15">
       <c r="C82" s="22">
         <v>100607</v>
       </c>
@@ -4658,9 +4658,9 @@
         <v>68</v>
       </c>
       <c r="M82" s="23"/>
-      <c r="N82" s="28"/>
-    </row>
-    <row r="83" s="4" customFormat="1" ht="19.5" customHeight="1" spans="3:14">
+      <c r="O82" s="28"/>
+    </row>
+    <row r="83" s="4" customFormat="1" ht="19.5" customHeight="1" spans="3:15">
       <c r="C83" s="22">
         <v>100701</v>
       </c>
@@ -4692,9 +4692,9 @@
         <v>68</v>
       </c>
       <c r="M83" s="23"/>
-      <c r="N83" s="28"/>
-    </row>
-    <row r="84" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
+      <c r="O83" s="28"/>
+    </row>
+    <row r="84" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:15">
       <c r="C84" s="22">
         <v>100702</v>
       </c>
@@ -4726,9 +4726,9 @@
         <v>68</v>
       </c>
       <c r="M84" s="23"/>
-      <c r="N84" s="28"/>
-    </row>
-    <row r="85" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
+      <c r="O84" s="28"/>
+    </row>
+    <row r="85" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:15">
       <c r="C85" s="22">
         <v>100703</v>
       </c>
@@ -4760,9 +4760,9 @@
         <v>68</v>
       </c>
       <c r="M85" s="23"/>
-      <c r="N85" s="28"/>
-    </row>
-    <row r="86" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
+      <c r="O85" s="28"/>
+    </row>
+    <row r="86" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:15">
       <c r="C86" s="22">
         <v>100704</v>
       </c>
@@ -4794,9 +4794,9 @@
         <v>68</v>
       </c>
       <c r="M86" s="23"/>
-      <c r="N86" s="28"/>
-    </row>
-    <row r="87" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
+      <c r="O86" s="28"/>
+    </row>
+    <row r="87" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:15">
       <c r="C87" s="22">
         <v>100705</v>
       </c>
@@ -4828,9 +4828,9 @@
         <v>68</v>
       </c>
       <c r="M87" s="23"/>
-      <c r="N87" s="28"/>
-    </row>
-    <row r="88" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
+      <c r="O87" s="28"/>
+    </row>
+    <row r="88" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:15">
       <c r="C88" s="22">
         <v>100706</v>
       </c>
@@ -4862,9 +4862,9 @@
         <v>68</v>
       </c>
       <c r="M88" s="23"/>
-      <c r="N88" s="28"/>
-    </row>
-    <row r="89" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
+      <c r="O88" s="28"/>
+    </row>
+    <row r="89" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:15">
       <c r="C89" s="22">
         <v>200001</v>
       </c>
@@ -4896,9 +4896,9 @@
         <v>68</v>
       </c>
       <c r="M89" s="23"/>
-      <c r="N89" s="28"/>
-    </row>
-    <row r="90" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
+      <c r="O89" s="28"/>
+    </row>
+    <row r="90" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:15">
       <c r="C90" s="22">
         <v>200002</v>
       </c>
@@ -4930,9 +4930,9 @@
         <v>68</v>
       </c>
       <c r="M90" s="23"/>
-      <c r="N90" s="28"/>
-    </row>
-    <row r="91" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
+      <c r="O90" s="28"/>
+    </row>
+    <row r="91" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:15">
       <c r="C91" s="22">
         <v>200003</v>
       </c>
@@ -4964,9 +4964,9 @@
         <v>68</v>
       </c>
       <c r="M91" s="23"/>
-      <c r="N91" s="28"/>
-    </row>
-    <row r="92" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
+      <c r="O91" s="28"/>
+    </row>
+    <row r="92" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:15">
       <c r="C92" s="22">
         <v>200004</v>
       </c>
@@ -4998,9 +4998,9 @@
         <v>68</v>
       </c>
       <c r="M92" s="23"/>
-      <c r="N92" s="28"/>
-    </row>
-    <row r="93" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
+      <c r="O92" s="28"/>
+    </row>
+    <row r="93" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:15">
       <c r="C93" s="22">
         <v>200005</v>
       </c>
@@ -5032,9 +5032,9 @@
         <v>68</v>
       </c>
       <c r="M93" s="23"/>
-      <c r="N93" s="28"/>
-    </row>
-    <row r="94" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
+      <c r="O93" s="28"/>
+    </row>
+    <row r="94" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:15">
       <c r="C94" s="22">
         <v>200006</v>
       </c>
@@ -5066,9 +5066,9 @@
         <v>68</v>
       </c>
       <c r="M94" s="23"/>
-      <c r="N94" s="28"/>
-    </row>
-    <row r="95" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
+      <c r="O94" s="28"/>
+    </row>
+    <row r="95" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:15">
       <c r="C95" s="22">
         <v>200101</v>
       </c>
@@ -5100,9 +5100,9 @@
         <v>68</v>
       </c>
       <c r="M95" s="23"/>
-      <c r="N95" s="28"/>
-    </row>
-    <row r="96" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
+      <c r="O95" s="28"/>
+    </row>
+    <row r="96" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:15">
       <c r="C96" s="22">
         <v>200102</v>
       </c>
@@ -5134,9 +5134,9 @@
         <v>68</v>
       </c>
       <c r="M96" s="23"/>
-      <c r="N96" s="28"/>
-    </row>
-    <row r="97" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
+      <c r="O96" s="28"/>
+    </row>
+    <row r="97" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:15">
       <c r="C97" s="22">
         <v>200103</v>
       </c>
@@ -5168,9 +5168,9 @@
         <v>68</v>
       </c>
       <c r="M97" s="23"/>
-      <c r="N97" s="28"/>
-    </row>
-    <row r="98" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
+      <c r="O97" s="28"/>
+    </row>
+    <row r="98" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:15">
       <c r="C98" s="22">
         <v>200104</v>
       </c>
@@ -5202,9 +5202,9 @@
         <v>68</v>
       </c>
       <c r="M98" s="23"/>
-      <c r="N98" s="28"/>
-    </row>
-    <row r="99" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
+      <c r="O98" s="28"/>
+    </row>
+    <row r="99" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:15">
       <c r="C99" s="22">
         <v>200105</v>
       </c>
@@ -5236,9 +5236,9 @@
         <v>68</v>
       </c>
       <c r="M99" s="23"/>
-      <c r="N99" s="28"/>
-    </row>
-    <row r="100" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
+      <c r="O99" s="28"/>
+    </row>
+    <row r="100" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:15">
       <c r="C100" s="22">
         <v>200106</v>
       </c>
@@ -5270,9 +5270,9 @@
         <v>68</v>
       </c>
       <c r="M100" s="23"/>
-      <c r="N100" s="28"/>
-    </row>
-    <row r="101" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
+      <c r="O100" s="28"/>
+    </row>
+    <row r="101" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:15">
       <c r="C101" s="22">
         <v>200201</v>
       </c>
@@ -5304,9 +5304,9 @@
         <v>68</v>
       </c>
       <c r="M101" s="23"/>
-      <c r="N101" s="28"/>
-    </row>
-    <row r="102" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
+      <c r="O101" s="28"/>
+    </row>
+    <row r="102" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:15">
       <c r="C102" s="22">
         <v>200202</v>
       </c>
@@ -5338,9 +5338,9 @@
         <v>68</v>
       </c>
       <c r="M102" s="23"/>
-      <c r="N102" s="28"/>
-    </row>
-    <row r="103" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
+      <c r="O102" s="28"/>
+    </row>
+    <row r="103" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:15">
       <c r="C103" s="22">
         <v>200203</v>
       </c>
@@ -5372,9 +5372,9 @@
         <v>68</v>
       </c>
       <c r="M103" s="23"/>
-      <c r="N103" s="28"/>
-    </row>
-    <row r="104" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
+      <c r="O103" s="28"/>
+    </row>
+    <row r="104" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:15">
       <c r="C104" s="22">
         <v>200204</v>
       </c>
@@ -5406,9 +5406,9 @@
         <v>68</v>
       </c>
       <c r="M104" s="23"/>
-      <c r="N104" s="28"/>
-    </row>
-    <row r="105" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
+      <c r="O104" s="28"/>
+    </row>
+    <row r="105" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:15">
       <c r="C105" s="22">
         <v>200205</v>
       </c>
@@ -5440,9 +5440,9 @@
         <v>68</v>
       </c>
       <c r="M105" s="23"/>
-      <c r="N105" s="28"/>
-    </row>
-    <row r="106" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
+      <c r="O105" s="28"/>
+    </row>
+    <row r="106" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:15">
       <c r="C106" s="22">
         <v>200206</v>
       </c>
@@ -5474,9 +5474,9 @@
         <v>68</v>
       </c>
       <c r="M106" s="23"/>
-      <c r="N106" s="28"/>
-    </row>
-    <row r="107" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
+      <c r="O106" s="28"/>
+    </row>
+    <row r="107" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:15">
       <c r="C107" s="22">
         <v>200301</v>
       </c>
@@ -5508,9 +5508,9 @@
         <v>68</v>
       </c>
       <c r="M107" s="23"/>
-      <c r="N107" s="28"/>
-    </row>
-    <row r="108" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
+      <c r="O107" s="28"/>
+    </row>
+    <row r="108" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:15">
       <c r="C108" s="22">
         <v>200302</v>
       </c>
@@ -5542,9 +5542,9 @@
         <v>68</v>
       </c>
       <c r="M108" s="23"/>
-      <c r="N108" s="28"/>
-    </row>
-    <row r="109" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
+      <c r="O108" s="28"/>
+    </row>
+    <row r="109" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:15">
       <c r="C109" s="22">
         <v>200303</v>
       </c>
@@ -5576,9 +5576,9 @@
         <v>68</v>
       </c>
       <c r="M109" s="23"/>
-      <c r="N109" s="28"/>
-    </row>
-    <row r="110" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
+      <c r="O109" s="28"/>
+    </row>
+    <row r="110" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:15">
       <c r="C110" s="22">
         <v>200304</v>
       </c>
@@ -5610,9 +5610,9 @@
         <v>68</v>
       </c>
       <c r="M110" s="23"/>
-      <c r="N110" s="28"/>
-    </row>
-    <row r="111" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
+      <c r="O110" s="28"/>
+    </row>
+    <row r="111" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:15">
       <c r="C111" s="22">
         <v>200305</v>
       </c>
@@ -5644,9 +5644,9 @@
         <v>68</v>
       </c>
       <c r="M111" s="23"/>
-      <c r="N111" s="28"/>
-    </row>
-    <row r="112" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
+      <c r="O111" s="28"/>
+    </row>
+    <row r="112" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:15">
       <c r="C112" s="22">
         <v>200306</v>
       </c>
@@ -5678,9 +5678,9 @@
         <v>68</v>
       </c>
       <c r="M112" s="23"/>
-      <c r="N112" s="28"/>
-    </row>
-    <row r="113" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
+      <c r="O112" s="28"/>
+    </row>
+    <row r="113" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:15">
       <c r="C113" s="22">
         <v>200401</v>
       </c>
@@ -5712,9 +5712,9 @@
         <v>68</v>
       </c>
       <c r="M113" s="23"/>
-      <c r="N113" s="28"/>
-    </row>
-    <row r="114" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
+      <c r="O113" s="28"/>
+    </row>
+    <row r="114" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:15">
       <c r="C114" s="22">
         <v>200402</v>
       </c>
@@ -5746,9 +5746,9 @@
         <v>68</v>
       </c>
       <c r="M114" s="23"/>
-      <c r="N114" s="28"/>
-    </row>
-    <row r="115" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
+      <c r="O114" s="28"/>
+    </row>
+    <row r="115" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:15">
       <c r="C115" s="22">
         <v>200403</v>
       </c>
@@ -5780,9 +5780,9 @@
         <v>68</v>
       </c>
       <c r="M115" s="23"/>
-      <c r="N115" s="28"/>
-    </row>
-    <row r="116" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
+      <c r="O115" s="28"/>
+    </row>
+    <row r="116" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:15">
       <c r="C116" s="22">
         <v>200404</v>
       </c>
@@ -5814,9 +5814,9 @@
         <v>68</v>
       </c>
       <c r="M116" s="23"/>
-      <c r="N116" s="28"/>
-    </row>
-    <row r="117" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
+      <c r="O116" s="28"/>
+    </row>
+    <row r="117" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:15">
       <c r="C117" s="22">
         <v>200405</v>
       </c>
@@ -5848,9 +5848,9 @@
         <v>68</v>
       </c>
       <c r="M117" s="23"/>
-      <c r="N117" s="28"/>
-    </row>
-    <row r="118" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
+      <c r="O117" s="28"/>
+    </row>
+    <row r="118" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:15">
       <c r="C118" s="22">
         <v>200406</v>
       </c>
@@ -5882,9 +5882,9 @@
         <v>68</v>
       </c>
       <c r="M118" s="23"/>
-      <c r="N118" s="28"/>
-    </row>
-    <row r="119" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
+      <c r="O118" s="28"/>
+    </row>
+    <row r="119" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:15">
       <c r="C119" s="22">
         <v>300001</v>
       </c>
@@ -5916,9 +5916,9 @@
         <v>68</v>
       </c>
       <c r="M119" s="23"/>
-      <c r="N119" s="28"/>
-    </row>
-    <row r="120" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
+      <c r="O119" s="28"/>
+    </row>
+    <row r="120" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:15">
       <c r="C120" s="22">
         <v>300002</v>
       </c>
@@ -5950,9 +5950,9 @@
         <v>68</v>
       </c>
       <c r="M120" s="23"/>
-      <c r="N120" s="28"/>
-    </row>
-    <row r="121" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
+      <c r="O120" s="28"/>
+    </row>
+    <row r="121" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:15">
       <c r="C121" s="22">
         <v>300003</v>
       </c>
@@ -5984,9 +5984,9 @@
         <v>68</v>
       </c>
       <c r="M121" s="23"/>
-      <c r="N121" s="28"/>
-    </row>
-    <row r="122" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
+      <c r="O121" s="28"/>
+    </row>
+    <row r="122" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:15">
       <c r="C122" s="22">
         <v>300004</v>
       </c>
@@ -6018,9 +6018,9 @@
         <v>68</v>
       </c>
       <c r="M122" s="23"/>
-      <c r="N122" s="28"/>
-    </row>
-    <row r="123" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
+      <c r="O122" s="28"/>
+    </row>
+    <row r="123" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:15">
       <c r="C123" s="22">
         <v>300005</v>
       </c>
@@ -6052,9 +6052,9 @@
         <v>68</v>
       </c>
       <c r="M123" s="23"/>
-      <c r="N123" s="28"/>
-    </row>
-    <row r="124" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
+      <c r="O123" s="28"/>
+    </row>
+    <row r="124" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:15">
       <c r="C124" s="22">
         <v>300006</v>
       </c>
@@ -6086,9 +6086,9 @@
         <v>68</v>
       </c>
       <c r="M124" s="23"/>
-      <c r="N124" s="28"/>
-    </row>
-    <row r="125" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
+      <c r="O124" s="28"/>
+    </row>
+    <row r="125" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:15">
       <c r="C125" s="22">
         <v>300101</v>
       </c>
@@ -6120,9 +6120,9 @@
         <v>68</v>
       </c>
       <c r="M125" s="23"/>
-      <c r="N125" s="28"/>
-    </row>
-    <row r="126" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
+      <c r="O125" s="28"/>
+    </row>
+    <row r="126" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:15">
       <c r="C126" s="22">
         <v>300102</v>
       </c>
@@ -6154,9 +6154,9 @@
         <v>68</v>
       </c>
       <c r="M126" s="23"/>
-      <c r="N126" s="28"/>
-    </row>
-    <row r="127" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
+      <c r="O126" s="28"/>
+    </row>
+    <row r="127" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:15">
       <c r="C127" s="22">
         <v>300103</v>
       </c>
@@ -6188,9 +6188,9 @@
         <v>68</v>
       </c>
       <c r="M127" s="23"/>
-      <c r="N127" s="28"/>
-    </row>
-    <row r="128" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
+      <c r="O127" s="28"/>
+    </row>
+    <row r="128" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:15">
       <c r="C128" s="22">
         <v>300104</v>
       </c>
@@ -6222,9 +6222,9 @@
         <v>68</v>
       </c>
       <c r="M128" s="23"/>
-      <c r="N128" s="28"/>
-    </row>
-    <row r="129" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
+      <c r="O128" s="28"/>
+    </row>
+    <row r="129" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:15">
       <c r="C129" s="22">
         <v>300105</v>
       </c>
@@ -6256,9 +6256,9 @@
         <v>68</v>
       </c>
       <c r="M129" s="23"/>
-      <c r="N129" s="28"/>
-    </row>
-    <row r="130" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
+      <c r="O129" s="28"/>
+    </row>
+    <row r="130" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:15">
       <c r="C130" s="22">
         <v>300106</v>
       </c>
@@ -6290,9 +6290,9 @@
         <v>68</v>
       </c>
       <c r="M130" s="23"/>
-      <c r="N130" s="28"/>
-    </row>
-    <row r="131" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
+      <c r="O130" s="28"/>
+    </row>
+    <row r="131" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:15">
       <c r="C131" s="22">
         <v>300201</v>
       </c>
@@ -6324,9 +6324,9 @@
         <v>68</v>
       </c>
       <c r="M131" s="23"/>
-      <c r="N131" s="28"/>
-    </row>
-    <row r="132" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
+      <c r="O131" s="28"/>
+    </row>
+    <row r="132" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:15">
       <c r="C132" s="22">
         <v>300202</v>
       </c>
@@ -6358,9 +6358,9 @@
         <v>68</v>
       </c>
       <c r="M132" s="23"/>
-      <c r="N132" s="28"/>
-    </row>
-    <row r="133" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
+      <c r="O132" s="28"/>
+    </row>
+    <row r="133" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:15">
       <c r="C133" s="22">
         <v>300203</v>
       </c>
@@ -6392,9 +6392,9 @@
         <v>68</v>
       </c>
       <c r="M133" s="23"/>
-      <c r="N133" s="28"/>
-    </row>
-    <row r="134" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
+      <c r="O133" s="28"/>
+    </row>
+    <row r="134" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:15">
       <c r="C134" s="22">
         <v>300204</v>
       </c>
@@ -6426,9 +6426,9 @@
         <v>68</v>
       </c>
       <c r="M134" s="23"/>
-      <c r="N134" s="28"/>
-    </row>
-    <row r="135" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
+      <c r="O134" s="28"/>
+    </row>
+    <row r="135" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:15">
       <c r="C135" s="22">
         <v>300205</v>
       </c>
@@ -6460,9 +6460,9 @@
         <v>68</v>
       </c>
       <c r="M135" s="23"/>
-      <c r="N135" s="28"/>
-    </row>
-    <row r="136" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
+      <c r="O135" s="28"/>
+    </row>
+    <row r="136" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:15">
       <c r="C136" s="22">
         <v>300206</v>
       </c>
@@ -6494,9 +6494,9 @@
         <v>68</v>
       </c>
       <c r="M136" s="23"/>
-      <c r="N136" s="28"/>
-    </row>
-    <row r="137" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
+      <c r="O136" s="28"/>
+    </row>
+    <row r="137" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:15">
       <c r="C137" s="22">
         <v>300301</v>
       </c>
@@ -6528,9 +6528,9 @@
         <v>68</v>
       </c>
       <c r="M137" s="23"/>
-      <c r="N137" s="28"/>
-    </row>
-    <row r="138" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
+      <c r="O137" s="28"/>
+    </row>
+    <row r="138" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:15">
       <c r="C138" s="22">
         <v>300302</v>
       </c>
@@ -6562,9 +6562,9 @@
         <v>68</v>
       </c>
       <c r="M138" s="23"/>
-      <c r="N138" s="28"/>
-    </row>
-    <row r="139" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
+      <c r="O138" s="28"/>
+    </row>
+    <row r="139" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:15">
       <c r="C139" s="22">
         <v>300303</v>
       </c>
@@ -6596,9 +6596,9 @@
         <v>68</v>
       </c>
       <c r="M139" s="23"/>
-      <c r="N139" s="28"/>
-    </row>
-    <row r="140" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
+      <c r="O139" s="28"/>
+    </row>
+    <row r="140" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:15">
       <c r="C140" s="22">
         <v>300304</v>
       </c>
@@ -6630,9 +6630,9 @@
         <v>68</v>
       </c>
       <c r="M140" s="23"/>
-      <c r="N140" s="28"/>
-    </row>
-    <row r="141" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
+      <c r="O140" s="28"/>
+    </row>
+    <row r="141" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:15">
       <c r="C141" s="22">
         <v>300305</v>
       </c>
@@ -6664,9 +6664,9 @@
         <v>68</v>
       </c>
       <c r="M141" s="23"/>
-      <c r="N141" s="28"/>
-    </row>
-    <row r="142" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
+      <c r="O141" s="28"/>
+    </row>
+    <row r="142" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:15">
       <c r="C142" s="22">
         <v>300306</v>
       </c>
@@ -6698,9 +6698,9 @@
         <v>68</v>
       </c>
       <c r="M142" s="23"/>
-      <c r="N142" s="28"/>
-    </row>
-    <row r="143" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
+      <c r="O142" s="28"/>
+    </row>
+    <row r="143" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:15">
       <c r="C143" s="22">
         <v>300401</v>
       </c>
@@ -6732,9 +6732,9 @@
         <v>68</v>
       </c>
       <c r="M143" s="23"/>
-      <c r="N143" s="28"/>
-    </row>
-    <row r="144" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
+      <c r="O143" s="28"/>
+    </row>
+    <row r="144" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:15">
       <c r="C144" s="22">
         <v>300402</v>
       </c>
@@ -6766,9 +6766,9 @@
         <v>68</v>
       </c>
       <c r="M144" s="23"/>
-      <c r="N144" s="28"/>
-    </row>
-    <row r="145" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
+      <c r="O144" s="28"/>
+    </row>
+    <row r="145" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:15">
       <c r="C145" s="22">
         <v>300403</v>
       </c>
@@ -6800,9 +6800,9 @@
         <v>68</v>
       </c>
       <c r="M145" s="23"/>
-      <c r="N145" s="28"/>
-    </row>
-    <row r="146" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
+      <c r="O145" s="28"/>
+    </row>
+    <row r="146" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:15">
       <c r="C146" s="22">
         <v>300404</v>
       </c>
@@ -6834,9 +6834,9 @@
         <v>68</v>
       </c>
       <c r="M146" s="23"/>
-      <c r="N146" s="28"/>
-    </row>
-    <row r="147" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
+      <c r="O146" s="28"/>
+    </row>
+    <row r="147" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:15">
       <c r="C147" s="22">
         <v>300405</v>
       </c>
@@ -6868,9 +6868,9 @@
         <v>68</v>
       </c>
       <c r="M147" s="23"/>
-      <c r="N147" s="28"/>
-    </row>
-    <row r="148" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
+      <c r="O147" s="28"/>
+    </row>
+    <row r="148" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:15">
       <c r="C148" s="22">
         <v>300406</v>
       </c>
@@ -6902,9 +6902,9 @@
         <v>68</v>
       </c>
       <c r="M148" s="23"/>
-      <c r="N148" s="28"/>
-    </row>
-    <row r="149" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
+      <c r="O148" s="28"/>
+    </row>
+    <row r="149" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:15">
       <c r="C149" s="22">
         <v>400001</v>
       </c>
@@ -6936,9 +6936,9 @@
         <v>68</v>
       </c>
       <c r="M149" s="23"/>
-      <c r="N149" s="28"/>
-    </row>
-    <row r="150" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
+      <c r="O149" s="28"/>
+    </row>
+    <row r="150" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:15">
       <c r="C150" s="22">
         <v>400002</v>
       </c>
@@ -6970,9 +6970,9 @@
         <v>68</v>
       </c>
       <c r="M150" s="23"/>
-      <c r="N150" s="28"/>
-    </row>
-    <row r="151" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
+      <c r="O150" s="28"/>
+    </row>
+    <row r="151" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:15">
       <c r="C151" s="22">
         <v>400003</v>
       </c>
@@ -7004,9 +7004,9 @@
         <v>68</v>
       </c>
       <c r="M151" s="23"/>
-      <c r="N151" s="28"/>
-    </row>
-    <row r="152" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
+      <c r="O151" s="28"/>
+    </row>
+    <row r="152" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:15">
       <c r="C152" s="22">
         <v>400004</v>
       </c>
@@ -7038,9 +7038,9 @@
         <v>68</v>
       </c>
       <c r="M152" s="23"/>
-      <c r="N152" s="28"/>
-    </row>
-    <row r="153" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
+      <c r="O152" s="28"/>
+    </row>
+    <row r="153" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:15">
       <c r="C153" s="22">
         <v>400005</v>
       </c>
@@ -7072,9 +7072,9 @@
         <v>68</v>
       </c>
       <c r="M153" s="23"/>
-      <c r="N153" s="28"/>
-    </row>
-    <row r="154" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
+      <c r="O153" s="28"/>
+    </row>
+    <row r="154" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:15">
       <c r="C154" s="22">
         <v>400006</v>
       </c>
@@ -7106,9 +7106,9 @@
         <v>68</v>
       </c>
       <c r="M154" s="23"/>
-      <c r="N154" s="28"/>
-    </row>
-    <row r="155" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
+      <c r="O154" s="28"/>
+    </row>
+    <row r="155" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:15">
       <c r="C155" s="22">
         <v>400101</v>
       </c>
@@ -7140,9 +7140,9 @@
         <v>68</v>
       </c>
       <c r="M155" s="23"/>
-      <c r="N155" s="28"/>
-    </row>
-    <row r="156" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
+      <c r="O155" s="28"/>
+    </row>
+    <row r="156" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:15">
       <c r="C156" s="22">
         <v>400102</v>
       </c>
@@ -7174,9 +7174,9 @@
         <v>68</v>
       </c>
       <c r="M156" s="23"/>
-      <c r="N156" s="28"/>
-    </row>
-    <row r="157" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
+      <c r="O156" s="28"/>
+    </row>
+    <row r="157" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:15">
       <c r="C157" s="22">
         <v>400103</v>
       </c>
@@ -7208,9 +7208,9 @@
         <v>68</v>
       </c>
       <c r="M157" s="23"/>
-      <c r="N157" s="28"/>
-    </row>
-    <row r="158" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
+      <c r="O157" s="28"/>
+    </row>
+    <row r="158" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:15">
       <c r="C158" s="22">
         <v>400104</v>
       </c>
@@ -7242,9 +7242,9 @@
         <v>68</v>
       </c>
       <c r="M158" s="23"/>
-      <c r="N158" s="28"/>
-    </row>
-    <row r="159" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
+      <c r="O158" s="28"/>
+    </row>
+    <row r="159" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:15">
       <c r="C159" s="22">
         <v>400105</v>
       </c>
@@ -7276,9 +7276,9 @@
         <v>68</v>
       </c>
       <c r="M159" s="23"/>
-      <c r="N159" s="28"/>
-    </row>
-    <row r="160" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
+      <c r="O159" s="28"/>
+    </row>
+    <row r="160" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:15">
       <c r="C160" s="22">
         <v>400106</v>
       </c>
@@ -7310,9 +7310,9 @@
         <v>68</v>
       </c>
       <c r="M160" s="23"/>
-      <c r="N160" s="28"/>
-    </row>
-    <row r="161" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
+      <c r="O160" s="28"/>
+    </row>
+    <row r="161" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:15">
       <c r="C161" s="22">
         <v>400201</v>
       </c>
@@ -7344,9 +7344,9 @@
         <v>68</v>
       </c>
       <c r="M161" s="23"/>
-      <c r="N161" s="28"/>
-    </row>
-    <row r="162" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
+      <c r="O161" s="28"/>
+    </row>
+    <row r="162" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:15">
       <c r="C162" s="22">
         <v>400202</v>
       </c>
@@ -7378,9 +7378,9 @@
         <v>68</v>
       </c>
       <c r="M162" s="23"/>
-      <c r="N162" s="28"/>
-    </row>
-    <row r="163" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
+      <c r="O162" s="28"/>
+    </row>
+    <row r="163" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:15">
       <c r="C163" s="22">
         <v>400203</v>
       </c>
@@ -7412,9 +7412,9 @@
         <v>68</v>
       </c>
       <c r="M163" s="23"/>
-      <c r="N163" s="28"/>
-    </row>
-    <row r="164" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
+      <c r="O163" s="28"/>
+    </row>
+    <row r="164" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:15">
       <c r="C164" s="22">
         <v>400204</v>
       </c>
@@ -7446,9 +7446,9 @@
         <v>68</v>
       </c>
       <c r="M164" s="23"/>
-      <c r="N164" s="28"/>
-    </row>
-    <row r="165" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
+      <c r="O164" s="28"/>
+    </row>
+    <row r="165" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:15">
       <c r="C165" s="22">
         <v>400205</v>
       </c>
@@ -7480,9 +7480,9 @@
         <v>68</v>
       </c>
       <c r="M165" s="23"/>
-      <c r="N165" s="28"/>
-    </row>
-    <row r="166" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
+      <c r="O165" s="28"/>
+    </row>
+    <row r="166" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:15">
       <c r="C166" s="22">
         <v>400206</v>
       </c>
@@ -7514,9 +7514,9 @@
         <v>68</v>
       </c>
       <c r="M166" s="23"/>
-      <c r="N166" s="28"/>
-    </row>
-    <row r="167" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
+      <c r="O166" s="28"/>
+    </row>
+    <row r="167" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:15">
       <c r="C167" s="22">
         <v>400301</v>
       </c>
@@ -7548,9 +7548,9 @@
         <v>68</v>
       </c>
       <c r="M167" s="23"/>
-      <c r="N167" s="28"/>
-    </row>
-    <row r="168" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
+      <c r="O167" s="28"/>
+    </row>
+    <row r="168" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:15">
       <c r="C168" s="22">
         <v>400302</v>
       </c>
@@ -7582,9 +7582,9 @@
         <v>68</v>
       </c>
       <c r="M168" s="23"/>
-      <c r="N168" s="28"/>
-    </row>
-    <row r="169" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
+      <c r="O168" s="28"/>
+    </row>
+    <row r="169" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:15">
       <c r="C169" s="22">
         <v>400303</v>
       </c>
@@ -7616,9 +7616,9 @@
         <v>68</v>
       </c>
       <c r="M169" s="23"/>
-      <c r="N169" s="28"/>
-    </row>
-    <row r="170" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
+      <c r="O169" s="28"/>
+    </row>
+    <row r="170" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:15">
       <c r="C170" s="22">
         <v>400304</v>
       </c>
@@ -7650,9 +7650,9 @@
         <v>68</v>
       </c>
       <c r="M170" s="23"/>
-      <c r="N170" s="28"/>
-    </row>
-    <row r="171" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
+      <c r="O170" s="28"/>
+    </row>
+    <row r="171" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:15">
       <c r="C171" s="22">
         <v>400305</v>
       </c>
@@ -7684,9 +7684,9 @@
         <v>68</v>
       </c>
       <c r="M171" s="23"/>
-      <c r="N171" s="28"/>
-    </row>
-    <row r="172" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
+      <c r="O171" s="28"/>
+    </row>
+    <row r="172" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:15">
       <c r="C172" s="22">
         <v>400306</v>
       </c>
@@ -7718,9 +7718,9 @@
         <v>68</v>
       </c>
       <c r="M172" s="23"/>
-      <c r="N172" s="28"/>
-    </row>
-    <row r="173" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
+      <c r="O172" s="28"/>
+    </row>
+    <row r="173" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:15">
       <c r="C173" s="22">
         <v>400401</v>
       </c>
@@ -7752,9 +7752,9 @@
         <v>68</v>
       </c>
       <c r="M173" s="23"/>
-      <c r="N173" s="28"/>
-    </row>
-    <row r="174" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
+      <c r="O173" s="28"/>
+    </row>
+    <row r="174" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:15">
       <c r="C174" s="22">
         <v>400402</v>
       </c>
@@ -7786,9 +7786,9 @@
         <v>68</v>
       </c>
       <c r="M174" s="23"/>
-      <c r="N174" s="28"/>
-    </row>
-    <row r="175" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
+      <c r="O174" s="28"/>
+    </row>
+    <row r="175" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:15">
       <c r="C175" s="22">
         <v>400403</v>
       </c>
@@ -7820,9 +7820,9 @@
         <v>68</v>
       </c>
       <c r="M175" s="23"/>
-      <c r="N175" s="28"/>
-    </row>
-    <row r="176" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
+      <c r="O175" s="28"/>
+    </row>
+    <row r="176" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:15">
       <c r="C176" s="22">
         <v>400404</v>
       </c>
@@ -7854,9 +7854,9 @@
         <v>68</v>
       </c>
       <c r="M176" s="23"/>
-      <c r="N176" s="28"/>
-    </row>
-    <row r="177" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
+      <c r="O176" s="28"/>
+    </row>
+    <row r="177" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:15">
       <c r="C177" s="22">
         <v>400405</v>
       </c>
@@ -7888,9 +7888,9 @@
         <v>68</v>
       </c>
       <c r="M177" s="23"/>
-      <c r="N177" s="28"/>
-    </row>
-    <row r="178" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
+      <c r="O177" s="28"/>
+    </row>
+    <row r="178" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:15">
       <c r="C178" s="22">
         <v>400406</v>
       </c>
@@ -7922,7 +7922,7 @@
         <v>68</v>
       </c>
       <c r="M178" s="23"/>
-      <c r="N178" s="28"/>
+      <c r="O178" s="28"/>
     </row>
     <row r="179" spans="6:6">
       <c r="F179" s="31"/>
